--- a/Code/Results/Cases/Case_4_53/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_53/res_line/loading_percent.xlsx
@@ -412,37 +412,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.92525451679943</v>
+        <v>17.92525451679947</v>
       </c>
       <c r="C2">
-        <v>15.24909249843106</v>
+        <v>15.24909249843102</v>
       </c>
       <c r="D2">
-        <v>7.160381855434929</v>
+        <v>7.160381855434796</v>
       </c>
       <c r="E2">
-        <v>7.043750545597605</v>
+        <v>7.043750545597581</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>35.7783934018726</v>
+        <v>35.77839340187263</v>
       </c>
       <c r="H2">
-        <v>30.58565537401108</v>
+        <v>30.58565537401109</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>16.80410288071041</v>
+        <v>16.8041028807104</v>
       </c>
       <c r="K2">
-        <v>9.858242296547362</v>
+        <v>9.858242296547367</v>
       </c>
       <c r="L2">
-        <v>14.15795412111683</v>
+        <v>14.15795412111686</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,37 +450,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.62669439709617</v>
+        <v>16.62669439709601</v>
       </c>
       <c r="C3">
-        <v>14.1318690457941</v>
+        <v>14.13186904579405</v>
       </c>
       <c r="D3">
-        <v>6.642899585358634</v>
+        <v>6.642899585358605</v>
       </c>
       <c r="E3">
-        <v>6.852777102651787</v>
+        <v>6.852777102651834</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>34.06127445213586</v>
+        <v>34.06127445213592</v>
       </c>
       <c r="H3">
-        <v>29.32360809605311</v>
+        <v>29.32360809605323</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>15.60960883438987</v>
+        <v>15.60960883438975</v>
       </c>
       <c r="K3">
-        <v>9.371134424707044</v>
+        <v>9.371134424707067</v>
       </c>
       <c r="L3">
-        <v>13.1715372994009</v>
+        <v>13.1715372994008</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.79061574299148</v>
+        <v>15.79061574299147</v>
       </c>
       <c r="C4">
-        <v>13.41389982810379</v>
+        <v>13.41389982810376</v>
       </c>
       <c r="D4">
-        <v>6.309930074879087</v>
+        <v>6.309930074879057</v>
       </c>
       <c r="E4">
-        <v>6.737961759357844</v>
+        <v>6.737961759357777</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>32.99593272249629</v>
+        <v>32.99593272249636</v>
       </c>
       <c r="H4">
-        <v>28.5467733545312</v>
+        <v>28.54677335453124</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>14.84095418783746</v>
+        <v>14.84095418783744</v>
       </c>
       <c r="K4">
-        <v>9.06915653385129</v>
+        <v>9.069156533851267</v>
       </c>
       <c r="L4">
         <v>12.53707928107957</v>
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.43995923324899</v>
+        <v>15.43995923324897</v>
       </c>
       <c r="C5">
-        <v>13.11308492500103</v>
+        <v>13.11308492500102</v>
       </c>
       <c r="D5">
-        <v>6.187347057736769</v>
+        <v>6.187347057736762</v>
       </c>
       <c r="E5">
-        <v>6.69179618477459</v>
+        <v>6.691796184774546</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>32.5593043009551</v>
+        <v>32.55930430095513</v>
       </c>
       <c r="H5">
         <v>28.22989057168</v>
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>14.5186711292739</v>
+        <v>14.51867112927386</v>
       </c>
       <c r="K5">
-        <v>8.945474784961171</v>
+        <v>8.94547478496116</v>
       </c>
       <c r="L5">
-        <v>12.27114891326714</v>
+        <v>12.27114891326713</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,25 +564,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.38112655841192</v>
+        <v>15.38112655841197</v>
       </c>
       <c r="C6">
-        <v>13.06263202484923</v>
+        <v>13.06263202484915</v>
       </c>
       <c r="D6">
-        <v>6.167647207668285</v>
+        <v>6.167647207668243</v>
       </c>
       <c r="E6">
-        <v>6.684168329018305</v>
+        <v>6.684168329018217</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>32.48666182901121</v>
+        <v>32.48666182901124</v>
       </c>
       <c r="H6">
-        <v>28.17725927551776</v>
+        <v>28.17725927551781</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -591,10 +591,10 @@
         <v>14.46460436322992</v>
       </c>
       <c r="K6">
-        <v>8.924903470531877</v>
+        <v>8.924903470531863</v>
       </c>
       <c r="L6">
-        <v>12.22654151650679</v>
+        <v>12.22654151650682</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,37 +602,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.78592720051802</v>
+        <v>15.78592720051809</v>
       </c>
       <c r="C7">
-        <v>13.40987652670131</v>
+        <v>13.40987652670141</v>
       </c>
       <c r="D7">
-        <v>6.30806332100254</v>
+        <v>6.308063321002566</v>
       </c>
       <c r="E7">
-        <v>6.737336620176025</v>
+        <v>6.737336620175989</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>32.99005385762612</v>
+        <v>32.99005385762607</v>
       </c>
       <c r="H7">
-        <v>28.54250078114518</v>
+        <v>28.54250078114513</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>14.83664465134762</v>
+        <v>14.83664465134771</v>
       </c>
       <c r="K7">
-        <v>9.067490883984181</v>
+        <v>9.067490883984187</v>
       </c>
       <c r="L7">
-        <v>12.53352292600136</v>
+        <v>12.53352292600141</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,37 +640,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.48542861743429</v>
+        <v>17.4854286174343</v>
       </c>
       <c r="C8">
-        <v>14.8703922903212</v>
+        <v>14.87039229032158</v>
       </c>
       <c r="D8">
-        <v>6.985064269311334</v>
+        <v>6.985064269311215</v>
       </c>
       <c r="E8">
-        <v>6.977399615643972</v>
+        <v>6.977399615644171</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>35.18875686043481</v>
+        <v>35.18875686043474</v>
       </c>
       <c r="H8">
-        <v>30.15098719755911</v>
+        <v>30.15098719755907</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>16.39943354541938</v>
+        <v>16.39943354541954</v>
       </c>
       <c r="K8">
-        <v>9.690940785989872</v>
+        <v>9.690940785989884</v>
       </c>
       <c r="L8">
-        <v>13.82372308139263</v>
+        <v>13.82372308139266</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,13 +678,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.52063953918238</v>
+        <v>20.5206395391823</v>
       </c>
       <c r="C9">
-        <v>17.49024731366005</v>
+        <v>17.49024731365999</v>
       </c>
       <c r="D9">
-        <v>8.195848749742279</v>
+        <v>8.195848749742252</v>
       </c>
       <c r="E9">
         <v>7.467452461311479</v>
@@ -693,22 +693,22 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>39.40590993961414</v>
+        <v>39.40590993961391</v>
       </c>
       <c r="H9">
-        <v>33.28565065032323</v>
+        <v>33.2856506503231</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>19.19402482833782</v>
+        <v>19.19402482833776</v>
       </c>
       <c r="K9">
-        <v>10.88763526478406</v>
+        <v>10.887635264784</v>
       </c>
       <c r="L9">
-        <v>16.13261210508475</v>
+        <v>16.1326121050847</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,37 +716,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.58483617560479</v>
+        <v>22.58483617560473</v>
       </c>
       <c r="C10">
-        <v>19.28122714979768</v>
+        <v>19.28122714979748</v>
       </c>
       <c r="D10">
-        <v>9.020489877699367</v>
+        <v>9.020489877699308</v>
       </c>
       <c r="E10">
-        <v>7.83970142511062</v>
+        <v>7.839701425110615</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>42.44540170276779</v>
+        <v>42.44540170276765</v>
       </c>
       <c r="H10">
-        <v>35.57651362165799</v>
+        <v>35.57651362165785</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>21.09742297743006</v>
+        <v>21.09742297743</v>
       </c>
       <c r="K10">
-        <v>11.80073983391532</v>
+        <v>11.80073983391525</v>
       </c>
       <c r="L10">
-        <v>17.70564346823498</v>
+        <v>17.70564346823491</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,37 +754,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.49192037868607</v>
+        <v>23.49192037868619</v>
       </c>
       <c r="C11">
-        <v>20.07084550172708</v>
+        <v>20.07084550172689</v>
       </c>
       <c r="D11">
-        <v>9.383159126966344</v>
+        <v>9.383159126966358</v>
       </c>
       <c r="E11">
-        <v>8.012000595122268</v>
+        <v>8.012000595122206</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>43.81757474042957</v>
+        <v>43.81757474042944</v>
       </c>
       <c r="H11">
-        <v>36.61772338305854</v>
+        <v>36.61772338305838</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>21.93464086389357</v>
+        <v>21.93464086389364</v>
       </c>
       <c r="K11">
-        <v>12.27950419006151</v>
+        <v>12.27950419006149</v>
       </c>
       <c r="L11">
-        <v>18.39750052560329</v>
+        <v>18.39750052560331</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,37 +792,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.83120790720095</v>
+        <v>23.83120790720088</v>
       </c>
       <c r="C12">
-        <v>20.36662488863306</v>
+        <v>20.36662488863302</v>
       </c>
       <c r="D12">
-        <v>9.518856274052762</v>
+        <v>9.518856274052775</v>
       </c>
       <c r="E12">
-        <v>8.077713955559647</v>
+        <v>8.077713955559688</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>44.33602692162783</v>
+        <v>44.33602692162798</v>
       </c>
       <c r="H12">
-        <v>37.0121379778912</v>
+        <v>37.01213797789137</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>22.24792665322441</v>
+        <v>22.24792665322433</v>
       </c>
       <c r="K12">
-        <v>12.45868918103084</v>
+        <v>12.4586891810308</v>
       </c>
       <c r="L12">
-        <v>18.65637191641017</v>
+        <v>18.65637191641012</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,25 +830,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.75831656067776</v>
+        <v>23.75831656067774</v>
       </c>
       <c r="C13">
-        <v>20.30306060421283</v>
+        <v>20.30306060421286</v>
       </c>
       <c r="D13">
-        <v>9.489701608464287</v>
+        <v>9.489701608464166</v>
       </c>
       <c r="E13">
-        <v>8.063539777551032</v>
+        <v>8.063539777550989</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>44.2244133647636</v>
+        <v>44.22441336476378</v>
       </c>
       <c r="H13">
-        <v>36.92718250674437</v>
+        <v>36.92718250674451</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -857,10 +857,10 @@
         <v>22.1806152917347</v>
       </c>
       <c r="K13">
-        <v>12.42018883629283</v>
+        <v>12.42018883629288</v>
       </c>
       <c r="L13">
-        <v>18.60075297599188</v>
+        <v>18.60075297599193</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,37 +868,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.51991564319502</v>
+        <v>23.51991564319496</v>
       </c>
       <c r="C14">
-        <v>20.0952418513209</v>
+        <v>20.09524185132089</v>
       </c>
       <c r="D14">
-        <v>9.394354873235841</v>
+        <v>9.394354873235782</v>
       </c>
       <c r="E14">
-        <v>8.017397207592152</v>
+        <v>8.017397207592168</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>43.8602488177695</v>
+        <v>43.86024881776941</v>
       </c>
       <c r="H14">
-        <v>36.65016757332057</v>
+        <v>36.65016757332049</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>21.96048793101681</v>
+        <v>21.96048793101678</v>
       </c>
       <c r="K14">
-        <v>12.29428689812833</v>
+        <v>12.29428689812835</v>
       </c>
       <c r="L14">
-        <v>18.41885873244765</v>
+        <v>18.41885873244762</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,37 +906,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.37335291176815</v>
+        <v>23.37335291176809</v>
       </c>
       <c r="C15">
-        <v>19.96753817014158</v>
+        <v>19.9675381701415</v>
       </c>
       <c r="D15">
-        <v>9.33574391314588</v>
+        <v>9.335743913145652</v>
       </c>
       <c r="E15">
-        <v>7.989195938473761</v>
+        <v>7.989195938473778</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>43.63704941423163</v>
+        <v>43.63704941423168</v>
       </c>
       <c r="H15">
-        <v>36.48051472057588</v>
+        <v>36.48051472057595</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>21.82517702174829</v>
+        <v>21.82517702174821</v>
       </c>
       <c r="K15">
-        <v>12.21689983179457</v>
+        <v>12.21689983179451</v>
       </c>
       <c r="L15">
-        <v>18.30704634724324</v>
+        <v>18.30704634724313</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,37 +944,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.52494533629969</v>
+        <v>22.52494533629967</v>
       </c>
       <c r="C16">
-        <v>19.22914960670968</v>
+        <v>19.2291496067098</v>
       </c>
       <c r="D16">
-        <v>8.996550498476285</v>
+        <v>8.996550498476315</v>
       </c>
       <c r="E16">
-        <v>7.828504042933009</v>
+        <v>7.828504042933024</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>42.35554219687716</v>
+        <v>42.3555421968773</v>
       </c>
       <c r="H16">
-        <v>35.50846962361106</v>
+        <v>35.50846962361117</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>21.04216270743525</v>
+        <v>21.04216270743534</v>
       </c>
       <c r="K16">
-        <v>11.76914390900495</v>
+        <v>11.76914390900497</v>
       </c>
       <c r="L16">
-        <v>17.65997557352971</v>
+        <v>17.65997557352976</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.99655470946755</v>
+        <v>21.99655470946754</v>
       </c>
       <c r="C17">
-        <v>18.76999384543509</v>
+        <v>18.7699938454353</v>
       </c>
       <c r="D17">
-        <v>8.785377287759962</v>
+        <v>8.785377287759889</v>
       </c>
       <c r="E17">
-        <v>7.730707801387063</v>
+        <v>7.730707801387101</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1000,16 +1000,16 @@
         <v>41.5668918625878</v>
       </c>
       <c r="H17">
-        <v>34.91206938248131</v>
+        <v>34.91206938248134</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>20.5547178489365</v>
+        <v>20.55471784893653</v>
       </c>
       <c r="K17">
-        <v>11.50055131443056</v>
+        <v>11.50055131443055</v>
       </c>
       <c r="L17">
         <v>17.25713700480155</v>
@@ -1020,37 +1020,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.68960703656495</v>
+        <v>21.68960703656497</v>
       </c>
       <c r="C18">
-        <v>18.50351073893429</v>
+        <v>18.50351073893411</v>
       </c>
       <c r="D18">
-        <v>8.662732451300133</v>
+        <v>8.662732451300146</v>
       </c>
       <c r="E18">
-        <v>7.674733335209511</v>
+        <v>7.674733335209444</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>41.11226251927771</v>
+        <v>41.11226251927763</v>
       </c>
       <c r="H18">
-        <v>34.56892748752414</v>
+        <v>34.56892748752411</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>20.27163109014921</v>
+        <v>20.27163109014913</v>
       </c>
       <c r="K18">
-        <v>11.37164046092734</v>
+        <v>11.37164046092732</v>
       </c>
       <c r="L18">
-        <v>17.02318227174769</v>
+        <v>17.02318227174771</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,37 +1058,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.58514830484698</v>
+        <v>21.585148304847</v>
       </c>
       <c r="C19">
-        <v>18.41286320113787</v>
+        <v>18.41286320113788</v>
       </c>
       <c r="D19">
-        <v>8.62099937000564</v>
+        <v>8.620999370005595</v>
       </c>
       <c r="E19">
-        <v>7.655827626694915</v>
+        <v>7.655827626694863</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>40.95814957992794</v>
+        <v>40.95814957992793</v>
       </c>
       <c r="H19">
-        <v>34.45272073331162</v>
+        <v>34.45272073331164</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>20.17530497872404</v>
+        <v>20.17530497872406</v>
       </c>
       <c r="K19">
-        <v>11.32793686218301</v>
+        <v>11.32793686218299</v>
       </c>
       <c r="L19">
-        <v>16.94357412111733</v>
+        <v>16.94357412111735</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,37 +1096,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.05311390623099</v>
+        <v>22.05311390623104</v>
       </c>
       <c r="C20">
-        <v>18.81911643175977</v>
+        <v>18.81911643175982</v>
       </c>
       <c r="D20">
-        <v>8.807978482805728</v>
+        <v>8.80797848280586</v>
       </c>
       <c r="E20">
-        <v>7.741089631463471</v>
+        <v>7.741089631463508</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>41.65094837511797</v>
+        <v>41.65094837511802</v>
       </c>
       <c r="H20">
-        <v>34.97556686007318</v>
+        <v>34.97556686007323</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>20.60688633191488</v>
+        <v>20.60688633191496</v>
       </c>
       <c r="K20">
-        <v>11.52438335300284</v>
+        <v>11.52438335300285</v>
       </c>
       <c r="L20">
-        <v>17.30025102116091</v>
+        <v>17.3002510211609</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,37 +1134,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.59005055494667</v>
+        <v>23.59005055494665</v>
       </c>
       <c r="C21">
-        <v>20.15636767034067</v>
+        <v>20.15636767034071</v>
       </c>
       <c r="D21">
-        <v>9.42240362898605</v>
+        <v>9.422403628986112</v>
       </c>
       <c r="E21">
-        <v>8.030937299203911</v>
+        <v>8.030937299203995</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>43.9672407137949</v>
+        <v>43.96724071379485</v>
       </c>
       <c r="H21">
-        <v>36.73152735960677</v>
+        <v>36.73152735960674</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>22.02524324718134</v>
+        <v>22.02524324718137</v>
       </c>
       <c r="K21">
-        <v>12.33132289127789</v>
+        <v>12.3313228912779</v>
       </c>
       <c r="L21">
-        <v>18.47236761343678</v>
+        <v>18.47236761343674</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,37 +1172,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.57023617538313</v>
+        <v>24.5702361753831</v>
       </c>
       <c r="C22">
-        <v>21.01171964663575</v>
+        <v>21.01171964663555</v>
       </c>
       <c r="D22">
-        <v>9.814508110083169</v>
+        <v>9.814508110083244</v>
       </c>
       <c r="E22">
-        <v>8.223125842526272</v>
+        <v>8.223125842526239</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>45.47458403168861</v>
+        <v>45.4745840316886</v>
       </c>
       <c r="H22">
-        <v>37.88011939467903</v>
+        <v>37.88011939467905</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>22.93057377535328</v>
+        <v>22.93057377535321</v>
       </c>
       <c r="K22">
-        <v>12.84918409896722</v>
+        <v>12.84918409896719</v>
       </c>
       <c r="L22">
-        <v>19.22039706506424</v>
+        <v>19.22039706506422</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.04917255181635</v>
+        <v>24.04917255181631</v>
       </c>
       <c r="C23">
-        <v>20.55676525868809</v>
+        <v>20.55676525868797</v>
       </c>
       <c r="D23">
         <v>9.606042881889852</v>
       </c>
       <c r="E23">
-        <v>8.120280738223698</v>
+        <v>8.12028073822372</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>44.67052433332358</v>
+        <v>44.67052433332353</v>
       </c>
       <c r="H23">
         <v>37.26688825270482</v>
@@ -1234,13 +1234,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>22.44922586808648</v>
+        <v>22.44922586808638</v>
       </c>
       <c r="K23">
-        <v>12.57383133496745</v>
+        <v>12.57383133496737</v>
       </c>
       <c r="L23">
-        <v>18.82270004753588</v>
+        <v>18.82270004753578</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,31 +1248,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.02755339202391</v>
+        <v>22.02755339202396</v>
       </c>
       <c r="C24">
-        <v>18.79691595116349</v>
+        <v>18.79691595116355</v>
       </c>
       <c r="D24">
-        <v>8.797764351649148</v>
+        <v>8.797764351649223</v>
       </c>
       <c r="E24">
-        <v>7.736395230602199</v>
+        <v>7.73639523060224</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>41.61295026208742</v>
+        <v>41.61295026208747</v>
       </c>
       <c r="H24">
-        <v>34.94686048939454</v>
+        <v>34.94686048939457</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>20.58330985941093</v>
+        <v>20.58330985941096</v>
       </c>
       <c r="K24">
         <v>11.51361006761771</v>
@@ -1286,37 +1286,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.72987987413122</v>
+        <v>19.72987987413143</v>
       </c>
       <c r="C25">
-        <v>16.80620419399273</v>
+        <v>16.80620419399265</v>
       </c>
       <c r="D25">
-        <v>7.880196941463432</v>
+        <v>7.880196941463447</v>
       </c>
       <c r="E25">
-        <v>7.332799892664209</v>
+        <v>7.332799892664236</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>38.27572362759646</v>
+        <v>38.27572362759651</v>
       </c>
       <c r="H25">
-        <v>32.44004662874391</v>
+        <v>32.44004662874392</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>18.46549337029461</v>
+        <v>18.46549337029472</v>
       </c>
       <c r="K25">
-        <v>10.56694846031184</v>
+        <v>10.56694846031185</v>
       </c>
       <c r="L25">
-        <v>15.53057162895047</v>
+        <v>15.53057162895051</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_53/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_53/res_line/loading_percent.xlsx
@@ -412,37 +412,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.92525451679947</v>
+        <v>17.92525451679943</v>
       </c>
       <c r="C2">
-        <v>15.24909249843102</v>
+        <v>15.24909249843106</v>
       </c>
       <c r="D2">
-        <v>7.160381855434796</v>
+        <v>7.160381855434929</v>
       </c>
       <c r="E2">
-        <v>7.043750545597581</v>
+        <v>7.043750545597605</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>35.77839340187263</v>
+        <v>35.7783934018726</v>
       </c>
       <c r="H2">
-        <v>30.58565537401109</v>
+        <v>30.58565537401108</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>16.8041028807104</v>
+        <v>16.80410288071041</v>
       </c>
       <c r="K2">
-        <v>9.858242296547367</v>
+        <v>9.858242296547362</v>
       </c>
       <c r="L2">
-        <v>14.15795412111686</v>
+        <v>14.15795412111683</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,37 +450,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.62669439709601</v>
+        <v>16.62669439709617</v>
       </c>
       <c r="C3">
-        <v>14.13186904579405</v>
+        <v>14.1318690457941</v>
       </c>
       <c r="D3">
-        <v>6.642899585358605</v>
+        <v>6.642899585358634</v>
       </c>
       <c r="E3">
-        <v>6.852777102651834</v>
+        <v>6.852777102651787</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>34.06127445213592</v>
+        <v>34.06127445213586</v>
       </c>
       <c r="H3">
-        <v>29.32360809605323</v>
+        <v>29.32360809605311</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>15.60960883438975</v>
+        <v>15.60960883438987</v>
       </c>
       <c r="K3">
-        <v>9.371134424707067</v>
+        <v>9.371134424707044</v>
       </c>
       <c r="L3">
-        <v>13.1715372994008</v>
+        <v>13.1715372994009</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.79061574299147</v>
+        <v>15.79061574299148</v>
       </c>
       <c r="C4">
-        <v>13.41389982810376</v>
+        <v>13.41389982810379</v>
       </c>
       <c r="D4">
-        <v>6.309930074879057</v>
+        <v>6.309930074879087</v>
       </c>
       <c r="E4">
-        <v>6.737961759357777</v>
+        <v>6.737961759357844</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>32.99593272249636</v>
+        <v>32.99593272249629</v>
       </c>
       <c r="H4">
-        <v>28.54677335453124</v>
+        <v>28.5467733545312</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>14.84095418783744</v>
+        <v>14.84095418783746</v>
       </c>
       <c r="K4">
-        <v>9.069156533851267</v>
+        <v>9.06915653385129</v>
       </c>
       <c r="L4">
         <v>12.53707928107957</v>
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.43995923324897</v>
+        <v>15.43995923324899</v>
       </c>
       <c r="C5">
-        <v>13.11308492500102</v>
+        <v>13.11308492500103</v>
       </c>
       <c r="D5">
-        <v>6.187347057736762</v>
+        <v>6.187347057736769</v>
       </c>
       <c r="E5">
-        <v>6.691796184774546</v>
+        <v>6.69179618477459</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>32.55930430095513</v>
+        <v>32.5593043009551</v>
       </c>
       <c r="H5">
         <v>28.22989057168</v>
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>14.51867112927386</v>
+        <v>14.5186711292739</v>
       </c>
       <c r="K5">
-        <v>8.94547478496116</v>
+        <v>8.945474784961171</v>
       </c>
       <c r="L5">
-        <v>12.27114891326713</v>
+        <v>12.27114891326714</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,25 +564,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.38112655841197</v>
+        <v>15.38112655841192</v>
       </c>
       <c r="C6">
-        <v>13.06263202484915</v>
+        <v>13.06263202484923</v>
       </c>
       <c r="D6">
-        <v>6.167647207668243</v>
+        <v>6.167647207668285</v>
       </c>
       <c r="E6">
-        <v>6.684168329018217</v>
+        <v>6.684168329018305</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>32.48666182901124</v>
+        <v>32.48666182901121</v>
       </c>
       <c r="H6">
-        <v>28.17725927551781</v>
+        <v>28.17725927551776</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -591,10 +591,10 @@
         <v>14.46460436322992</v>
       </c>
       <c r="K6">
-        <v>8.924903470531863</v>
+        <v>8.924903470531877</v>
       </c>
       <c r="L6">
-        <v>12.22654151650682</v>
+        <v>12.22654151650679</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,37 +602,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.78592720051809</v>
+        <v>15.78592720051802</v>
       </c>
       <c r="C7">
-        <v>13.40987652670141</v>
+        <v>13.40987652670131</v>
       </c>
       <c r="D7">
-        <v>6.308063321002566</v>
+        <v>6.30806332100254</v>
       </c>
       <c r="E7">
-        <v>6.737336620175989</v>
+        <v>6.737336620176025</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>32.99005385762607</v>
+        <v>32.99005385762612</v>
       </c>
       <c r="H7">
-        <v>28.54250078114513</v>
+        <v>28.54250078114518</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>14.83664465134771</v>
+        <v>14.83664465134762</v>
       </c>
       <c r="K7">
-        <v>9.067490883984187</v>
+        <v>9.067490883984181</v>
       </c>
       <c r="L7">
-        <v>12.53352292600141</v>
+        <v>12.53352292600136</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,37 +640,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.4854286174343</v>
+        <v>17.48542861743429</v>
       </c>
       <c r="C8">
-        <v>14.87039229032158</v>
+        <v>14.8703922903212</v>
       </c>
       <c r="D8">
-        <v>6.985064269311215</v>
+        <v>6.985064269311334</v>
       </c>
       <c r="E8">
-        <v>6.977399615644171</v>
+        <v>6.977399615643972</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>35.18875686043474</v>
+        <v>35.18875686043481</v>
       </c>
       <c r="H8">
-        <v>30.15098719755907</v>
+        <v>30.15098719755911</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>16.39943354541954</v>
+        <v>16.39943354541938</v>
       </c>
       <c r="K8">
-        <v>9.690940785989884</v>
+        <v>9.690940785989872</v>
       </c>
       <c r="L8">
-        <v>13.82372308139266</v>
+        <v>13.82372308139263</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,13 +678,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.5206395391823</v>
+        <v>20.52063953918238</v>
       </c>
       <c r="C9">
-        <v>17.49024731365999</v>
+        <v>17.49024731366005</v>
       </c>
       <c r="D9">
-        <v>8.195848749742252</v>
+        <v>8.195848749742279</v>
       </c>
       <c r="E9">
         <v>7.467452461311479</v>
@@ -693,22 +693,22 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>39.40590993961391</v>
+        <v>39.40590993961414</v>
       </c>
       <c r="H9">
-        <v>33.2856506503231</v>
+        <v>33.28565065032323</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>19.19402482833776</v>
+        <v>19.19402482833782</v>
       </c>
       <c r="K9">
-        <v>10.887635264784</v>
+        <v>10.88763526478406</v>
       </c>
       <c r="L9">
-        <v>16.1326121050847</v>
+        <v>16.13261210508475</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,37 +716,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.58483617560473</v>
+        <v>22.58483617560479</v>
       </c>
       <c r="C10">
-        <v>19.28122714979748</v>
+        <v>19.28122714979768</v>
       </c>
       <c r="D10">
-        <v>9.020489877699308</v>
+        <v>9.020489877699367</v>
       </c>
       <c r="E10">
-        <v>7.839701425110615</v>
+        <v>7.83970142511062</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>42.44540170276765</v>
+        <v>42.44540170276779</v>
       </c>
       <c r="H10">
-        <v>35.57651362165785</v>
+        <v>35.57651362165799</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>21.09742297743</v>
+        <v>21.09742297743006</v>
       </c>
       <c r="K10">
-        <v>11.80073983391525</v>
+        <v>11.80073983391532</v>
       </c>
       <c r="L10">
-        <v>17.70564346823491</v>
+        <v>17.70564346823498</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,37 +754,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.49192037868619</v>
+        <v>23.49192037868607</v>
       </c>
       <c r="C11">
-        <v>20.07084550172689</v>
+        <v>20.07084550172708</v>
       </c>
       <c r="D11">
-        <v>9.383159126966358</v>
+        <v>9.383159126966344</v>
       </c>
       <c r="E11">
-        <v>8.012000595122206</v>
+        <v>8.012000595122268</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>43.81757474042944</v>
+        <v>43.81757474042957</v>
       </c>
       <c r="H11">
-        <v>36.61772338305838</v>
+        <v>36.61772338305854</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>21.93464086389364</v>
+        <v>21.93464086389357</v>
       </c>
       <c r="K11">
-        <v>12.27950419006149</v>
+        <v>12.27950419006151</v>
       </c>
       <c r="L11">
-        <v>18.39750052560331</v>
+        <v>18.39750052560329</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,37 +792,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.83120790720088</v>
+        <v>23.83120790720095</v>
       </c>
       <c r="C12">
-        <v>20.36662488863302</v>
+        <v>20.36662488863306</v>
       </c>
       <c r="D12">
-        <v>9.518856274052775</v>
+        <v>9.518856274052762</v>
       </c>
       <c r="E12">
-        <v>8.077713955559688</v>
+        <v>8.077713955559647</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>44.33602692162798</v>
+        <v>44.33602692162783</v>
       </c>
       <c r="H12">
-        <v>37.01213797789137</v>
+        <v>37.0121379778912</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>22.24792665322433</v>
+        <v>22.24792665322441</v>
       </c>
       <c r="K12">
-        <v>12.4586891810308</v>
+        <v>12.45868918103084</v>
       </c>
       <c r="L12">
-        <v>18.65637191641012</v>
+        <v>18.65637191641017</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,25 +830,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.75831656067774</v>
+        <v>23.75831656067776</v>
       </c>
       <c r="C13">
-        <v>20.30306060421286</v>
+        <v>20.30306060421283</v>
       </c>
       <c r="D13">
-        <v>9.489701608464166</v>
+        <v>9.489701608464287</v>
       </c>
       <c r="E13">
-        <v>8.063539777550989</v>
+        <v>8.063539777551032</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>44.22441336476378</v>
+        <v>44.2244133647636</v>
       </c>
       <c r="H13">
-        <v>36.92718250674451</v>
+        <v>36.92718250674437</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -857,10 +857,10 @@
         <v>22.1806152917347</v>
       </c>
       <c r="K13">
-        <v>12.42018883629288</v>
+        <v>12.42018883629283</v>
       </c>
       <c r="L13">
-        <v>18.60075297599193</v>
+        <v>18.60075297599188</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,37 +868,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.51991564319496</v>
+        <v>23.51991564319502</v>
       </c>
       <c r="C14">
-        <v>20.09524185132089</v>
+        <v>20.0952418513209</v>
       </c>
       <c r="D14">
-        <v>9.394354873235782</v>
+        <v>9.394354873235841</v>
       </c>
       <c r="E14">
-        <v>8.017397207592168</v>
+        <v>8.017397207592152</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>43.86024881776941</v>
+        <v>43.8602488177695</v>
       </c>
       <c r="H14">
-        <v>36.65016757332049</v>
+        <v>36.65016757332057</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>21.96048793101678</v>
+        <v>21.96048793101681</v>
       </c>
       <c r="K14">
-        <v>12.29428689812835</v>
+        <v>12.29428689812833</v>
       </c>
       <c r="L14">
-        <v>18.41885873244762</v>
+        <v>18.41885873244765</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,37 +906,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.37335291176809</v>
+        <v>23.37335291176815</v>
       </c>
       <c r="C15">
-        <v>19.9675381701415</v>
+        <v>19.96753817014158</v>
       </c>
       <c r="D15">
-        <v>9.335743913145652</v>
+        <v>9.33574391314588</v>
       </c>
       <c r="E15">
-        <v>7.989195938473778</v>
+        <v>7.989195938473761</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>43.63704941423168</v>
+        <v>43.63704941423163</v>
       </c>
       <c r="H15">
-        <v>36.48051472057595</v>
+        <v>36.48051472057588</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>21.82517702174821</v>
+        <v>21.82517702174829</v>
       </c>
       <c r="K15">
-        <v>12.21689983179451</v>
+        <v>12.21689983179457</v>
       </c>
       <c r="L15">
-        <v>18.30704634724313</v>
+        <v>18.30704634724324</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,37 +944,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.52494533629967</v>
+        <v>22.52494533629969</v>
       </c>
       <c r="C16">
-        <v>19.2291496067098</v>
+        <v>19.22914960670968</v>
       </c>
       <c r="D16">
-        <v>8.996550498476315</v>
+        <v>8.996550498476285</v>
       </c>
       <c r="E16">
-        <v>7.828504042933024</v>
+        <v>7.828504042933009</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>42.3555421968773</v>
+        <v>42.35554219687716</v>
       </c>
       <c r="H16">
-        <v>35.50846962361117</v>
+        <v>35.50846962361106</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>21.04216270743534</v>
+        <v>21.04216270743525</v>
       </c>
       <c r="K16">
-        <v>11.76914390900497</v>
+        <v>11.76914390900495</v>
       </c>
       <c r="L16">
-        <v>17.65997557352976</v>
+        <v>17.65997557352971</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.99655470946754</v>
+        <v>21.99655470946755</v>
       </c>
       <c r="C17">
-        <v>18.7699938454353</v>
+        <v>18.76999384543509</v>
       </c>
       <c r="D17">
-        <v>8.785377287759889</v>
+        <v>8.785377287759962</v>
       </c>
       <c r="E17">
-        <v>7.730707801387101</v>
+        <v>7.730707801387063</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1000,16 +1000,16 @@
         <v>41.5668918625878</v>
       </c>
       <c r="H17">
-        <v>34.91206938248134</v>
+        <v>34.91206938248131</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>20.55471784893653</v>
+        <v>20.5547178489365</v>
       </c>
       <c r="K17">
-        <v>11.50055131443055</v>
+        <v>11.50055131443056</v>
       </c>
       <c r="L17">
         <v>17.25713700480155</v>
@@ -1020,37 +1020,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.68960703656497</v>
+        <v>21.68960703656495</v>
       </c>
       <c r="C18">
-        <v>18.50351073893411</v>
+        <v>18.50351073893429</v>
       </c>
       <c r="D18">
-        <v>8.662732451300146</v>
+        <v>8.662732451300133</v>
       </c>
       <c r="E18">
-        <v>7.674733335209444</v>
+        <v>7.674733335209511</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>41.11226251927763</v>
+        <v>41.11226251927771</v>
       </c>
       <c r="H18">
-        <v>34.56892748752411</v>
+        <v>34.56892748752414</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>20.27163109014913</v>
+        <v>20.27163109014921</v>
       </c>
       <c r="K18">
-        <v>11.37164046092732</v>
+        <v>11.37164046092734</v>
       </c>
       <c r="L18">
-        <v>17.02318227174771</v>
+        <v>17.02318227174769</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,37 +1058,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.585148304847</v>
+        <v>21.58514830484698</v>
       </c>
       <c r="C19">
-        <v>18.41286320113788</v>
+        <v>18.41286320113787</v>
       </c>
       <c r="D19">
-        <v>8.620999370005595</v>
+        <v>8.62099937000564</v>
       </c>
       <c r="E19">
-        <v>7.655827626694863</v>
+        <v>7.655827626694915</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>40.95814957992793</v>
+        <v>40.95814957992794</v>
       </c>
       <c r="H19">
-        <v>34.45272073331164</v>
+        <v>34.45272073331162</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>20.17530497872406</v>
+        <v>20.17530497872404</v>
       </c>
       <c r="K19">
-        <v>11.32793686218299</v>
+        <v>11.32793686218301</v>
       </c>
       <c r="L19">
-        <v>16.94357412111735</v>
+        <v>16.94357412111733</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,37 +1096,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.05311390623104</v>
+        <v>22.05311390623099</v>
       </c>
       <c r="C20">
-        <v>18.81911643175982</v>
+        <v>18.81911643175977</v>
       </c>
       <c r="D20">
-        <v>8.80797848280586</v>
+        <v>8.807978482805728</v>
       </c>
       <c r="E20">
-        <v>7.741089631463508</v>
+        <v>7.741089631463471</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>41.65094837511802</v>
+        <v>41.65094837511797</v>
       </c>
       <c r="H20">
-        <v>34.97556686007323</v>
+        <v>34.97556686007318</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>20.60688633191496</v>
+        <v>20.60688633191488</v>
       </c>
       <c r="K20">
-        <v>11.52438335300285</v>
+        <v>11.52438335300284</v>
       </c>
       <c r="L20">
-        <v>17.3002510211609</v>
+        <v>17.30025102116091</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,37 +1134,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.59005055494665</v>
+        <v>23.59005055494667</v>
       </c>
       <c r="C21">
-        <v>20.15636767034071</v>
+        <v>20.15636767034067</v>
       </c>
       <c r="D21">
-        <v>9.422403628986112</v>
+        <v>9.42240362898605</v>
       </c>
       <c r="E21">
-        <v>8.030937299203995</v>
+        <v>8.030937299203911</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>43.96724071379485</v>
+        <v>43.9672407137949</v>
       </c>
       <c r="H21">
-        <v>36.73152735960674</v>
+        <v>36.73152735960677</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>22.02524324718137</v>
+        <v>22.02524324718134</v>
       </c>
       <c r="K21">
-        <v>12.3313228912779</v>
+        <v>12.33132289127789</v>
       </c>
       <c r="L21">
-        <v>18.47236761343674</v>
+        <v>18.47236761343678</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,37 +1172,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.5702361753831</v>
+        <v>24.57023617538313</v>
       </c>
       <c r="C22">
-        <v>21.01171964663555</v>
+        <v>21.01171964663575</v>
       </c>
       <c r="D22">
-        <v>9.814508110083244</v>
+        <v>9.814508110083169</v>
       </c>
       <c r="E22">
-        <v>8.223125842526239</v>
+        <v>8.223125842526272</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>45.4745840316886</v>
+        <v>45.47458403168861</v>
       </c>
       <c r="H22">
-        <v>37.88011939467905</v>
+        <v>37.88011939467903</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>22.93057377535321</v>
+        <v>22.93057377535328</v>
       </c>
       <c r="K22">
-        <v>12.84918409896719</v>
+        <v>12.84918409896722</v>
       </c>
       <c r="L22">
-        <v>19.22039706506422</v>
+        <v>19.22039706506424</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.04917255181631</v>
+        <v>24.04917255181635</v>
       </c>
       <c r="C23">
-        <v>20.55676525868797</v>
+        <v>20.55676525868809</v>
       </c>
       <c r="D23">
         <v>9.606042881889852</v>
       </c>
       <c r="E23">
-        <v>8.12028073822372</v>
+        <v>8.120280738223698</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>44.67052433332353</v>
+        <v>44.67052433332358</v>
       </c>
       <c r="H23">
         <v>37.26688825270482</v>
@@ -1234,13 +1234,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>22.44922586808638</v>
+        <v>22.44922586808648</v>
       </c>
       <c r="K23">
-        <v>12.57383133496737</v>
+        <v>12.57383133496745</v>
       </c>
       <c r="L23">
-        <v>18.82270004753578</v>
+        <v>18.82270004753588</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,31 +1248,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.02755339202396</v>
+        <v>22.02755339202391</v>
       </c>
       <c r="C24">
-        <v>18.79691595116355</v>
+        <v>18.79691595116349</v>
       </c>
       <c r="D24">
-        <v>8.797764351649223</v>
+        <v>8.797764351649148</v>
       </c>
       <c r="E24">
-        <v>7.73639523060224</v>
+        <v>7.736395230602199</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>41.61295026208747</v>
+        <v>41.61295026208742</v>
       </c>
       <c r="H24">
-        <v>34.94686048939457</v>
+        <v>34.94686048939454</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>20.58330985941096</v>
+        <v>20.58330985941093</v>
       </c>
       <c r="K24">
         <v>11.51361006761771</v>
@@ -1286,37 +1286,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.72987987413143</v>
+        <v>19.72987987413122</v>
       </c>
       <c r="C25">
-        <v>16.80620419399265</v>
+        <v>16.80620419399273</v>
       </c>
       <c r="D25">
-        <v>7.880196941463447</v>
+        <v>7.880196941463432</v>
       </c>
       <c r="E25">
-        <v>7.332799892664236</v>
+        <v>7.332799892664209</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>38.27572362759651</v>
+        <v>38.27572362759646</v>
       </c>
       <c r="H25">
-        <v>32.44004662874392</v>
+        <v>32.44004662874391</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>18.46549337029472</v>
+        <v>18.46549337029461</v>
       </c>
       <c r="K25">
-        <v>10.56694846031185</v>
+        <v>10.56694846031184</v>
       </c>
       <c r="L25">
-        <v>15.53057162895051</v>
+        <v>15.53057162895047</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_53/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_53/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.92525451679943</v>
+        <v>17.92514702068972</v>
       </c>
       <c r="C2">
-        <v>15.24909249843106</v>
+        <v>15.24038239965257</v>
       </c>
       <c r="D2">
-        <v>7.160381855434929</v>
+        <v>7.160273259500507</v>
       </c>
       <c r="E2">
-        <v>7.043750545597605</v>
+        <v>7.045091397764569</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>35.7783934018726</v>
+        <v>34.59936236934468</v>
       </c>
       <c r="H2">
-        <v>30.58565537401108</v>
+        <v>35.81871069081621</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>30.546963647492</v>
       </c>
       <c r="J2">
-        <v>16.80410288071041</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>9.858242296547362</v>
+        <v>16.80125724715326</v>
       </c>
       <c r="L2">
-        <v>14.15795412111683</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>9.856745351894308</v>
+      </c>
+      <c r="M2">
+        <v>14.15699069659241</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.62669439709617</v>
+        <v>16.62684699808491</v>
       </c>
       <c r="C3">
-        <v>14.1318690457941</v>
+        <v>14.12392580710152</v>
       </c>
       <c r="D3">
-        <v>6.642899585358634</v>
+        <v>6.642838495299451</v>
       </c>
       <c r="E3">
-        <v>6.852777102651787</v>
+        <v>6.854130595942467</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>34.06127445213586</v>
+        <v>32.66831424769313</v>
       </c>
       <c r="H3">
-        <v>29.32360809605311</v>
+        <v>34.10035470757943</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>29.28785224911672</v>
       </c>
       <c r="J3">
-        <v>15.60960883438987</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>9.371134424707044</v>
+        <v>15.60721470838412</v>
       </c>
       <c r="L3">
-        <v>13.1715372994009</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>9.369766887780559</v>
+      </c>
+      <c r="M3">
+        <v>13.17079022602922</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.79061574299148</v>
+        <v>15.7909160698865</v>
       </c>
       <c r="C4">
-        <v>13.41389982810379</v>
+        <v>13.40643386230252</v>
       </c>
       <c r="D4">
-        <v>6.309930074879087</v>
+        <v>6.309894909818054</v>
       </c>
       <c r="E4">
-        <v>6.737961759357844</v>
+        <v>6.73932874903765</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>32.99593272249629</v>
+        <v>31.45808573666975</v>
       </c>
       <c r="H4">
-        <v>28.5467733545312</v>
+        <v>33.03430281050764</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>28.51289809055016</v>
       </c>
       <c r="J4">
-        <v>14.84095418783746</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>9.06915653385129</v>
+        <v>14.83883606800001</v>
       </c>
       <c r="L4">
-        <v>12.53707928107957</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>9.067867134703663</v>
+      </c>
+      <c r="M4">
+        <v>12.53646230607658</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.43995923324899</v>
+        <v>15.44031707584037</v>
       </c>
       <c r="C5">
-        <v>13.11308492500103</v>
+        <v>13.10581540192174</v>
       </c>
       <c r="D5">
-        <v>6.187347057736769</v>
+        <v>6.187329216107053</v>
       </c>
       <c r="E5">
-        <v>6.69179618477459</v>
+        <v>6.69317015429358</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>32.5593043009551</v>
+        <v>30.95899981952769</v>
       </c>
       <c r="H5">
-        <v>28.22989057168</v>
+        <v>32.59739832971116</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>28.1968010114835</v>
       </c>
       <c r="J5">
-        <v>14.5186711292739</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>8.945474784961171</v>
+        <v>14.5166655963119</v>
       </c>
       <c r="L5">
-        <v>12.27114891326714</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>8.944217008916121</v>
+      </c>
+      <c r="M5">
+        <v>12.27058455067002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.38112655841192</v>
+        <v>15.38149379783785</v>
       </c>
       <c r="C6">
-        <v>13.06263202484923</v>
+        <v>13.05539524735826</v>
       </c>
       <c r="D6">
-        <v>6.167647207668285</v>
+        <v>6.167630549976423</v>
       </c>
       <c r="E6">
-        <v>6.684168329018305</v>
+        <v>6.685543547789037</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>32.48666182901121</v>
+        <v>30.87578025574391</v>
       </c>
       <c r="H6">
-        <v>28.17725927551776</v>
+        <v>32.52471085100155</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>28.14430133740062</v>
       </c>
       <c r="J6">
-        <v>14.46460436322992</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>8.924903470531877</v>
+        <v>14.46261754365421</v>
       </c>
       <c r="L6">
-        <v>12.22654151650679</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>8.923650935188201</v>
+      </c>
+      <c r="M6">
+        <v>12.2259858737481</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.78592720051802</v>
+        <v>15.78622831356513</v>
       </c>
       <c r="C7">
-        <v>13.40987652670131</v>
+        <v>13.40241320190014</v>
       </c>
       <c r="D7">
-        <v>6.30806332100254</v>
+        <v>6.308028291609645</v>
       </c>
       <c r="E7">
-        <v>6.737336620176025</v>
+        <v>6.738703697955055</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>32.99005385762612</v>
+        <v>31.45137837144282</v>
       </c>
       <c r="H7">
-        <v>28.54250078114518</v>
+        <v>33.02842016737237</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>28.50863603560196</v>
       </c>
       <c r="J7">
-        <v>14.83664465134762</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>9.067490883984181</v>
+        <v>14.83452804891185</v>
       </c>
       <c r="L7">
-        <v>12.53352292600136</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>9.066201912067701</v>
+      </c>
+      <c r="M7">
+        <v>12.53290666181971</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.48542861743429</v>
+        <v>17.48541350360944</v>
       </c>
       <c r="C8">
-        <v>14.8703922903212</v>
+        <v>14.86194549558812</v>
       </c>
       <c r="D8">
-        <v>6.985064269311334</v>
+        <v>6.98497279652466</v>
       </c>
       <c r="E8">
-        <v>6.977399615643972</v>
+        <v>6.978743662932999</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>35.18875686043481</v>
+        <v>33.93875716800417</v>
       </c>
       <c r="H8">
-        <v>30.15098719755911</v>
+        <v>35.22863792463708</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>30.11329151632706</v>
       </c>
       <c r="J8">
-        <v>16.39943354541938</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>9.690940785989872</v>
+        <v>16.39674410886739</v>
       </c>
       <c r="L8">
-        <v>13.82372308139263</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>9.689488809654526</v>
+      </c>
+      <c r="M8">
+        <v>13.82283500319355</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.52063953918238</v>
+        <v>20.51989110975036</v>
       </c>
       <c r="C9">
-        <v>17.49024731366005</v>
+        <v>17.47990397043769</v>
       </c>
       <c r="D9">
-        <v>8.195848749742279</v>
+        <v>8.195615051850854</v>
       </c>
       <c r="E9">
-        <v>7.467452461311479</v>
+        <v>7.468794472663376</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>39.40590993961414</v>
+        <v>38.61626405047593</v>
       </c>
       <c r="H9">
-        <v>33.28565065032323</v>
+        <v>39.4491132059833</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>33.24105818346593</v>
       </c>
       <c r="J9">
-        <v>19.19402482833782</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>10.88763526478406</v>
+        <v>19.19018119193896</v>
       </c>
       <c r="L9">
-        <v>16.13261210508475</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>10.88584680144288</v>
+      </c>
+      <c r="M9">
+        <v>16.13115486899019</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.58483617560479</v>
+        <v>22.58344839880247</v>
       </c>
       <c r="C10">
-        <v>19.28122714979768</v>
+        <v>19.26947698969753</v>
       </c>
       <c r="D10">
-        <v>9.020489877699367</v>
+        <v>9.020122537592028</v>
       </c>
       <c r="E10">
-        <v>7.83970142511062</v>
+        <v>7.841063882285419</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>42.44540170276779</v>
+        <v>41.93279338307241</v>
       </c>
       <c r="H10">
-        <v>35.57651362165799</v>
+        <v>42.49120802537495</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>35.52720561000162</v>
       </c>
       <c r="J10">
-        <v>21.09742297743006</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>11.80073983391532</v>
+        <v>21.09267810551816</v>
       </c>
       <c r="L10">
-        <v>17.70564346823498</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>11.79871228391129</v>
+      </c>
+      <c r="M10">
+        <v>17.70372270345631</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.49192037868607</v>
+        <v>23.49021062922593</v>
       </c>
       <c r="C11">
-        <v>20.07084550172708</v>
+        <v>20.05844274210309</v>
       </c>
       <c r="D11">
-        <v>9.383159126966344</v>
+        <v>9.382721753071447</v>
       </c>
       <c r="E11">
-        <v>8.012000595122268</v>
+        <v>8.013375807645886</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>43.81757474042957</v>
+        <v>43.41860047878479</v>
       </c>
       <c r="H11">
-        <v>36.61772338305854</v>
+        <v>43.86458969093528</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>36.56633546109595</v>
       </c>
       <c r="J11">
-        <v>21.93464086389357</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>12.27950419006151</v>
+        <v>21.92946484262081</v>
       </c>
       <c r="L11">
-        <v>18.39750052560329</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>12.27734134067885</v>
+      </c>
+      <c r="M11">
+        <v>18.39535251190496</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.83120790720095</v>
+        <v>23.82937076229178</v>
       </c>
       <c r="C12">
-        <v>20.36662488863306</v>
+        <v>20.35397215206811</v>
       </c>
       <c r="D12">
-        <v>9.518856274052762</v>
+        <v>9.518390737263092</v>
       </c>
       <c r="E12">
-        <v>8.077713955559647</v>
+        <v>8.079094353634936</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>44.33602692162783</v>
+        <v>43.97838036873734</v>
       </c>
       <c r="H12">
-        <v>37.0121379778912</v>
+        <v>44.38350215205638</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>36.95997048152721</v>
       </c>
       <c r="J12">
-        <v>22.24792665322441</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>12.45868918103084</v>
+        <v>22.24258331680069</v>
       </c>
       <c r="L12">
-        <v>18.65637191641017</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>12.4564734950574</v>
+      </c>
+      <c r="M12">
+        <v>18.65413480509387</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.75831656067776</v>
+        <v>23.7565071142634</v>
       </c>
       <c r="C13">
-        <v>20.30306060421283</v>
+        <v>20.29046185047558</v>
       </c>
       <c r="D13">
-        <v>9.489701608464287</v>
+        <v>9.489242215907218</v>
       </c>
       <c r="E13">
-        <v>8.063539777551032</v>
+        <v>8.064919045607203</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>44.2244133647636</v>
+        <v>43.85794061145443</v>
       </c>
       <c r="H13">
-        <v>36.92718250674437</v>
+        <v>44.27178936541441</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>36.87518257334458</v>
       </c>
       <c r="J13">
-        <v>22.1806152917347</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>12.42018883629283</v>
+        <v>22.17530818794368</v>
       </c>
       <c r="L13">
-        <v>18.60075297599188</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>12.41798460817341</v>
+      </c>
+      <c r="M13">
+        <v>18.5985352013435</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.51991564319502</v>
+        <v>23.51819552898726</v>
       </c>
       <c r="C14">
-        <v>20.0952418513209</v>
+        <v>20.08281858985297</v>
       </c>
       <c r="D14">
-        <v>9.394354873235841</v>
+        <v>9.393915217343338</v>
       </c>
       <c r="E14">
-        <v>8.017397207592152</v>
+        <v>8.01877284053276</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>43.8602488177695</v>
+        <v>43.4647082824774</v>
       </c>
       <c r="H14">
-        <v>36.65016757332057</v>
+        <v>43.90730158917337</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>36.59871536312645</v>
       </c>
       <c r="J14">
-        <v>21.96048793101681</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>12.29428689812833</v>
+        <v>21.95529823226391</v>
       </c>
       <c r="L14">
-        <v>18.41885873244765</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>12.29211973654814</v>
+      </c>
+      <c r="M14">
+        <v>18.41670345409351</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.37335291176815</v>
+        <v>23.37168677026328</v>
       </c>
       <c r="C15">
-        <v>19.96753817014158</v>
+        <v>19.95522199673423</v>
       </c>
       <c r="D15">
-        <v>9.33574391314588</v>
+        <v>9.335316122053763</v>
       </c>
       <c r="E15">
-        <v>7.989195938473761</v>
+        <v>7.990569386359899</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>43.63704941423163</v>
+        <v>43.22348462073086</v>
       </c>
       <c r="H15">
-        <v>36.48051472057588</v>
+        <v>43.68390450858957</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>36.42939900793131</v>
       </c>
       <c r="J15">
-        <v>21.82517702174829</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>12.21689983179457</v>
+        <v>21.8200586763991</v>
       </c>
       <c r="L15">
-        <v>18.30704634724324</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>12.21475515262746</v>
+      </c>
+      <c r="M15">
+        <v>18.30492893043642</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.52494533629969</v>
+        <v>22.52357789458301</v>
       </c>
       <c r="C16">
-        <v>19.22914960670968</v>
+        <v>19.21744175790688</v>
       </c>
       <c r="D16">
-        <v>8.996550498476285</v>
+        <v>8.996187524073775</v>
       </c>
       <c r="E16">
-        <v>7.828504042933009</v>
+        <v>7.829865724621578</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>42.35554219687716</v>
+        <v>41.83526495207721</v>
       </c>
       <c r="H16">
-        <v>35.50846962361106</v>
+        <v>42.40126994769368</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>35.45929874556141</v>
       </c>
       <c r="J16">
-        <v>21.04216270743525</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>11.76914390900495</v>
+        <v>21.03744550491558</v>
       </c>
       <c r="L16">
-        <v>17.65997557352971</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>11.76712500059808</v>
+      </c>
+      <c r="M16">
+        <v>17.65806927475749</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.99655470946755</v>
+        <v>21.99536189507042</v>
       </c>
       <c r="C17">
-        <v>18.76999384543509</v>
+        <v>18.7586552803847</v>
       </c>
       <c r="D17">
-        <v>8.785377287759962</v>
+        <v>8.785051507895917</v>
       </c>
       <c r="E17">
-        <v>7.730707801387063</v>
+        <v>7.732063058213932</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>41.5668918625878</v>
+        <v>40.97803138930895</v>
       </c>
       <c r="H17">
-        <v>34.91206938248131</v>
+        <v>41.61193365237651</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>34.86410746518933</v>
       </c>
       <c r="J17">
-        <v>20.5547178489365</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>11.50055131443056</v>
+        <v>20.55024065959482</v>
       </c>
       <c r="L17">
-        <v>17.25713700480155</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>11.49857444289099</v>
+      </c>
+      <c r="M17">
+        <v>17.25535557755919</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.68960703656495</v>
+        <v>21.68851180392184</v>
       </c>
       <c r="C18">
-        <v>18.50351073893429</v>
+        <v>18.49238346090732</v>
       </c>
       <c r="D18">
-        <v>8.662732451300133</v>
+        <v>8.662427217561032</v>
       </c>
       <c r="E18">
-        <v>7.674733335209511</v>
+        <v>7.676085231814564</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>41.11226251927771</v>
+        <v>40.48278347986248</v>
       </c>
       <c r="H18">
-        <v>34.56892748752414</v>
+        <v>41.15691212330026</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>34.52166717159161</v>
       </c>
       <c r="J18">
-        <v>20.27163109014921</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>11.37164046092734</v>
+        <v>20.26729002780023</v>
       </c>
       <c r="L18">
-        <v>17.02318227174769</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>11.36970427973811</v>
+      </c>
+      <c r="M18">
+        <v>17.02147117333774</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.58514830484698</v>
+        <v>21.58408564751695</v>
       </c>
       <c r="C19">
-        <v>18.41286320113787</v>
+        <v>18.40180729771876</v>
       </c>
       <c r="D19">
-        <v>8.62099937000564</v>
+        <v>8.620700955777536</v>
       </c>
       <c r="E19">
-        <v>7.655827626694915</v>
+        <v>7.657178446988279</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>40.95814957992794</v>
+        <v>40.31471425984709</v>
       </c>
       <c r="H19">
-        <v>34.45272073331162</v>
+        <v>41.00266682960652</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>34.40569907383396</v>
       </c>
       <c r="J19">
-        <v>20.17530497872404</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>11.32793686218301</v>
+        <v>20.17100970383758</v>
       </c>
       <c r="L19">
-        <v>16.94357412111733</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>11.32601434203812</v>
+      </c>
+      <c r="M19">
+        <v>16.94188659691859</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.05311390623099</v>
+        <v>22.05190280490325</v>
       </c>
       <c r="C20">
-        <v>18.81911643175977</v>
+        <v>18.80773867803606</v>
       </c>
       <c r="D20">
-        <v>8.807978482805728</v>
+        <v>8.807648833252255</v>
       </c>
       <c r="E20">
-        <v>7.741089631463471</v>
+        <v>7.742445538466272</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>41.65094837511797</v>
+        <v>41.06950936624182</v>
       </c>
       <c r="H20">
-        <v>34.97556686007318</v>
+        <v>41.69606294882062</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>34.92747560961728</v>
       </c>
       <c r="J20">
-        <v>20.60688633191488</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>11.52438335300284</v>
+        <v>20.60238379832919</v>
       </c>
       <c r="L20">
-        <v>17.30025102116091</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>11.52239889318551</v>
+      </c>
+      <c r="M20">
+        <v>17.29845646027447</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.59005055494667</v>
+        <v>23.5883043592398</v>
       </c>
       <c r="C21">
-        <v>20.15636767034067</v>
+        <v>20.14389294933753</v>
       </c>
       <c r="D21">
-        <v>9.42240362898605</v>
+        <v>9.421958223404317</v>
       </c>
       <c r="E21">
-        <v>8.030937299203911</v>
+        <v>8.032313991502654</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>43.9672407137949</v>
+        <v>43.58028366985081</v>
       </c>
       <c r="H21">
-        <v>36.73152735960677</v>
+        <v>44.0143883625453</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>36.67991406409675</v>
       </c>
       <c r="J21">
-        <v>22.02524324718134</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>12.33132289127789</v>
+        <v>22.02001918264445</v>
       </c>
       <c r="L21">
-        <v>18.47236761343678</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>12.32914488944518</v>
+      </c>
+      <c r="M21">
+        <v>18.47019406721666</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.57023617538313</v>
+        <v>24.56810773803162</v>
       </c>
       <c r="C22">
-        <v>21.01171964663575</v>
+        <v>20.99851071248907</v>
       </c>
       <c r="D22">
-        <v>9.814508110083169</v>
+        <v>9.813977274096031</v>
       </c>
       <c r="E22">
-        <v>8.223125842526272</v>
+        <v>8.224518100895512</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>45.47458403168861</v>
+        <v>45.20484371647167</v>
       </c>
       <c r="H22">
-        <v>37.88011939467903</v>
+        <v>45.52307508149745</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>37.82625020970517</v>
       </c>
       <c r="J22">
-        <v>22.93057377535328</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>12.84918409896722</v>
+        <v>22.9248539218633</v>
       </c>
       <c r="L22">
-        <v>19.22039706506424</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>12.84684881981566</v>
+      </c>
+      <c r="M22">
+        <v>19.21795765635953</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.04917255181635</v>
+        <v>24.04725149041187</v>
       </c>
       <c r="C23">
-        <v>20.55676525868809</v>
+        <v>20.54395017490989</v>
       </c>
       <c r="D23">
-        <v>9.606042881889852</v>
+        <v>9.605558660260169</v>
       </c>
       <c r="E23">
-        <v>8.120280738223698</v>
+        <v>8.121664562630146</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>44.67052433332358</v>
+        <v>44.33910137557402</v>
       </c>
       <c r="H23">
-        <v>37.26688825270482</v>
+        <v>44.71829736407788</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>37.21421941619463</v>
       </c>
       <c r="J23">
-        <v>22.44922586808648</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>12.57383133496745</v>
+        <v>22.44377323318959</v>
       </c>
       <c r="L23">
-        <v>18.82270004753588</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>12.57158103186548</v>
+      </c>
+      <c r="M23">
+        <v>18.82040446544645</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.02755339202391</v>
+        <v>22.02635056690939</v>
       </c>
       <c r="C24">
-        <v>18.79691595116349</v>
+        <v>18.7855559177361</v>
       </c>
       <c r="D24">
-        <v>8.797764351649148</v>
+        <v>8.797436454168196</v>
       </c>
       <c r="E24">
-        <v>7.736395230602199</v>
+        <v>7.7377508426115</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>41.61295026208742</v>
+        <v>41.0281597189621</v>
       </c>
       <c r="H24">
-        <v>34.94686048939454</v>
+        <v>41.65803192334258</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>34.89882768994606</v>
       </c>
       <c r="J24">
-        <v>20.58330985941093</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>11.51361006761771</v>
+        <v>20.57881878967683</v>
       </c>
       <c r="L24">
-        <v>17.28076653875337</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>11.51162904065917</v>
+      </c>
+      <c r="M24">
+        <v>17.27897792008931</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.72987987413122</v>
+        <v>19.7293448221833</v>
       </c>
       <c r="C25">
-        <v>16.80620419399273</v>
+        <v>16.79637348841217</v>
       </c>
       <c r="D25">
-        <v>7.880196941463432</v>
+        <v>7.880006004007846</v>
       </c>
       <c r="E25">
-        <v>7.332799892664209</v>
+        <v>7.334138225787012</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>38.27572362759646</v>
+        <v>37.37256471940591</v>
       </c>
       <c r="H25">
-        <v>32.44004662874391</v>
+        <v>38.317995973952</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>32.3972554555262</v>
       </c>
       <c r="J25">
-        <v>18.46549337029461</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>10.56694846031184</v>
+        <v>18.46196850992062</v>
       </c>
       <c r="L25">
-        <v>15.53057162895047</v>
+        <v>10.56525384467718</v>
+      </c>
+      <c r="M25">
+        <v>15.52927442142602</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_53/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_53/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.92514702068972</v>
+        <v>22.80379723551224</v>
       </c>
       <c r="C2">
-        <v>15.24038239965257</v>
+        <v>15.81299964984151</v>
       </c>
       <c r="D2">
-        <v>7.160273259500507</v>
+        <v>9.953844325073769</v>
       </c>
       <c r="E2">
-        <v>7.045091397764569</v>
+        <v>9.267679974068987</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>34.59936236934468</v>
+        <v>2.117474223185607</v>
       </c>
       <c r="H2">
-        <v>35.81871069081621</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>30.546963647492</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>4.821073257436469</v>
       </c>
       <c r="K2">
-        <v>16.80125724715326</v>
+        <v>19.85965418939866</v>
       </c>
       <c r="L2">
-        <v>9.856745351894308</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>14.15699069659241</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>17.85956185588607</v>
+      </c>
+      <c r="N2">
+        <v>16.29764162828201</v>
+      </c>
+      <c r="O2">
+        <v>34.26228612646698</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.62684699808491</v>
+        <v>21.41214119209823</v>
       </c>
       <c r="C3">
-        <v>14.12392580710152</v>
+        <v>14.78226039859613</v>
       </c>
       <c r="D3">
-        <v>6.642838495299451</v>
+        <v>9.660039063733841</v>
       </c>
       <c r="E3">
-        <v>6.854130595942467</v>
+        <v>9.120391370385414</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>32.66831424769313</v>
+        <v>2.130038739709319</v>
       </c>
       <c r="H3">
-        <v>34.10035470757943</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>29.28785224911672</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>4.857725342672146</v>
       </c>
       <c r="K3">
-        <v>15.60721470838412</v>
+        <v>18.70862284149872</v>
       </c>
       <c r="L3">
-        <v>9.369766887780559</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>13.17079022602922</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>17.1048258531419</v>
+      </c>
+      <c r="N3">
+        <v>16.39819034395424</v>
+      </c>
+      <c r="O3">
+        <v>33.17015364554054</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.7909160698865</v>
+        <v>20.53414788194693</v>
       </c>
       <c r="C4">
-        <v>13.40643386230252</v>
+        <v>14.129431134513</v>
       </c>
       <c r="D4">
-        <v>6.309894909818054</v>
+        <v>9.4839692433018</v>
       </c>
       <c r="E4">
-        <v>6.73932874903765</v>
+        <v>9.03565739872084</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>31.45808573666975</v>
+        <v>2.137903034687998</v>
       </c>
       <c r="H4">
-        <v>33.03430281050764</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>28.51289809055016</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>4.881334513749884</v>
       </c>
       <c r="K4">
-        <v>14.83883606800001</v>
+        <v>17.98601615194794</v>
       </c>
       <c r="L4">
-        <v>9.067867134703663</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>12.53646230607658</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>16.64186734344746</v>
+      </c>
+      <c r="N4">
+        <v>16.46587935867151</v>
+      </c>
+      <c r="O4">
+        <v>32.51559371346758</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.44031707584037</v>
+        <v>20.17065299208885</v>
       </c>
       <c r="C5">
-        <v>13.10581540192174</v>
+        <v>13.85846202657381</v>
       </c>
       <c r="D5">
-        <v>6.187329216107053</v>
+        <v>9.41333380653005</v>
       </c>
       <c r="E5">
-        <v>6.69317015429358</v>
+        <v>9.002525838203621</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>30.95899981952769</v>
+        <v>2.141149143289717</v>
       </c>
       <c r="H5">
-        <v>32.59739832971116</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>28.1968010114835</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>4.891235798941685</v>
       </c>
       <c r="K5">
-        <v>14.5166655963119</v>
+        <v>17.68776825481387</v>
       </c>
       <c r="L5">
-        <v>8.944217008916121</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>12.27058455067002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>16.45348907894782</v>
+      </c>
+      <c r="N5">
+        <v>16.49488559540841</v>
+      </c>
+      <c r="O5">
+        <v>32.25292050202657</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.38149379783785</v>
+        <v>20.10995819764566</v>
       </c>
       <c r="C6">
-        <v>13.05539524735826</v>
+        <v>13.81317332968784</v>
       </c>
       <c r="D6">
-        <v>6.167630549976423</v>
+        <v>9.401673022233235</v>
       </c>
       <c r="E6">
-        <v>6.685543547789037</v>
+        <v>8.997107794117671</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>30.87578025574391</v>
+        <v>2.141690756805467</v>
       </c>
       <c r="H6">
-        <v>32.52471085100155</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>28.14430133740062</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>4.892896906443347</v>
       </c>
       <c r="K6">
-        <v>14.46261754365421</v>
+        <v>17.63802382290079</v>
       </c>
       <c r="L6">
-        <v>8.923650935188201</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>12.2259858737481</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>16.4222315534328</v>
+      </c>
+      <c r="N6">
+        <v>16.49978594770691</v>
+      </c>
+      <c r="O6">
+        <v>32.20955090238341</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.78622831356513</v>
+        <v>20.52926842318046</v>
       </c>
       <c r="C7">
-        <v>13.40241320190014</v>
+        <v>14.12579658129549</v>
       </c>
       <c r="D7">
-        <v>6.308028291609645</v>
+        <v>9.483012078152566</v>
       </c>
       <c r="E7">
-        <v>6.738703697955055</v>
+        <v>9.035204959822135</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>31.45137837144282</v>
+        <v>2.137946640761637</v>
       </c>
       <c r="H7">
-        <v>33.02842016737237</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>28.50863603560196</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>4.881466907433152</v>
       </c>
       <c r="K7">
-        <v>14.83452804891185</v>
+        <v>17.98200884472875</v>
       </c>
       <c r="L7">
-        <v>9.066201912067701</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>12.53290666181971</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>16.63932542333846</v>
+      </c>
+      <c r="N7">
+        <v>16.46626487996806</v>
+      </c>
+      <c r="O7">
+        <v>32.5120346827435</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.48541350360944</v>
+        <v>22.32892924946191</v>
       </c>
       <c r="C8">
-        <v>14.86194549558812</v>
+        <v>15.46177038249075</v>
       </c>
       <c r="D8">
-        <v>6.98497279652466</v>
+        <v>9.851655671252535</v>
       </c>
       <c r="E8">
-        <v>6.978743662932999</v>
+        <v>9.215689581093853</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>33.93875716800417</v>
+        <v>2.121777759292269</v>
       </c>
       <c r="H8">
-        <v>35.22863792463708</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>30.11329151632706</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>4.833483217958777</v>
       </c>
       <c r="K8">
-        <v>16.39674410886739</v>
+        <v>19.46617397303343</v>
       </c>
       <c r="L8">
-        <v>9.689488809654526</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>13.82283500319355</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>17.59932379642226</v>
+      </c>
+      <c r="N8">
+        <v>16.33102837405615</v>
+      </c>
+      <c r="O8">
+        <v>33.88240951687055</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.51989110975036</v>
+        <v>25.66720903638775</v>
       </c>
       <c r="C9">
-        <v>17.47990397043769</v>
+        <v>17.94234229185058</v>
       </c>
       <c r="D9">
-        <v>8.195615051850854</v>
+        <v>10.60822124610698</v>
       </c>
       <c r="E9">
-        <v>7.468794472663376</v>
+        <v>9.616594472448972</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>38.61626405047593</v>
+        <v>2.091070093120124</v>
       </c>
       <c r="H9">
-        <v>39.4491132059833</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>33.24105818346593</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>4.748029305286288</v>
       </c>
       <c r="K9">
-        <v>19.19018119193896</v>
+        <v>22.28285312670211</v>
       </c>
       <c r="L9">
-        <v>10.88584680144288</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>16.13115486899019</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>19.48025136654937</v>
+      </c>
+      <c r="N9">
+        <v>16.1168555539447</v>
+      </c>
+      <c r="O9">
+        <v>36.69704164618496</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.58344839880247</v>
+        <v>28.20074352091776</v>
       </c>
       <c r="C10">
-        <v>19.26947698969753</v>
+        <v>19.74937677429532</v>
       </c>
       <c r="D10">
-        <v>9.020122537592028</v>
+        <v>11.18467861972889</v>
       </c>
       <c r="E10">
-        <v>7.841063882285419</v>
+        <v>9.942544962028535</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>41.93279338307241</v>
+        <v>2.068820571807618</v>
       </c>
       <c r="H10">
-        <v>42.49120802537495</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>35.52720561000162</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>4.6903331461518</v>
       </c>
       <c r="K10">
-        <v>21.09267810551816</v>
+        <v>24.53230917498954</v>
       </c>
       <c r="L10">
-        <v>11.79871228391129</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>17.70372270345631</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>20.85774498686864</v>
+      </c>
+      <c r="N10">
+        <v>15.9967206458105</v>
+      </c>
+      <c r="O10">
+        <v>38.84709370594884</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.49021062922593</v>
+        <v>29.32417329416218</v>
       </c>
       <c r="C11">
-        <v>20.05844274210309</v>
+        <v>20.54832922299518</v>
       </c>
       <c r="D11">
-        <v>9.382721753071447</v>
+        <v>11.45178360566074</v>
       </c>
       <c r="E11">
-        <v>8.013375807645886</v>
+        <v>10.09840731664822</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>43.41860047878479</v>
+        <v>2.058687657437721</v>
       </c>
       <c r="H11">
-        <v>43.86458969093528</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>36.56633546109595</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>4.665147075075263</v>
       </c>
       <c r="K11">
-        <v>21.92946484262081</v>
+        <v>25.52364934989622</v>
       </c>
       <c r="L11">
-        <v>12.27734134067885</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>18.39535251190496</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>21.48383558991225</v>
+      </c>
+      <c r="N11">
+        <v>15.95179141301158</v>
+      </c>
+      <c r="O11">
+        <v>39.84550208351186</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.82937076229178</v>
+        <v>29.74503918968581</v>
       </c>
       <c r="C12">
-        <v>20.35397215206811</v>
+        <v>20.84787993392461</v>
       </c>
       <c r="D12">
-        <v>9.518390737263092</v>
+        <v>11.55369199774448</v>
       </c>
       <c r="E12">
-        <v>8.079094353634936</v>
+        <v>10.15859771400154</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>43.97838036873734</v>
+        <v>2.054841176622217</v>
       </c>
       <c r="H12">
-        <v>44.38350215205638</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>36.95997048152721</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>4.655758378694864</v>
       </c>
       <c r="K12">
-        <v>22.24258331680069</v>
+        <v>25.89484441720464</v>
       </c>
       <c r="L12">
-        <v>12.4564734950574</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>18.65413480509387</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>21.72095644051572</v>
+      </c>
+      <c r="N12">
+        <v>15.93633998594609</v>
+      </c>
+      <c r="O12">
+        <v>40.2268259399521</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.7565071142634</v>
+        <v>29.65459339484752</v>
       </c>
       <c r="C13">
-        <v>20.29046185047558</v>
+        <v>20.78349370919289</v>
       </c>
       <c r="D13">
-        <v>9.489242215907218</v>
+        <v>11.53170905047077</v>
       </c>
       <c r="E13">
-        <v>8.064919045607203</v>
+        <v>10.14558123650424</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>43.85794061145443</v>
+        <v>2.055670137525822</v>
       </c>
       <c r="H13">
-        <v>44.27178936541441</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>36.87518257334458</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>4.657773851037853</v>
       </c>
       <c r="K13">
-        <v>22.17530818794368</v>
+        <v>25.81508093920187</v>
       </c>
       <c r="L13">
-        <v>12.41798460817341</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>18.5985352013435</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>21.66988418513705</v>
+      </c>
+      <c r="N13">
+        <v>15.93959534410848</v>
+      </c>
+      <c r="O13">
+        <v>40.14455012642147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.51819552898726</v>
+        <v>29.35888683445673</v>
       </c>
       <c r="C14">
-        <v>20.08281858985297</v>
+        <v>20.57303139037674</v>
       </c>
       <c r="D14">
-        <v>9.393915217343338</v>
+        <v>11.46015195579437</v>
       </c>
       <c r="E14">
-        <v>8.01877284053276</v>
+        <v>10.1033352887971</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>43.4647082824774</v>
+        <v>2.058371441354868</v>
       </c>
       <c r="H14">
-        <v>43.90730158917337</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>36.59871536312645</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>4.664371703333533</v>
       </c>
       <c r="K14">
-        <v>21.95529823226391</v>
+        <v>25.5542695656528</v>
       </c>
       <c r="L14">
-        <v>12.29211973654814</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>18.41670345409351</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>21.50334209636595</v>
+      </c>
+      <c r="N14">
+        <v>15.95048786904159</v>
+      </c>
+      <c r="O14">
+        <v>39.8768064498617</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.37168677026328</v>
+        <v>29.1771784493215</v>
       </c>
       <c r="C15">
-        <v>19.95522199673423</v>
+        <v>20.4437377510322</v>
       </c>
       <c r="D15">
-        <v>9.335316122053763</v>
+        <v>11.41642264339506</v>
       </c>
       <c r="E15">
-        <v>7.990569386359899</v>
+        <v>10.07761321889307</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>43.22348462073086</v>
+        <v>2.060024598773153</v>
       </c>
       <c r="H15">
-        <v>43.68390450858957</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>36.42939900793131</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>4.668432329933276</v>
       </c>
       <c r="K15">
-        <v>21.8200586763991</v>
+        <v>25.39398033370994</v>
       </c>
       <c r="L15">
-        <v>12.21475515262746</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>18.30492893043642</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>21.40133917828564</v>
+      </c>
+      <c r="N15">
+        <v>15.95736863563408</v>
+      </c>
+      <c r="O15">
+        <v>39.71324035440807</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.52357789458301</v>
+        <v>28.12666400603652</v>
       </c>
       <c r="C16">
-        <v>19.21744175790688</v>
+        <v>19.69672519632256</v>
       </c>
       <c r="D16">
-        <v>8.996187524073775</v>
+        <v>11.16732528657612</v>
       </c>
       <c r="E16">
-        <v>7.829865724621578</v>
+        <v>9.932517930959708</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>41.83526495207721</v>
+        <v>2.06948191756014</v>
       </c>
       <c r="H16">
-        <v>42.40126994769368</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>35.45929874556141</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>4.692000137273436</v>
       </c>
       <c r="K16">
-        <v>21.03744550491558</v>
+        <v>24.46691171922267</v>
       </c>
       <c r="L16">
-        <v>11.76712500059808</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>17.65806927475749</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>20.81682560624246</v>
+      </c>
+      <c r="N16">
+        <v>15.99986596739499</v>
+      </c>
+      <c r="O16">
+        <v>38.78227968111632</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.99536189507042</v>
+        <v>27.47364471389168</v>
       </c>
       <c r="C17">
-        <v>18.7586552803847</v>
+        <v>19.23275728138118</v>
       </c>
       <c r="D17">
-        <v>8.785051507895917</v>
+        <v>11.01579460295464</v>
       </c>
       <c r="E17">
-        <v>7.732063058213932</v>
+        <v>9.845500109906768</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>40.97803138930895</v>
+        <v>2.075275604589959</v>
       </c>
       <c r="H17">
-        <v>41.61193365237651</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>34.86410746518933</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>4.706727209776416</v>
       </c>
       <c r="K17">
-        <v>20.55024065959482</v>
+        <v>23.89025939044372</v>
       </c>
       <c r="L17">
-        <v>11.49857444289099</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>17.25535557755919</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>20.45816528395554</v>
+      </c>
+      <c r="N17">
+        <v>16.028535638746</v>
+      </c>
+      <c r="O17">
+        <v>38.21656940677706</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.68851180392184</v>
+        <v>27.09477423468827</v>
       </c>
       <c r="C18">
-        <v>18.49238346090732</v>
+        <v>18.96370024855804</v>
       </c>
       <c r="D18">
-        <v>8.662427217561032</v>
+        <v>10.92909149685551</v>
       </c>
       <c r="E18">
-        <v>7.676085231814564</v>
+        <v>9.796158280051333</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>40.48278347986248</v>
+        <v>2.078607423269697</v>
       </c>
       <c r="H18">
-        <v>41.15691212330026</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>34.52166717159161</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>4.715297864577546</v>
       </c>
       <c r="K18">
-        <v>20.26729002780023</v>
+        <v>23.55554997915262</v>
       </c>
       <c r="L18">
-        <v>11.36970427973811</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>17.02147117333774</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>20.25181201154819</v>
+      </c>
+      <c r="N18">
+        <v>16.04592940406975</v>
+      </c>
+      <c r="O18">
+        <v>37.89307648433609</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.58408564751695</v>
+        <v>26.96592247066376</v>
       </c>
       <c r="C19">
-        <v>18.40180729771876</v>
+        <v>18.8722163317233</v>
       </c>
       <c r="D19">
-        <v>8.620700955777536</v>
+        <v>10.89981176774956</v>
       </c>
       <c r="E19">
-        <v>7.657178446988279</v>
+        <v>9.779571555102612</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>40.31471425984709</v>
+        <v>2.079735640448233</v>
       </c>
       <c r="H19">
-        <v>41.00266682960652</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>34.40569907383396</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>4.718217030248907</v>
       </c>
       <c r="K19">
-        <v>20.17100970383758</v>
+        <v>23.44169116832975</v>
       </c>
       <c r="L19">
-        <v>11.32601434203812</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>16.94188659691859</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>20.18193152882186</v>
+      </c>
+      <c r="N19">
+        <v>16.05196924491286</v>
+      </c>
+      <c r="O19">
+        <v>37.7838637098976</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.05190280490325</v>
+        <v>27.54349562442036</v>
       </c>
       <c r="C20">
-        <v>18.80773867803606</v>
+        <v>19.28237248533211</v>
       </c>
       <c r="D20">
-        <v>8.807648833252255</v>
+        <v>11.03187803191838</v>
       </c>
       <c r="E20">
-        <v>7.742445538466272</v>
+        <v>9.854689463286629</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>41.06950936624182</v>
+        <v>2.074658966492681</v>
       </c>
       <c r="H20">
-        <v>41.69606294882062</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>34.92747560961728</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>4.70514916083298</v>
       </c>
       <c r="K20">
-        <v>20.60238379832919</v>
+        <v>23.95195643258969</v>
       </c>
       <c r="L20">
-        <v>11.52239889318551</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>17.29845646027447</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>20.49635104947541</v>
+      </c>
+      <c r="N20">
+        <v>16.02538905989891</v>
+      </c>
+      <c r="O20">
+        <v>38.27659278449082</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.5883043592398</v>
+        <v>29.44586296942378</v>
       </c>
       <c r="C21">
-        <v>20.14389294933753</v>
+        <v>20.63492767173187</v>
       </c>
       <c r="D21">
-        <v>9.421958223404317</v>
+        <v>11.48114871156853</v>
       </c>
       <c r="E21">
-        <v>8.032313991502654</v>
+        <v>10.11571152590176</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>43.58028366985081</v>
+        <v>2.057578324625336</v>
       </c>
       <c r="H21">
-        <v>44.0143883625453</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>36.67991406409675</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>4.662429749315389</v>
       </c>
       <c r="K21">
-        <v>22.02001918264445</v>
+        <v>25.6309868319005</v>
       </c>
       <c r="L21">
-        <v>12.32914488944518</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>18.47019406721666</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>21.55225738682649</v>
+      </c>
+      <c r="N21">
+        <v>15.94724462977827</v>
+      </c>
+      <c r="O21">
+        <v>39.95535793179293</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.56810773803162</v>
+        <v>30.66288164225022</v>
       </c>
       <c r="C22">
-        <v>20.99851071248907</v>
+        <v>21.5016400039412</v>
       </c>
       <c r="D22">
-        <v>9.813977274096031</v>
+        <v>11.7792619772123</v>
       </c>
       <c r="E22">
-        <v>8.224518100895512</v>
+        <v>10.29316565216906</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>45.20484371647167</v>
+        <v>2.046356043208357</v>
       </c>
       <c r="H22">
-        <v>45.52307508149745</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>37.82625020970517</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>4.635375025570678</v>
       </c>
       <c r="K22">
-        <v>22.9248539218633</v>
+        <v>26.70405905170341</v>
       </c>
       <c r="L22">
-        <v>12.84684881981566</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>19.21795765635953</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>22.24265477137612</v>
+      </c>
+      <c r="N22">
+        <v>15.9053750389992</v>
+      </c>
+      <c r="O22">
+        <v>41.071701317384</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.04725149041187</v>
+        <v>30.01558668253359</v>
       </c>
       <c r="C23">
-        <v>20.54395017490989</v>
+        <v>21.04051471400787</v>
       </c>
       <c r="D23">
-        <v>9.605558660260169</v>
+        <v>11.61971463065444</v>
       </c>
       <c r="E23">
-        <v>8.121664562630146</v>
+        <v>10.19779696074478</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>44.33910137557402</v>
+        <v>2.052353870466654</v>
       </c>
       <c r="H23">
-        <v>44.71829736407788</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>37.21421941619463</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>4.649736827852982</v>
       </c>
       <c r="K23">
-        <v>22.44377323318959</v>
+        <v>26.13341365972947</v>
       </c>
       <c r="L23">
-        <v>12.57158103186548</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>18.82040446544645</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>21.87409354576473</v>
+      </c>
+      <c r="N23">
+        <v>15.92681823018634</v>
+      </c>
+      <c r="O23">
+        <v>40.47399451052562</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.02635056690939</v>
+        <v>27.51192677487774</v>
       </c>
       <c r="C24">
-        <v>18.7855559177361</v>
+        <v>19.25994868802642</v>
       </c>
       <c r="D24">
-        <v>8.797436454168196</v>
+        <v>11.02460542865455</v>
       </c>
       <c r="E24">
-        <v>7.7377508426115</v>
+        <v>9.850532825915089</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>41.0281597189621</v>
+        <v>2.074937745050117</v>
       </c>
       <c r="H24">
-        <v>41.65803192334258</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>34.89882768994606</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>4.705862272971782</v>
       </c>
       <c r="K24">
-        <v>20.57881878967683</v>
+        <v>23.92407314677466</v>
       </c>
       <c r="L24">
-        <v>11.51162904065917</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>17.27897792008931</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>20.47908775412117</v>
+      </c>
+      <c r="N24">
+        <v>16.02680880218752</v>
+      </c>
+      <c r="O24">
+        <v>38.24945081405068</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.7293448221833</v>
+        <v>24.78478860517973</v>
       </c>
       <c r="C25">
-        <v>16.79637348841217</v>
+        <v>17.27398130221925</v>
       </c>
       <c r="D25">
-        <v>7.880006004007846</v>
+        <v>10.39999284143639</v>
       </c>
       <c r="E25">
-        <v>7.334138225787012</v>
+        <v>9.502846967789388</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>37.37256471940591</v>
+        <v>2.09929879785617</v>
       </c>
       <c r="H25">
-        <v>38.317995973952</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>32.3972554555262</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>4.770239763444057</v>
       </c>
       <c r="K25">
-        <v>18.46196850992062</v>
+        <v>21.50810825292935</v>
       </c>
       <c r="L25">
-        <v>10.56525384467718</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>15.52927442142602</v>
+        <v>18.97212723713118</v>
+      </c>
+      <c r="N25">
+        <v>16.16875369446348</v>
+      </c>
+      <c r="O25">
+        <v>35.92173655144309</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_53/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_53/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22.80379723551224</v>
+        <v>21.59561471655496</v>
       </c>
       <c r="C2">
-        <v>15.81299964984151</v>
+        <v>11.49494745053242</v>
       </c>
       <c r="D2">
-        <v>9.953844325073769</v>
+        <v>7.201034051244146</v>
       </c>
       <c r="E2">
-        <v>9.267679974068987</v>
+        <v>7.203162133330715</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.117474223185607</v>
+        <v>25.68511178230949</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>8.843266805709554</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>4.821073257436469</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>19.85965418939866</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>7.141076365422673</v>
       </c>
       <c r="M2">
-        <v>17.85956185588607</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>16.29764162828201</v>
+        <v>11.61639352884976</v>
       </c>
       <c r="O2">
-        <v>34.26228612646698</v>
+        <v>15.18943307697478</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.41214119209823</v>
+        <v>20.13604813447833</v>
       </c>
       <c r="C3">
-        <v>14.78226039859613</v>
+        <v>11.09834278766445</v>
       </c>
       <c r="D3">
-        <v>9.660039063733841</v>
+        <v>6.70250220144456</v>
       </c>
       <c r="E3">
-        <v>9.120391370385414</v>
+        <v>7.224287006808304</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.130038739709319</v>
+        <v>24.60274565958335</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>8.783826952883942</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>4.857725342672146</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>18.70862284149872</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6.883894250307532</v>
       </c>
       <c r="M3">
-        <v>17.1048258531419</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>16.39819034395424</v>
+        <v>11.76386104655511</v>
       </c>
       <c r="O3">
-        <v>33.17015364554054</v>
+        <v>14.87193411730516</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.53414788194693</v>
+        <v>19.18670560721887</v>
       </c>
       <c r="C4">
-        <v>14.129431134513</v>
+        <v>10.8472383756368</v>
       </c>
       <c r="D4">
-        <v>9.4839692433018</v>
+        <v>6.379279603483827</v>
       </c>
       <c r="E4">
-        <v>9.03565739872084</v>
+        <v>7.242594475774558</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.137903034687998</v>
+        <v>23.94566349082316</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>8.754584221796112</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>4.881334513749884</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>17.98601615194794</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.724702367272324</v>
       </c>
       <c r="M4">
-        <v>16.64186734344746</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>16.46587935867151</v>
+        <v>11.85793933169848</v>
       </c>
       <c r="O4">
-        <v>32.51559371346758</v>
+        <v>14.68961980927104</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>20.17065299208885</v>
+        <v>18.78639101323624</v>
       </c>
       <c r="C5">
-        <v>13.85846202657381</v>
+        <v>10.74310677159885</v>
       </c>
       <c r="D5">
-        <v>9.41333380653005</v>
+        <v>6.243224054471623</v>
       </c>
       <c r="E5">
-        <v>9.002525838203621</v>
+        <v>7.251349322814045</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.141149143289717</v>
+        <v>23.68018500894988</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>8.744438307394063</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>4.891235798941685</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>17.68776825481387</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.659601443599264</v>
       </c>
       <c r="M5">
-        <v>16.45348907894782</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>16.49488559540841</v>
+        <v>11.89715864031046</v>
       </c>
       <c r="O5">
-        <v>32.25292050202657</v>
+        <v>14.61850755995023</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.10995819764566</v>
+        <v>18.71910437868847</v>
       </c>
       <c r="C6">
-        <v>13.81317332968784</v>
+        <v>10.725710060838</v>
       </c>
       <c r="D6">
-        <v>9.401673022233235</v>
+        <v>6.220369037094785</v>
       </c>
       <c r="E6">
-        <v>8.997107794117671</v>
+        <v>7.252879858883561</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.141690756805467</v>
+        <v>23.63625300495173</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>8.742858919545055</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>4.892896906443347</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>17.63802382290079</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.648780538383845</v>
       </c>
       <c r="M6">
-        <v>16.4222315534328</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>16.49978594770691</v>
+        <v>11.9037240560509</v>
       </c>
       <c r="O6">
-        <v>32.20955090238341</v>
+        <v>14.6068915653394</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.52926842318046</v>
+        <v>19.18136138995023</v>
       </c>
       <c r="C7">
-        <v>14.12579658129549</v>
+        <v>10.84584118163214</v>
       </c>
       <c r="D7">
-        <v>9.483012078152566</v>
+        <v>6.377462327066302</v>
       </c>
       <c r="E7">
-        <v>9.035204959822135</v>
+        <v>7.242707368075045</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.137946640761637</v>
+        <v>23.9420733384162</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>8.754440293325716</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>4.881466907433152</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>17.98200884472875</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.723825191311055</v>
       </c>
       <c r="M7">
-        <v>16.63932542333846</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>16.46626487996806</v>
+        <v>11.85846469507797</v>
       </c>
       <c r="O7">
-        <v>32.5120346827435</v>
+        <v>14.68864788045499</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22.32892924946191</v>
+        <v>21.1033405177868</v>
       </c>
       <c r="C8">
-        <v>15.46177038249075</v>
+        <v>11.35983141016599</v>
       </c>
       <c r="D8">
-        <v>9.851655671252535</v>
+        <v>7.032673086707137</v>
       </c>
       <c r="E8">
-        <v>9.215689581093853</v>
+        <v>7.209309570584985</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.121777759292269</v>
+        <v>25.31058865221975</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>8.821235381989839</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>4.833483217958777</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>19.46617397303343</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>7.052719164295014</v>
       </c>
       <c r="M8">
-        <v>17.59932379642226</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>16.33102837405615</v>
+        <v>11.66650271449695</v>
       </c>
       <c r="O8">
-        <v>33.88240951687055</v>
+        <v>15.07734493581989</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.66720903638775</v>
+        <v>24.45426436309708</v>
       </c>
       <c r="C9">
-        <v>17.94234229185058</v>
+        <v>12.30360896248328</v>
       </c>
       <c r="D9">
-        <v>10.60822124610698</v>
+        <v>8.183268619367624</v>
       </c>
       <c r="E9">
-        <v>9.616594472448972</v>
+        <v>7.188314957522709</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.091070093120124</v>
+        <v>28.03781601503279</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>9.011996133959347</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>4.748029305286288</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>22.28285312670211</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>7.683868640043009</v>
       </c>
       <c r="M9">
-        <v>19.48025136654937</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>16.1168555539447</v>
+        <v>11.31846472565936</v>
       </c>
       <c r="O9">
-        <v>36.69704164618496</v>
+        <v>15.93904293181456</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>28.20074352091776</v>
+        <v>26.66663768307506</v>
       </c>
       <c r="C10">
-        <v>19.74937677429532</v>
+        <v>12.95339639779134</v>
       </c>
       <c r="D10">
-        <v>11.18467861972889</v>
+        <v>8.949020123059475</v>
       </c>
       <c r="E10">
-        <v>9.942544962028535</v>
+        <v>7.202996243360422</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.068820571807618</v>
+        <v>30.04992050634802</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>9.191403049354802</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>4.6903331461518</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>24.53230917498954</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>8.134941417816455</v>
       </c>
       <c r="M10">
-        <v>20.85774498686864</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>15.9967206458105</v>
+        <v>11.08070679849772</v>
       </c>
       <c r="O10">
-        <v>38.84709370594884</v>
+        <v>16.63129399823912</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>29.32417329416218</v>
+        <v>27.62010480456265</v>
       </c>
       <c r="C11">
-        <v>20.54832922299518</v>
+        <v>13.23879436457178</v>
       </c>
       <c r="D11">
-        <v>11.45178360566074</v>
+        <v>9.280610275669506</v>
       </c>
       <c r="E11">
-        <v>10.09840731664822</v>
+        <v>7.216856600840722</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.058687657437721</v>
+        <v>30.96423692833429</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>9.282082313744928</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>4.665147075075263</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>25.52364934989622</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>8.336704294220485</v>
       </c>
       <c r="M11">
-        <v>21.48383558991225</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>15.95179141301158</v>
+        <v>10.97662470940671</v>
       </c>
       <c r="O11">
-        <v>39.84550208351186</v>
+        <v>16.95867613603644</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.74503918968581</v>
+        <v>27.97364287737206</v>
       </c>
       <c r="C12">
-        <v>20.84787993392461</v>
+        <v>13.3453522827709</v>
       </c>
       <c r="D12">
-        <v>11.55369199774448</v>
+        <v>9.403809091185954</v>
       </c>
       <c r="E12">
-        <v>10.15859771400154</v>
+        <v>7.22319087912449</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.054841176622217</v>
+        <v>31.31014801521438</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>9.317763862690164</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>4.655758378694864</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>25.89484441720464</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>8.412567211446431</v>
       </c>
       <c r="M12">
-        <v>21.72095644051572</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>15.93633998594609</v>
+        <v>10.93781696618058</v>
       </c>
       <c r="O12">
-        <v>40.2268259399521</v>
+        <v>17.08440781977747</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.65459339484752</v>
+        <v>27.89783499282278</v>
       </c>
       <c r="C13">
-        <v>20.78349370919289</v>
+        <v>13.32247126339166</v>
       </c>
       <c r="D13">
-        <v>11.53170905047077</v>
+        <v>9.37738061349976</v>
       </c>
       <c r="E13">
-        <v>10.14558123650424</v>
+        <v>7.221777551590693</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.055670137525822</v>
+        <v>31.2356664110439</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>9.310018853232133</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>4.657773851037853</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>25.81508093920187</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>8.396253452308882</v>
       </c>
       <c r="M13">
-        <v>21.66988418513705</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>15.93959534410848</v>
+        <v>10.94614760902849</v>
       </c>
       <c r="O13">
-        <v>40.14455012642147</v>
+        <v>17.05725151751046</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.35888683445673</v>
+        <v>27.64934073302934</v>
       </c>
       <c r="C14">
-        <v>20.57303139037674</v>
+        <v>13.24759158981803</v>
       </c>
       <c r="D14">
-        <v>11.46015195579437</v>
+        <v>9.290793110761792</v>
       </c>
       <c r="E14">
-        <v>10.1033352887971</v>
+        <v>7.217355664430131</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.058371441354868</v>
+        <v>30.99270250098856</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>9.284990716142424</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>4.664371703333533</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>25.5542695656528</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>8.342956645875701</v>
       </c>
       <c r="M14">
-        <v>21.50334209636595</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>15.95048786904159</v>
+        <v>10.97341970449133</v>
       </c>
       <c r="O14">
-        <v>39.8768064498617</v>
+        <v>16.96898508414722</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>29.1771784493215</v>
+        <v>27.49615448471667</v>
       </c>
       <c r="C15">
-        <v>20.4437377510322</v>
+        <v>13.20152684713347</v>
       </c>
       <c r="D15">
-        <v>11.41642264339506</v>
+        <v>9.237448767689669</v>
       </c>
       <c r="E15">
-        <v>10.07761321889307</v>
+        <v>7.214790086278404</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.060024598773153</v>
+        <v>30.84383394579812</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>9.269836330424482</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>4.668432329933276</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>25.39398033370994</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>8.310239218091759</v>
       </c>
       <c r="M15">
-        <v>21.40133917828564</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>15.95736863563408</v>
+        <v>10.99020420098844</v>
       </c>
       <c r="O15">
-        <v>39.71324035440807</v>
+        <v>16.91514748418397</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>28.12666400603652</v>
+        <v>26.6032688902651</v>
       </c>
       <c r="C16">
-        <v>19.69672519632256</v>
+        <v>12.93453534572167</v>
       </c>
       <c r="D16">
-        <v>11.16732528657612</v>
+        <v>8.927016343950964</v>
       </c>
       <c r="E16">
-        <v>9.932517930959708</v>
+        <v>7.202239477388909</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.06948191756014</v>
+        <v>29.9901313709377</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>9.185662816549947</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>4.692000137273436</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>24.46691171922267</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>8.121682467170283</v>
       </c>
       <c r="M16">
-        <v>20.81682560624246</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>15.99986596739499</v>
+        <v>11.08759243620732</v>
       </c>
       <c r="O16">
-        <v>38.78227968111632</v>
+        <v>16.61014677504958</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>27.47364471389168</v>
+        <v>26.04201680404884</v>
       </c>
       <c r="C17">
-        <v>19.23275728138118</v>
+        <v>12.7680952429002</v>
       </c>
       <c r="D17">
-        <v>11.01579460295464</v>
+        <v>8.732314331336481</v>
       </c>
       <c r="E17">
-        <v>9.845500109906768</v>
+        <v>7.196417174937326</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.075275604589959</v>
+        <v>29.46601435758352</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>9.136376066365646</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>4.706727209776416</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>23.89025939044372</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>8.005093728225079</v>
       </c>
       <c r="M17">
-        <v>20.45816528395554</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>16.028535638746</v>
+        <v>11.14839384871417</v>
       </c>
       <c r="O17">
-        <v>38.21656940677706</v>
+        <v>16.42620793427984</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>27.09477423468827</v>
+        <v>25.71420940455701</v>
       </c>
       <c r="C18">
-        <v>18.96370024855804</v>
+        <v>12.67140624169616</v>
       </c>
       <c r="D18">
-        <v>10.92909149685551</v>
+        <v>8.61874729377003</v>
       </c>
       <c r="E18">
-        <v>9.796158280051333</v>
+        <v>7.193741154810496</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.078607423269697</v>
+        <v>29.16446934902257</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>9.108878781390075</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>4.715297864577546</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>23.55554997915262</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>7.937714100799084</v>
       </c>
       <c r="M18">
-        <v>20.25181201154819</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>16.04592940406975</v>
+        <v>11.18374741244174</v>
       </c>
       <c r="O18">
-        <v>37.89307648433609</v>
+        <v>16.32158721189958</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.96592247066376</v>
+        <v>25.60235955880998</v>
       </c>
       <c r="C19">
-        <v>18.8722163317233</v>
+        <v>12.63850631136414</v>
       </c>
       <c r="D19">
-        <v>10.89981176774956</v>
+        <v>8.58002289906862</v>
       </c>
       <c r="E19">
-        <v>9.779571555102612</v>
+        <v>7.192949043627796</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.079735640448233</v>
+        <v>29.06236271221274</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>9.099713614490925</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>4.718217030248907</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>23.44169116832975</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>7.914846981211605</v>
       </c>
       <c r="M19">
-        <v>20.18193152882186</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>16.05196924491286</v>
+        <v>11.19578261159271</v>
       </c>
       <c r="O19">
-        <v>37.7838637098976</v>
+        <v>16.28636752506327</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.54349562442036</v>
+        <v>26.10227881788073</v>
       </c>
       <c r="C20">
-        <v>19.28237248533211</v>
+        <v>12.78591252025017</v>
       </c>
       <c r="D20">
-        <v>11.03187803191838</v>
+        <v>8.753203875788957</v>
       </c>
       <c r="E20">
-        <v>9.854689463286629</v>
+        <v>7.196966951730523</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.074658966492681</v>
+        <v>29.52181793151801</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>9.141534340266482</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>4.70514916083298</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>23.95195643258969</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>8.017538374725206</v>
       </c>
       <c r="M20">
-        <v>20.49635104947541</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>16.02538905989891</v>
+        <v>11.14188174473493</v>
       </c>
       <c r="O20">
-        <v>38.27659278449082</v>
+        <v>16.44566708469435</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.44586296942378</v>
+        <v>27.72253281380018</v>
       </c>
       <c r="C21">
-        <v>20.63492767173187</v>
+        <v>13.26962706804176</v>
       </c>
       <c r="D21">
-        <v>11.48114871156853</v>
+        <v>9.316289859523133</v>
       </c>
       <c r="E21">
-        <v>10.11571152590176</v>
+        <v>7.218624593730401</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.057578324625336</v>
+        <v>31.06407675168654</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>9.29230532610087</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>4.662429749315389</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>25.6309868319005</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>8.358626200829718</v>
       </c>
       <c r="M21">
-        <v>21.55225738682649</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>15.94724462977827</v>
+        <v>10.96539261051549</v>
       </c>
       <c r="O21">
-        <v>39.95535793179293</v>
+        <v>16.99486358673816</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.66288164225022</v>
+        <v>28.73768141858774</v>
       </c>
       <c r="C22">
-        <v>21.5016400039412</v>
+        <v>13.57690835692305</v>
       </c>
       <c r="D22">
-        <v>11.7792619772123</v>
+        <v>9.67052225391024</v>
       </c>
       <c r="E22">
-        <v>10.29316565216906</v>
+        <v>7.23913168428308</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.046356043208357</v>
+        <v>32.07011673981621</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>9.398689456583789</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>4.635375025570678</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>26.70405905170341</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>8.578382207593775</v>
       </c>
       <c r="M22">
-        <v>22.24265477137612</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>15.9053750389992</v>
+        <v>10.85359000083842</v>
       </c>
       <c r="O22">
-        <v>41.071701317384</v>
+        <v>17.36403654111409</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>30.01558668253359</v>
+        <v>28.19985106036737</v>
       </c>
       <c r="C23">
-        <v>21.04051471400787</v>
+        <v>13.41373103671382</v>
       </c>
       <c r="D23">
-        <v>11.61971463065444</v>
+        <v>9.482707957135464</v>
       </c>
       <c r="E23">
-        <v>10.19779696074478</v>
+        <v>7.227587932779035</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.052353870466654</v>
+        <v>31.53339477525628</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>9.341179753163955</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>4.649736827852982</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>26.13341365972947</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>8.461396946548696</v>
       </c>
       <c r="M23">
-        <v>21.87409354576473</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>15.92681823018634</v>
+        <v>10.91292949919731</v>
       </c>
       <c r="O23">
-        <v>40.47399451052562</v>
+        <v>17.16607512508758</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>27.51192677487774</v>
+        <v>26.07505036639649</v>
       </c>
       <c r="C24">
-        <v>19.25994868802642</v>
+        <v>12.77786044117326</v>
       </c>
       <c r="D24">
-        <v>11.02460542865455</v>
+        <v>8.743764793785893</v>
       </c>
       <c r="E24">
-        <v>9.850532825915089</v>
+        <v>7.196716310705718</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.074937745050117</v>
+        <v>29.49658981678732</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>9.13919967646282</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>4.705862272971782</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>23.92407314677466</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>8.011913240327322</v>
       </c>
       <c r="M24">
-        <v>20.47908775412117</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>16.02680880218752</v>
+        <v>11.14482462865633</v>
       </c>
       <c r="O24">
-        <v>38.24945081405068</v>
+        <v>16.43686608610812</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.78478860517973</v>
+        <v>23.59196681618169</v>
       </c>
       <c r="C25">
-        <v>17.27398130221925</v>
+        <v>12.05566579449084</v>
       </c>
       <c r="D25">
-        <v>10.39999284143639</v>
+        <v>7.886147213204321</v>
       </c>
       <c r="E25">
-        <v>9.502846967789388</v>
+        <v>7.188924524860049</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.09929879785617</v>
+        <v>27.29741177518218</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>8.953687949731538</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>4.770239763444057</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>21.50810825292935</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>7.515075617808026</v>
       </c>
       <c r="M25">
-        <v>18.97212723713118</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>16.16875369446348</v>
+        <v>11.40952051873644</v>
       </c>
       <c r="O25">
-        <v>35.92173655144309</v>
+        <v>15.69541296287522</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_53/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_53/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.59561471655496</v>
+        <v>15.77687337915141</v>
       </c>
       <c r="C2">
-        <v>11.49494745053242</v>
+        <v>10.61617243619246</v>
       </c>
       <c r="D2">
-        <v>7.201034051244146</v>
+        <v>5.977206025344545</v>
       </c>
       <c r="E2">
-        <v>7.203162133330715</v>
+        <v>11.91490136310726</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>25.68511178230949</v>
+        <v>28.42984472829223</v>
       </c>
       <c r="H2">
-        <v>8.843266805709554</v>
+        <v>14.00887133833256</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.141076365422673</v>
+        <v>9.643643377518131</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.61639352884976</v>
+        <v>17.11762359483091</v>
       </c>
       <c r="O2">
-        <v>15.18943307697478</v>
+        <v>21.3190781424956</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.13604813447833</v>
+        <v>15.25067356445434</v>
       </c>
       <c r="C3">
-        <v>11.09834278766445</v>
+        <v>10.47294541726249</v>
       </c>
       <c r="D3">
-        <v>6.70250220144456</v>
+        <v>5.857013329162502</v>
       </c>
       <c r="E3">
-        <v>7.224287006808304</v>
+        <v>11.95476457647348</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>24.60274565958335</v>
+        <v>28.32502835438359</v>
       </c>
       <c r="H3">
-        <v>8.783826952883942</v>
+        <v>14.04500702956846</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.883894250307532</v>
+        <v>9.617272176399544</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>11.76386104655511</v>
+        <v>17.16833313252338</v>
       </c>
       <c r="O3">
-        <v>14.87193411730516</v>
+        <v>21.34790318970924</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.18670560721887</v>
+        <v>14.92033395730789</v>
       </c>
       <c r="C4">
-        <v>10.8472383756368</v>
+        <v>10.38347444847146</v>
       </c>
       <c r="D4">
-        <v>6.379279603483827</v>
+        <v>5.783739773013035</v>
       </c>
       <c r="E4">
-        <v>7.242594475774558</v>
+        <v>11.98136935783831</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>23.94566349082316</v>
+        <v>28.27155669911474</v>
       </c>
       <c r="H4">
-        <v>8.754584221796112</v>
+        <v>14.0700200926753</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.724702367272324</v>
+        <v>9.602752593859886</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>11.85793933169848</v>
+        <v>17.20129952503257</v>
       </c>
       <c r="O4">
-        <v>14.68961980927104</v>
+        <v>21.37139563626784</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.78639101323624</v>
+        <v>14.78410336897052</v>
       </c>
       <c r="C5">
-        <v>10.74310677159885</v>
+        <v>10.34665625370583</v>
       </c>
       <c r="D5">
-        <v>6.243224054471623</v>
+        <v>5.754058817645069</v>
       </c>
       <c r="E5">
-        <v>7.251349322814045</v>
+        <v>11.99274588884867</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>23.68018500894988</v>
+        <v>28.25251970776773</v>
       </c>
       <c r="H5">
-        <v>8.744438307394063</v>
+        <v>14.08092236950588</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.659601443599264</v>
+        <v>9.597260524988224</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>11.89715864031046</v>
+        <v>17.21519480384704</v>
       </c>
       <c r="O5">
-        <v>14.61850755995023</v>
+        <v>21.3824221868005</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.71910437868847</v>
+        <v>14.76139131860569</v>
       </c>
       <c r="C6">
-        <v>10.725710060838</v>
+        <v>10.34052177849254</v>
       </c>
       <c r="D6">
-        <v>6.220369037094785</v>
+        <v>5.749142474568822</v>
       </c>
       <c r="E6">
-        <v>7.252879858883561</v>
+        <v>11.99466724628092</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>23.63625300495173</v>
+        <v>28.24952528435967</v>
       </c>
       <c r="H6">
-        <v>8.742858919545055</v>
+        <v>14.08277548247049</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.648780538383845</v>
+        <v>9.596374342772803</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>11.9037240560509</v>
+        <v>17.21752998693253</v>
       </c>
       <c r="O6">
-        <v>14.6068915653394</v>
+        <v>21.3843407852732</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.18136138995023</v>
+        <v>14.91850295221694</v>
       </c>
       <c r="C7">
-        <v>10.84584118163214</v>
+        <v>10.38297931982001</v>
       </c>
       <c r="D7">
-        <v>6.377462327066302</v>
+        <v>5.783338700213939</v>
       </c>
       <c r="E7">
-        <v>7.242707368075045</v>
+        <v>11.98152062057556</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>23.9420733384162</v>
+        <v>28.27128879481221</v>
       </c>
       <c r="H7">
-        <v>8.754440293325716</v>
+        <v>14.07016425462229</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.723825191311055</v>
+        <v>9.602676800681778</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>11.85846469507797</v>
+        <v>17.20148505301206</v>
       </c>
       <c r="O7">
-        <v>14.68864788045499</v>
+        <v>21.37153846567867</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.1033405177868</v>
+        <v>15.59706433060782</v>
       </c>
       <c r="C8">
-        <v>11.35983141016599</v>
+        <v>10.56712077549443</v>
       </c>
       <c r="D8">
-        <v>7.032673086707137</v>
+        <v>5.935682307775238</v>
       </c>
       <c r="E8">
-        <v>7.209309570584985</v>
+        <v>11.92820417621101</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>25.31058865221975</v>
+        <v>28.39145548772575</v>
       </c>
       <c r="H8">
-        <v>8.821235381989839</v>
+        <v>14.02074373144033</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.052719164295014</v>
+        <v>9.634206122515343</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.66650271449695</v>
+        <v>17.1347288580061</v>
       </c>
       <c r="O8">
-        <v>15.07734493581989</v>
+        <v>21.3278124934467</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.45426436309708</v>
+        <v>16.86192114684031</v>
       </c>
       <c r="C9">
-        <v>12.30360896248328</v>
+        <v>10.9149623138469</v>
       </c>
       <c r="D9">
-        <v>8.183268619367624</v>
+        <v>6.236587986678552</v>
       </c>
       <c r="E9">
-        <v>7.188314957522709</v>
+        <v>11.84055744925941</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>28.03781601503279</v>
+        <v>28.71256823466981</v>
       </c>
       <c r="H9">
-        <v>9.011996133959347</v>
+        <v>13.94630412457744</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>7.683868640043009</v>
+        <v>9.709103138431825</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.31846472565936</v>
+        <v>17.01830393404752</v>
       </c>
       <c r="O9">
-        <v>15.93904293181456</v>
+        <v>21.2881745714845</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.66663768307506</v>
+        <v>17.74127070364989</v>
       </c>
       <c r="C10">
-        <v>12.95339639779134</v>
+        <v>11.16098194074414</v>
       </c>
       <c r="D10">
-        <v>8.949020123059475</v>
+        <v>6.456376338537087</v>
       </c>
       <c r="E10">
-        <v>7.202996243360422</v>
+        <v>11.78649313337725</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>30.04992050634802</v>
+        <v>28.99906947528344</v>
       </c>
       <c r="H10">
-        <v>9.191403049354802</v>
+        <v>13.90538361226044</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.134941417816455</v>
+        <v>9.771803249283179</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.08070679849772</v>
+        <v>16.94154015981609</v>
       </c>
       <c r="O10">
-        <v>16.63129399823912</v>
+        <v>21.28730873543957</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.62010480456265</v>
+        <v>18.12872917672863</v>
       </c>
       <c r="C11">
-        <v>13.23879436457178</v>
+        <v>11.27053881777045</v>
       </c>
       <c r="D11">
-        <v>9.280610275669506</v>
+        <v>6.555565734803416</v>
       </c>
       <c r="E11">
-        <v>7.216856600840722</v>
+        <v>11.76414566531439</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>30.96423692833429</v>
+        <v>29.13997632093412</v>
       </c>
       <c r="H11">
-        <v>9.282082313744928</v>
+        <v>13.88977086744018</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>8.336704294220485</v>
+        <v>9.801923446510752</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>10.97662470940671</v>
+        <v>16.90851188336601</v>
       </c>
       <c r="O11">
-        <v>16.95867613603644</v>
+        <v>21.29306678171967</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.97364287737206</v>
+        <v>18.27351983493114</v>
       </c>
       <c r="C12">
-        <v>13.3453522827709</v>
+        <v>11.3116626450596</v>
       </c>
       <c r="D12">
-        <v>9.403809091185954</v>
+        <v>6.592971667560324</v>
       </c>
       <c r="E12">
-        <v>7.22319087912449</v>
+        <v>11.75600673274075</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>31.31014801521438</v>
+        <v>29.19481431788114</v>
       </c>
       <c r="H12">
-        <v>9.317763862690164</v>
+        <v>13.88429132185038</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>8.412567211446431</v>
+        <v>9.813552460950023</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>10.93781696618058</v>
+        <v>16.89627616986143</v>
       </c>
       <c r="O12">
-        <v>17.08440781977747</v>
+        <v>21.29613184697521</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.89783499282278</v>
+        <v>18.242424314126</v>
       </c>
       <c r="C13">
-        <v>13.32247126339166</v>
+        <v>11.30282240528805</v>
       </c>
       <c r="D13">
-        <v>9.37738061349976</v>
+        <v>6.584923147287594</v>
       </c>
       <c r="E13">
-        <v>7.221777551590693</v>
+        <v>11.75774519886636</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>31.2356664110439</v>
+        <v>29.18293886019577</v>
       </c>
       <c r="H13">
-        <v>9.310018853232133</v>
+        <v>13.8854521834061</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>8.396253452308882</v>
+        <v>9.811038128124322</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>10.94614760902849</v>
+        <v>16.89889929068063</v>
       </c>
       <c r="O13">
-        <v>17.05725151751046</v>
+        <v>21.29543239554554</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.64934073302934</v>
+        <v>18.14068056488126</v>
       </c>
       <c r="C14">
-        <v>13.24759158981803</v>
+        <v>11.27392950734442</v>
       </c>
       <c r="D14">
-        <v>9.290793110761792</v>
+        <v>6.558646474329523</v>
       </c>
       <c r="E14">
-        <v>7.217355664430131</v>
+        <v>11.76346958281527</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>30.99270250098856</v>
+        <v>29.14445847035444</v>
       </c>
       <c r="H14">
-        <v>9.284990716142424</v>
+        <v>13.88931138571555</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8.342956645875701</v>
+        <v>9.802875739096981</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>10.97341970449133</v>
+        <v>16.90749980885369</v>
       </c>
       <c r="O14">
-        <v>16.96898508414722</v>
+        <v>21.29330122038223</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.49615448471667</v>
+        <v>18.07810458704289</v>
       </c>
       <c r="C15">
-        <v>13.20152684713347</v>
+        <v>11.25618381230321</v>
       </c>
       <c r="D15">
-        <v>9.237448767689669</v>
+        <v>6.542529903030231</v>
       </c>
       <c r="E15">
-        <v>7.214790086278404</v>
+        <v>11.76701808609143</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>30.84383394579812</v>
+        <v>29.12107952952412</v>
       </c>
       <c r="H15">
-        <v>9.269836330424482</v>
+        <v>13.89173163010191</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>8.310239218091759</v>
+        <v>9.79790490005248</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>10.99020420098844</v>
+        <v>16.91280319616551</v>
       </c>
       <c r="O15">
-        <v>16.91514748418397</v>
+        <v>21.29211100318041</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.6032688902651</v>
+        <v>17.71568557317845</v>
       </c>
       <c r="C16">
-        <v>12.93453534572167</v>
+        <v>11.15377262048925</v>
       </c>
       <c r="D16">
-        <v>8.927016343950964</v>
+        <v>6.449874568543279</v>
       </c>
       <c r="E16">
-        <v>7.202239477388909</v>
+        <v>11.78799884472334</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>29.9901313709377</v>
+        <v>28.99007025921275</v>
       </c>
       <c r="H16">
-        <v>9.185662816549947</v>
+        <v>13.90646443760908</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.121682467170283</v>
+        <v>9.769866415803079</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.08759243620732</v>
+        <v>16.94373664735708</v>
       </c>
       <c r="O16">
-        <v>16.61014677504958</v>
+        <v>21.28705624241545</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.04201680404884</v>
+        <v>17.4900420969737</v>
       </c>
       <c r="C17">
-        <v>12.7680952429002</v>
+        <v>11.09032530181937</v>
       </c>
       <c r="D17">
-        <v>8.732314331336481</v>
+        <v>6.392800522393347</v>
       </c>
       <c r="E17">
-        <v>7.196417174937326</v>
+        <v>11.80144564554546</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>29.46601435758352</v>
+        <v>28.91238093185443</v>
       </c>
       <c r="H17">
-        <v>9.136376066365646</v>
+        <v>13.91627218572336</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.005093728225079</v>
+        <v>9.753070314786308</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.14839384871417</v>
+        <v>16.96319739836986</v>
       </c>
       <c r="O17">
-        <v>16.42620793427984</v>
+        <v>21.28553120330947</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.71420940455701</v>
+        <v>17.35908203403673</v>
       </c>
       <c r="C18">
-        <v>12.67140624169616</v>
+        <v>11.05361143392537</v>
       </c>
       <c r="D18">
-        <v>8.61874729377003</v>
+        <v>6.35990066216104</v>
       </c>
       <c r="E18">
-        <v>7.193741154810496</v>
+        <v>11.80939132691572</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>29.16446934902257</v>
+        <v>28.86869425189505</v>
       </c>
       <c r="H18">
-        <v>9.108878781390075</v>
+        <v>13.92219587486416</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>7.937714100799084</v>
+        <v>9.743560430331774</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.18374741244174</v>
+        <v>16.97456882607195</v>
       </c>
       <c r="O18">
-        <v>16.32158721189958</v>
+        <v>21.2852331404637</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.60235955880998</v>
+        <v>17.31454329808081</v>
       </c>
       <c r="C19">
-        <v>12.63850631136414</v>
+        <v>11.04114359420845</v>
       </c>
       <c r="D19">
-        <v>8.58002289906862</v>
+        <v>6.348750185682188</v>
       </c>
       <c r="E19">
-        <v>7.192949043627796</v>
+        <v>11.81211789712946</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>29.06236271221274</v>
+        <v>28.85407532440544</v>
       </c>
       <c r="H19">
-        <v>9.099713614490925</v>
+        <v>13.92425002854035</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>7.914846981211605</v>
+        <v>9.740366640359412</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.19578261159271</v>
+        <v>16.97844960931198</v>
       </c>
       <c r="O19">
-        <v>16.28636752506327</v>
+        <v>21.28523166995176</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.10227881788073</v>
+        <v>17.51418488440487</v>
       </c>
       <c r="C20">
-        <v>12.78591252025017</v>
+        <v>11.09710238910054</v>
       </c>
       <c r="D20">
-        <v>8.753203875788957</v>
+        <v>6.398883946118261</v>
       </c>
       <c r="E20">
-        <v>7.196966951730523</v>
+        <v>11.79999232400996</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>29.52181793151801</v>
+        <v>28.92054807382492</v>
       </c>
       <c r="H20">
-        <v>9.141534340266482</v>
+        <v>13.91519888594893</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.017538374725206</v>
+        <v>9.754842729052548</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.14188174473493</v>
+        <v>16.9611073386198</v>
       </c>
       <c r="O20">
-        <v>16.44566708469435</v>
+        <v>21.28563360930657</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.72253281380018</v>
+        <v>18.17061851359868</v>
       </c>
       <c r="C21">
-        <v>13.26962706804176</v>
+        <v>11.28242608790191</v>
       </c>
       <c r="D21">
-        <v>9.316289859523133</v>
+        <v>6.566369089158784</v>
       </c>
       <c r="E21">
-        <v>7.218624593730401</v>
+        <v>11.76177940700525</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>31.06407675168654</v>
+        <v>29.15572128254607</v>
       </c>
       <c r="H21">
-        <v>9.29230532610087</v>
+        <v>13.88816609514133</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.358626200829718</v>
+        <v>9.8052672284142</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>10.96539261051549</v>
+        <v>16.90496626838062</v>
       </c>
       <c r="O21">
-        <v>16.99486358673816</v>
+        <v>21.29390319403804</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.73768141858774</v>
+        <v>18.58832991439701</v>
       </c>
       <c r="C22">
-        <v>13.57690835692305</v>
+        <v>11.40141975921428</v>
       </c>
       <c r="D22">
-        <v>9.67052225391024</v>
+        <v>6.674909922420401</v>
       </c>
       <c r="E22">
-        <v>7.23913168428308</v>
+        <v>11.73869128422604</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>32.07011673981621</v>
+        <v>29.31802347222408</v>
       </c>
       <c r="H22">
-        <v>9.398689456583789</v>
+        <v>13.87302084586667</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>8.578382207593775</v>
+        <v>9.839519970600838</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>10.85359000083842</v>
+        <v>16.86985633290281</v>
       </c>
       <c r="O22">
-        <v>17.36403654111409</v>
+        <v>21.30446350044486</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.19985106036737</v>
+        <v>18.36646155505381</v>
       </c>
       <c r="C23">
-        <v>13.41373103671382</v>
+        <v>11.33811273836975</v>
       </c>
       <c r="D23">
-        <v>9.482707957135464</v>
+        <v>6.617076742654825</v>
       </c>
       <c r="E23">
-        <v>7.227587932779035</v>
+        <v>11.75084109802849</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>31.53339477525628</v>
+        <v>29.2306270757683</v>
       </c>
       <c r="H23">
-        <v>9.341179753163955</v>
+        <v>13.88087308201282</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>8.461396946548696</v>
+        <v>9.821122178093029</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>10.91292949919731</v>
+        <v>16.88845067799257</v>
       </c>
       <c r="O23">
-        <v>17.16607512508758</v>
+        <v>21.29835573748024</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.07505036639649</v>
+        <v>17.50327376611349</v>
       </c>
       <c r="C24">
-        <v>12.77786044117326</v>
+        <v>11.09403920484514</v>
       </c>
       <c r="D24">
-        <v>8.743764793785893</v>
+        <v>6.396133898843523</v>
       </c>
       <c r="E24">
-        <v>7.196716310705718</v>
+        <v>11.80064870120999</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>29.49658981678732</v>
+        <v>28.91685265958684</v>
       </c>
       <c r="H24">
-        <v>9.13919967646282</v>
+        <v>13.9156832368083</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.011913240327322</v>
+        <v>9.754040963995536</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.14482462865633</v>
+        <v>16.96205168396144</v>
       </c>
       <c r="O24">
-        <v>16.43686608610812</v>
+        <v>21.28558550891429</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.59196681618169</v>
+        <v>16.52787020533896</v>
       </c>
       <c r="C25">
-        <v>12.05566579449084</v>
+        <v>10.82243488160409</v>
       </c>
       <c r="D25">
-        <v>7.886147213204321</v>
+        <v>6.155228572561881</v>
       </c>
       <c r="E25">
-        <v>7.188924524860049</v>
+        <v>11.86245582447367</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>27.29741177518218</v>
+        <v>28.61668917291222</v>
       </c>
       <c r="H25">
-        <v>8.953687949731538</v>
+        <v>13.96402844926975</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>7.515075617808026</v>
+        <v>9.687471310547052</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.40952051873644</v>
+        <v>17.04825526074061</v>
       </c>
       <c r="O25">
-        <v>15.69541296287522</v>
+        <v>21.29394336024506</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_53/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_53/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.77687337915141</v>
+        <v>21.59561471655495</v>
       </c>
       <c r="C2">
-        <v>10.61617243619246</v>
+        <v>11.49494745053246</v>
       </c>
       <c r="D2">
-        <v>5.977206025344545</v>
+        <v>7.201034051244089</v>
       </c>
       <c r="E2">
-        <v>11.91490136310726</v>
+        <v>7.203162133330802</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>28.42984472829223</v>
+        <v>25.68511178230946</v>
       </c>
       <c r="H2">
-        <v>14.00887133833256</v>
+        <v>8.843266805709481</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.643643377518131</v>
+        <v>7.141076365422731</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>17.11762359483091</v>
+        <v>11.61639352884969</v>
       </c>
       <c r="O2">
-        <v>21.3190781424956</v>
+        <v>15.18943307697475</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.25067356445434</v>
+        <v>20.13604813447839</v>
       </c>
       <c r="C3">
-        <v>10.47294541726249</v>
+        <v>11.09834278766446</v>
       </c>
       <c r="D3">
-        <v>5.857013329162502</v>
+        <v>6.702502201444547</v>
       </c>
       <c r="E3">
-        <v>11.95476457647348</v>
+        <v>7.224287006808367</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>28.32502835438359</v>
+        <v>24.60274565958325</v>
       </c>
       <c r="H3">
-        <v>14.04500702956846</v>
+        <v>8.783826952883835</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.617272176399544</v>
+        <v>6.883894250307581</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>17.16833313252338</v>
+        <v>11.76386104655504</v>
       </c>
       <c r="O3">
-        <v>21.34790318970924</v>
+        <v>14.87193411730504</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.92033395730789</v>
+        <v>19.18670560721885</v>
       </c>
       <c r="C4">
-        <v>10.38347444847146</v>
+        <v>10.84723837563678</v>
       </c>
       <c r="D4">
-        <v>5.783739773013035</v>
+        <v>6.379279603483742</v>
       </c>
       <c r="E4">
-        <v>11.98136935783831</v>
+        <v>7.242594475774451</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>28.27155669911474</v>
+        <v>23.94566349082324</v>
       </c>
       <c r="H4">
-        <v>14.0700200926753</v>
+        <v>8.754584221796112</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>9.602752593859886</v>
+        <v>6.724702367272256</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>17.20129952503257</v>
+        <v>11.85793933169848</v>
       </c>
       <c r="O4">
-        <v>21.37139563626784</v>
+        <v>14.68961980927109</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.78410336897052</v>
+        <v>18.78639101323624</v>
       </c>
       <c r="C5">
-        <v>10.34665625370583</v>
+        <v>10.74310677159884</v>
       </c>
       <c r="D5">
-        <v>5.754058817645069</v>
+        <v>6.243224054471673</v>
       </c>
       <c r="E5">
-        <v>11.99274588884867</v>
+        <v>7.251349322814166</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>28.25251970776773</v>
+        <v>23.68018500895013</v>
       </c>
       <c r="H5">
-        <v>14.08092236950588</v>
+        <v>8.744438307394191</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>9.597260524988224</v>
+        <v>6.659601443599324</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>17.21519480384704</v>
+        <v>11.89715864031055</v>
       </c>
       <c r="O5">
-        <v>21.3824221868005</v>
+        <v>14.61850755995046</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.76139131860569</v>
+        <v>18.71910437868848</v>
       </c>
       <c r="C6">
-        <v>10.34052177849254</v>
+        <v>10.72571006083809</v>
       </c>
       <c r="D6">
-        <v>5.749142474568822</v>
+        <v>6.220369037094811</v>
       </c>
       <c r="E6">
-        <v>11.99466724628092</v>
+        <v>7.252879858883617</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>28.24952528435967</v>
+        <v>23.63625300495168</v>
       </c>
       <c r="H6">
-        <v>14.08277548247049</v>
+        <v>8.742858919544997</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>9.596374342772803</v>
+        <v>6.648780538383849</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>17.21752998693253</v>
+        <v>11.90372405605091</v>
       </c>
       <c r="O6">
-        <v>21.3843407852732</v>
+        <v>14.60689156533936</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.91850295221694</v>
+        <v>19.18136138995021</v>
       </c>
       <c r="C7">
-        <v>10.38297931982001</v>
+        <v>10.84584118163204</v>
       </c>
       <c r="D7">
-        <v>5.783338700213939</v>
+        <v>6.377462327066254</v>
       </c>
       <c r="E7">
-        <v>11.98152062057556</v>
+        <v>7.242707368075091</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>28.27128879481221</v>
+        <v>23.94207333841639</v>
       </c>
       <c r="H7">
-        <v>14.07016425462229</v>
+        <v>8.754440293325818</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>9.602676800681778</v>
+        <v>6.72382519131112</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>17.20148505301206</v>
+        <v>11.85846469507804</v>
       </c>
       <c r="O7">
-        <v>21.37153846567867</v>
+        <v>14.68864788045519</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.59706433060782</v>
+        <v>21.10334051778675</v>
       </c>
       <c r="C8">
-        <v>10.56712077549443</v>
+        <v>11.3598314101661</v>
       </c>
       <c r="D8">
-        <v>5.935682307775238</v>
+        <v>7.03267308670714</v>
       </c>
       <c r="E8">
-        <v>11.92820417621101</v>
+        <v>7.209309570585037</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>28.39145548772575</v>
+        <v>25.31058865221985</v>
       </c>
       <c r="H8">
-        <v>14.02074373144033</v>
+        <v>8.821235381989849</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>9.634206122515343</v>
+        <v>7.052719164295039</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>17.1347288580061</v>
+        <v>11.66650271449695</v>
       </c>
       <c r="O8">
-        <v>21.3278124934467</v>
+        <v>15.07734493581996</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.86192114684031</v>
+        <v>24.45426436309705</v>
       </c>
       <c r="C9">
-        <v>10.9149623138469</v>
+        <v>12.30360896248352</v>
       </c>
       <c r="D9">
-        <v>6.236587986678552</v>
+        <v>8.183268619367706</v>
       </c>
       <c r="E9">
-        <v>11.84055744925941</v>
+        <v>7.188314957522716</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>28.71256823466981</v>
+        <v>28.03781601503271</v>
       </c>
       <c r="H9">
-        <v>13.94630412457744</v>
+        <v>9.011996133959272</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.709103138431825</v>
+        <v>7.683868640043001</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>17.01830393404752</v>
+        <v>11.31846472565927</v>
       </c>
       <c r="O9">
-        <v>21.2881745714845</v>
+        <v>15.93904293181449</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.74127070364989</v>
+        <v>26.66663768307507</v>
       </c>
       <c r="C10">
-        <v>11.16098194074414</v>
+        <v>12.95339639779136</v>
       </c>
       <c r="D10">
-        <v>6.456376338537087</v>
+        <v>8.949020123059533</v>
       </c>
       <c r="E10">
-        <v>11.78649313337725</v>
+        <v>7.202996243360421</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>28.99906947528344</v>
+        <v>30.04992050634803</v>
       </c>
       <c r="H10">
-        <v>13.90538361226044</v>
+        <v>9.191403049354806</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.771803249283179</v>
+        <v>8.13494141781646</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>16.94154015981609</v>
+        <v>11.08070679849772</v>
       </c>
       <c r="O10">
-        <v>21.28730873543957</v>
+        <v>16.63129399823914</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.12872917672863</v>
+        <v>27.62010480456266</v>
       </c>
       <c r="C11">
-        <v>11.27053881777045</v>
+        <v>13.23879436457186</v>
       </c>
       <c r="D11">
-        <v>6.555565734803416</v>
+        <v>9.280610275669526</v>
       </c>
       <c r="E11">
-        <v>11.76414566531439</v>
+        <v>7.216856600840778</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>29.13997632093412</v>
+        <v>30.96423692833429</v>
       </c>
       <c r="H11">
-        <v>13.88977086744018</v>
+        <v>9.282082313744905</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.801923446510752</v>
+        <v>8.336704294220501</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>16.90851188336601</v>
+        <v>10.97662470940667</v>
       </c>
       <c r="O11">
-        <v>21.29306678171967</v>
+        <v>16.9586761360364</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.27351983493114</v>
+        <v>27.97364287737201</v>
       </c>
       <c r="C12">
-        <v>11.3116626450596</v>
+        <v>13.34535228277128</v>
       </c>
       <c r="D12">
-        <v>6.592971667560324</v>
+        <v>9.403809091185938</v>
       </c>
       <c r="E12">
-        <v>11.75600673274075</v>
+        <v>7.223190879124573</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>29.19481431788114</v>
+        <v>31.31014801521433</v>
       </c>
       <c r="H12">
-        <v>13.88429132185038</v>
+        <v>9.317763862690164</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.813552460950023</v>
+        <v>8.412567211446431</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>16.89627616986143</v>
+        <v>10.93781696618058</v>
       </c>
       <c r="O12">
-        <v>21.29613184697521</v>
+        <v>17.08440781977745</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.242424314126</v>
+        <v>27.8978349928229</v>
       </c>
       <c r="C13">
-        <v>11.30282240528805</v>
+        <v>13.32247126339157</v>
       </c>
       <c r="D13">
-        <v>6.584923147287594</v>
+        <v>9.377380613499799</v>
       </c>
       <c r="E13">
-        <v>11.75774519886636</v>
+        <v>7.221777551590614</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>29.18293886019577</v>
+        <v>31.23566641104393</v>
       </c>
       <c r="H13">
-        <v>13.8854521834061</v>
+        <v>9.310018853232119</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.811038128124322</v>
+        <v>8.396253452308859</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>16.89889929068063</v>
+        <v>10.9461476090284</v>
       </c>
       <c r="O13">
-        <v>21.29543239554554</v>
+        <v>17.05725151751041</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.14068056488126</v>
+        <v>27.64934073302926</v>
       </c>
       <c r="C14">
-        <v>11.27392950734442</v>
+        <v>13.24759158981813</v>
       </c>
       <c r="D14">
-        <v>6.558646474329523</v>
+        <v>9.290793110761792</v>
       </c>
       <c r="E14">
-        <v>11.76346958281527</v>
+        <v>7.217355664430164</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>29.14445847035444</v>
+        <v>30.9927025009886</v>
       </c>
       <c r="H14">
-        <v>13.88931138571555</v>
+        <v>9.2849907161425</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.802875739096981</v>
+        <v>8.342956645875701</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>16.90749980885369</v>
+        <v>10.97341970449139</v>
       </c>
       <c r="O14">
-        <v>21.29330122038223</v>
+        <v>16.96898508414727</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.07810458704289</v>
+        <v>27.49615448471667</v>
       </c>
       <c r="C15">
-        <v>11.25618381230321</v>
+        <v>13.20152684713339</v>
       </c>
       <c r="D15">
-        <v>6.542529903030231</v>
+        <v>9.237448767689669</v>
       </c>
       <c r="E15">
-        <v>11.76701808609143</v>
+        <v>7.2147900862785</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>29.12107952952412</v>
+        <v>30.84383394579821</v>
       </c>
       <c r="H15">
-        <v>13.89173163010191</v>
+        <v>9.269836330424489</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.79790490005248</v>
+        <v>8.31023921809175</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>16.91280319616551</v>
+        <v>10.99020420098853</v>
       </c>
       <c r="O15">
-        <v>21.29211100318041</v>
+        <v>16.91514748418405</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.71568557317845</v>
+        <v>26.603268890265</v>
       </c>
       <c r="C16">
-        <v>11.15377262048925</v>
+        <v>12.93453534572169</v>
       </c>
       <c r="D16">
-        <v>6.449874568543279</v>
+        <v>8.927016343950941</v>
       </c>
       <c r="E16">
-        <v>11.78799884472334</v>
+        <v>7.202239477388902</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>28.99007025921275</v>
+        <v>29.99013137093772</v>
       </c>
       <c r="H16">
-        <v>13.90646443760908</v>
+        <v>9.185662816550016</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.769866415803079</v>
+        <v>8.121682467170279</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>16.94373664735708</v>
+        <v>11.08759243620739</v>
       </c>
       <c r="O16">
-        <v>21.28705624241545</v>
+        <v>16.61014677504965</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.4900420969737</v>
+        <v>26.04201680404876</v>
       </c>
       <c r="C17">
-        <v>11.09032530181937</v>
+        <v>12.76809524290039</v>
       </c>
       <c r="D17">
-        <v>6.392800522393347</v>
+        <v>8.732314331336449</v>
       </c>
       <c r="E17">
-        <v>11.80144564554546</v>
+        <v>7.196417174937417</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>28.91238093185443</v>
+        <v>29.46601435758362</v>
       </c>
       <c r="H17">
-        <v>13.91627218572336</v>
+        <v>9.136376066365752</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.753070314786308</v>
+        <v>8.0050937282251</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>16.96319739836986</v>
+        <v>11.14839384871423</v>
       </c>
       <c r="O17">
-        <v>21.28553120330947</v>
+        <v>16.42620793427991</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.35908203403673</v>
+        <v>25.71420940455701</v>
       </c>
       <c r="C18">
-        <v>11.05361143392537</v>
+        <v>12.67140624169604</v>
       </c>
       <c r="D18">
-        <v>6.35990066216104</v>
+        <v>8.618747293769976</v>
       </c>
       <c r="E18">
-        <v>11.80939132691572</v>
+        <v>7.19374115481045</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>28.86869425189505</v>
+        <v>29.16446934902255</v>
       </c>
       <c r="H18">
-        <v>13.92219587486416</v>
+        <v>9.108878781390116</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.743560430331774</v>
+        <v>7.937714100799079</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>16.97456882607195</v>
+        <v>11.18374741244177</v>
       </c>
       <c r="O18">
-        <v>21.2852331404637</v>
+        <v>16.32158721189959</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.31454329808081</v>
+        <v>25.60235955880997</v>
       </c>
       <c r="C19">
-        <v>11.04114359420845</v>
+        <v>12.63850631136426</v>
       </c>
       <c r="D19">
-        <v>6.348750185682188</v>
+        <v>8.580022899068691</v>
       </c>
       <c r="E19">
-        <v>11.81211789712946</v>
+        <v>7.192949043627841</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>28.85407532440544</v>
+        <v>29.06236271221273</v>
       </c>
       <c r="H19">
-        <v>13.92425002854035</v>
+        <v>9.099713614490925</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.740366640359412</v>
+        <v>7.914846981211617</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>16.97844960931198</v>
+        <v>11.19578261159271</v>
       </c>
       <c r="O19">
-        <v>21.28523166995176</v>
+        <v>16.28636752506324</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.51418488440487</v>
+        <v>26.10227881788063</v>
       </c>
       <c r="C20">
-        <v>11.09710238910054</v>
+        <v>12.78591252025054</v>
       </c>
       <c r="D20">
-        <v>6.398883946118261</v>
+        <v>8.75320387578892</v>
       </c>
       <c r="E20">
-        <v>11.79999232400996</v>
+        <v>7.196966951730572</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>28.92054807382492</v>
+        <v>29.5218179315181</v>
       </c>
       <c r="H20">
-        <v>13.91519888594893</v>
+        <v>9.141534340266528</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.754842729052548</v>
+        <v>8.01753837472517</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>16.9611073386198</v>
+        <v>11.14188174473502</v>
       </c>
       <c r="O20">
-        <v>21.28563360930657</v>
+        <v>16.44566708469446</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.17061851359868</v>
+        <v>27.72253281380016</v>
       </c>
       <c r="C21">
-        <v>11.28242608790191</v>
+        <v>13.26962706804193</v>
       </c>
       <c r="D21">
-        <v>6.566369089158784</v>
+        <v>9.31628985952308</v>
       </c>
       <c r="E21">
-        <v>11.76177940700525</v>
+        <v>7.218624593730348</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>29.15572128254607</v>
+        <v>31.06407675168656</v>
       </c>
       <c r="H21">
-        <v>13.88816609514133</v>
+        <v>9.2923053261009</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.8052672284142</v>
+        <v>8.358626200829692</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>16.90496626838062</v>
+        <v>10.96539261051552</v>
       </c>
       <c r="O21">
-        <v>21.29390319403804</v>
+        <v>16.99486358673819</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.58832991439701</v>
+        <v>28.73768141858773</v>
       </c>
       <c r="C22">
-        <v>11.40141975921428</v>
+        <v>13.57690835692296</v>
       </c>
       <c r="D22">
-        <v>6.674909922420401</v>
+        <v>9.67052225391018</v>
       </c>
       <c r="E22">
-        <v>11.73869128422604</v>
+        <v>7.239131684283066</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>29.31802347222408</v>
+        <v>32.07011673981616</v>
       </c>
       <c r="H22">
-        <v>13.87302084586667</v>
+        <v>9.398689456583774</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.839519970600838</v>
+        <v>8.578382207593775</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>16.86985633290281</v>
+        <v>10.85359000083839</v>
       </c>
       <c r="O22">
-        <v>21.30446350044486</v>
+        <v>17.36403654111404</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.36646155505381</v>
+        <v>28.19985106036737</v>
       </c>
       <c r="C23">
-        <v>11.33811273836975</v>
+        <v>13.41373103671388</v>
       </c>
       <c r="D23">
-        <v>6.617076742654825</v>
+        <v>9.482707957135441</v>
       </c>
       <c r="E23">
-        <v>11.75084109802849</v>
+        <v>7.22758793277899</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>29.2306270757683</v>
+        <v>31.53339477525627</v>
       </c>
       <c r="H23">
-        <v>13.88087308201282</v>
+        <v>9.341179753163946</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.821122178093029</v>
+        <v>8.461396946548669</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>16.88845067799257</v>
+        <v>10.91292949919735</v>
       </c>
       <c r="O23">
-        <v>21.29835573748024</v>
+        <v>17.16607512508759</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.50327376611349</v>
+        <v>26.07505036639644</v>
       </c>
       <c r="C24">
-        <v>11.09403920484514</v>
+        <v>12.77786044117336</v>
       </c>
       <c r="D24">
-        <v>6.396133898843523</v>
+        <v>8.7437647937859</v>
       </c>
       <c r="E24">
-        <v>11.80064870120999</v>
+        <v>7.196716310705768</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>28.91685265958684</v>
+        <v>29.4965898167873</v>
       </c>
       <c r="H24">
-        <v>13.9156832368083</v>
+        <v>9.139199676462873</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.754040963995536</v>
+        <v>8.011913240327321</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>16.96205168396144</v>
+        <v>11.14482462865629</v>
       </c>
       <c r="O24">
-        <v>21.28558550891429</v>
+        <v>16.43686608610813</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.52787020533896</v>
+        <v>23.59196681618164</v>
       </c>
       <c r="C25">
-        <v>10.82243488160409</v>
+        <v>12.05566579449083</v>
       </c>
       <c r="D25">
-        <v>6.155228572561881</v>
+        <v>7.88614721320435</v>
       </c>
       <c r="E25">
-        <v>11.86245582447367</v>
+        <v>7.188924524860053</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>28.61668917291222</v>
+        <v>27.29741177518212</v>
       </c>
       <c r="H25">
-        <v>13.96402844926975</v>
+        <v>8.953687949731538</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.687471310547052</v>
+        <v>7.515075617808032</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>17.04825526074061</v>
+        <v>11.40952051873644</v>
       </c>
       <c r="O25">
-        <v>21.29394336024506</v>
+        <v>15.69541296287522</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_53/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_53/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.59561471655495</v>
+        <v>11.79418975699683</v>
       </c>
       <c r="C2">
-        <v>11.49494745053246</v>
+        <v>7.452468164842879</v>
       </c>
       <c r="D2">
-        <v>7.201034051244089</v>
+        <v>11.13817711735388</v>
       </c>
       <c r="E2">
-        <v>7.203162133330802</v>
+        <v>11.45809897394414</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>25.68511178230946</v>
+        <v>25.45324285067501</v>
       </c>
       <c r="H2">
-        <v>8.843266805709481</v>
+        <v>2.569451912073784</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.87598192996318</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>9.869795058916973</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>15.0130792547537</v>
       </c>
       <c r="L2">
-        <v>7.141076365422731</v>
+        <v>5.737363610158086</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>10.80829180688285</v>
       </c>
       <c r="N2">
-        <v>11.61639352884969</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>15.18943307697475</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>12.21533757528139</v>
+      </c>
+      <c r="P2">
+        <v>13.0640404564681</v>
+      </c>
+      <c r="Q2">
+        <v>16.37732756482267</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.13604813447839</v>
+        <v>11.03959064468919</v>
       </c>
       <c r="C3">
-        <v>11.09834278766446</v>
+        <v>7.030778927131744</v>
       </c>
       <c r="D3">
-        <v>6.702502201444547</v>
+        <v>10.72909205438128</v>
       </c>
       <c r="E3">
-        <v>7.224287006808367</v>
+        <v>11.07212923934313</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>24.60274565958325</v>
+        <v>25.08271634745564</v>
       </c>
       <c r="H3">
-        <v>8.783826952883835</v>
+        <v>2.772426443142479</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.006078859480801</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>9.876895593438826</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>15.05495528029155</v>
       </c>
       <c r="L3">
-        <v>6.883894250307581</v>
+        <v>5.64180773487448</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>10.1909484426782</v>
       </c>
       <c r="N3">
-        <v>11.76386104655504</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>14.87193411730504</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>11.68290637010492</v>
+      </c>
+      <c r="P3">
+        <v>13.19455506622264</v>
+      </c>
+      <c r="Q3">
+        <v>16.30771745476445</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.18670560721885</v>
+        <v>10.54639340005538</v>
       </c>
       <c r="C4">
-        <v>10.84723837563678</v>
+        <v>6.761825976385801</v>
       </c>
       <c r="D4">
-        <v>6.379279603483742</v>
+        <v>10.47203244259832</v>
       </c>
       <c r="E4">
-        <v>7.242594475774451</v>
+        <v>10.82822496639367</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>23.94566349082324</v>
+        <v>24.86158646547043</v>
       </c>
       <c r="H4">
-        <v>8.754584221796112</v>
+        <v>2.901850820498893</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.089835542157167</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>9.883699001580707</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>15.08391109629157</v>
       </c>
       <c r="L4">
-        <v>6.724702367272256</v>
+        <v>5.58137964578258</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>9.791406491926749</v>
       </c>
       <c r="N4">
-        <v>11.85793933169848</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>14.68961980927109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>11.34432179536064</v>
+      </c>
+      <c r="P4">
+        <v>13.27622406007109</v>
+      </c>
+      <c r="Q4">
+        <v>16.26971290188387</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.78639101323624</v>
+        <v>10.33294985492988</v>
       </c>
       <c r="C5">
-        <v>10.74310677159884</v>
+        <v>6.658240760902253</v>
       </c>
       <c r="D5">
-        <v>6.243224054471673</v>
+        <v>10.365846726179</v>
       </c>
       <c r="E5">
-        <v>7.251349322814166</v>
+        <v>10.72700077929582</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>23.68018500895013</v>
+        <v>24.76348639424274</v>
       </c>
       <c r="H5">
-        <v>8.744438307394191</v>
+        <v>2.956019866432753</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.127759679384169</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>9.885495772941889</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>15.09232665426173</v>
       </c>
       <c r="L5">
-        <v>6.659601443599324</v>
+        <v>5.556201513844218</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>9.623460521138064</v>
       </c>
       <c r="N5">
-        <v>11.89715864031055</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>14.61850755995046</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>11.20357858119117</v>
+      </c>
+      <c r="P5">
+        <v>13.30951188818015</v>
+      </c>
+      <c r="Q5">
+        <v>16.25143908736284</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.71910437868848</v>
+        <v>10.29101042800263</v>
       </c>
       <c r="C6">
-        <v>10.72571006083809</v>
+        <v>6.651297943519179</v>
       </c>
       <c r="D6">
-        <v>6.220369037094811</v>
+        <v>10.34802845493678</v>
       </c>
       <c r="E6">
-        <v>7.252879858883617</v>
+        <v>10.70986532787827</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>23.63625300495168</v>
+        <v>24.73550870616675</v>
       </c>
       <c r="H6">
-        <v>8.742858919544997</v>
+        <v>2.965341629786991</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.137733498598013</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>9.8838995428099</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>15.08866056122333</v>
       </c>
       <c r="L6">
-        <v>6.648780538383849</v>
+        <v>5.551851782465414</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>9.595226013974276</v>
       </c>
       <c r="N6">
-        <v>11.90372405605091</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>14.60689156533936</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>11.18005933096329</v>
+      </c>
+      <c r="P6">
+        <v>13.3145944954432</v>
+      </c>
+      <c r="Q6">
+        <v>16.24363299742704</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.18136138995021</v>
+        <v>10.52742303283613</v>
       </c>
       <c r="C7">
-        <v>10.84584118163204</v>
+        <v>6.788285112642223</v>
       </c>
       <c r="D7">
-        <v>6.377462327066254</v>
+        <v>10.47031516340464</v>
       </c>
       <c r="E7">
-        <v>7.242707368075091</v>
+        <v>10.82625204659641</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>23.94207333841639</v>
+        <v>24.82823218282543</v>
       </c>
       <c r="H7">
-        <v>8.754440293325818</v>
+        <v>2.903255147267072</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.099906273701855</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>9.878460787356424</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>15.07007718644719</v>
       </c>
       <c r="L7">
-        <v>6.72382519131112</v>
+        <v>5.580659830061141</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>9.789052308810701</v>
       </c>
       <c r="N7">
-        <v>11.85846469507804</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>14.68864788045519</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>11.34247006976303</v>
+      </c>
+      <c r="P7">
+        <v>13.2754382344826</v>
+      </c>
+      <c r="Q7">
+        <v>16.25627710144663</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.10334051778675</v>
+        <v>11.520465537475</v>
       </c>
       <c r="C8">
-        <v>11.3598314101661</v>
+        <v>7.343594129102986</v>
       </c>
       <c r="D8">
-        <v>7.03267308670714</v>
+        <v>10.99807335447419</v>
       </c>
       <c r="E8">
-        <v>7.209309570585037</v>
+        <v>11.3257674883915</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>25.31058865221985</v>
+        <v>25.28268835591114</v>
       </c>
       <c r="H8">
-        <v>8.821235381989849</v>
+        <v>2.639296496460764</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.932252343293741</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>9.864827521970168</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>15.00847097789137</v>
       </c>
       <c r="L8">
-        <v>7.052719164295039</v>
+        <v>5.704312049984885</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>10.59958248045639</v>
       </c>
       <c r="N8">
-        <v>11.66650271449695</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>15.07734493581996</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>12.03429969078612</v>
+      </c>
+      <c r="P8">
+        <v>13.10730387630205</v>
+      </c>
+      <c r="Q8">
+        <v>16.33508139660833</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.45426436309705</v>
+        <v>13.25718497654128</v>
       </c>
       <c r="C9">
-        <v>12.30360896248352</v>
+        <v>8.306591091874257</v>
       </c>
       <c r="D9">
-        <v>8.183268619367706</v>
+        <v>11.98152010989409</v>
       </c>
       <c r="E9">
-        <v>7.188314957522716</v>
+        <v>12.24760436906094</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>28.03781601503271</v>
+        <v>26.27800012262159</v>
       </c>
       <c r="H9">
-        <v>9.011996133959272</v>
+        <v>2.15797056572886</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.618277370624082</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>9.867326842040978</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>14.93904623744613</v>
       </c>
       <c r="L9">
-        <v>7.683868640043001</v>
+        <v>5.933264950233712</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>12.02483217629517</v>
       </c>
       <c r="N9">
-        <v>11.31846472565927</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>15.93904293181449</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>13.2925731389659</v>
+      </c>
+      <c r="P9">
+        <v>12.7912001015454</v>
+      </c>
+      <c r="Q9">
+        <v>16.55126514770941</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.66663768307507</v>
+        <v>14.37407206157546</v>
       </c>
       <c r="C10">
-        <v>12.95339639779136</v>
+        <v>8.947709602404315</v>
       </c>
       <c r="D10">
-        <v>8.949020123059533</v>
+        <v>12.55519263891695</v>
       </c>
       <c r="E10">
-        <v>7.202996243360421</v>
+        <v>12.69322712828727</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>30.04992050634803</v>
+        <v>26.86809155561906</v>
       </c>
       <c r="H10">
-        <v>9.191403049354806</v>
+        <v>1.859992350178851</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.552928804836825</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>9.853847915845122</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>14.85531470256035</v>
       </c>
       <c r="L10">
-        <v>8.13494141781646</v>
+        <v>6.032889477565647</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>12.95452980989254</v>
       </c>
       <c r="N10">
-        <v>11.08070679849772</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>16.63129399823914</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>14.03525035074734</v>
+      </c>
+      <c r="P10">
+        <v>12.56386436319033</v>
+      </c>
+      <c r="Q10">
+        <v>16.66378243702861</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.62010480456266</v>
+        <v>14.74981908984362</v>
       </c>
       <c r="C11">
-        <v>13.23879436457186</v>
+        <v>9.029406128294626</v>
       </c>
       <c r="D11">
-        <v>9.280610275669526</v>
+        <v>11.85402661204732</v>
       </c>
       <c r="E11">
-        <v>7.216856600840778</v>
+        <v>11.28860568361049</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>30.96423692833429</v>
+        <v>25.77334097024681</v>
       </c>
       <c r="H11">
-        <v>9.282082313744905</v>
+        <v>2.844068256467242</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.618327893240175</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>9.619622185658432</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>14.42608991737785</v>
       </c>
       <c r="L11">
-        <v>8.336704294220501</v>
+        <v>5.639297281883048</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>13.2223782617478</v>
       </c>
       <c r="N11">
-        <v>10.97662470940667</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>16.9586761360364</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>13.36671662783302</v>
+      </c>
+      <c r="P11">
+        <v>12.46045247158388</v>
+      </c>
+      <c r="Q11">
+        <v>16.14122811396344</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.97364287737201</v>
+        <v>14.85992127839119</v>
       </c>
       <c r="C12">
-        <v>13.34535228277128</v>
+        <v>8.93315090770168</v>
       </c>
       <c r="D12">
-        <v>9.403809091185938</v>
+        <v>11.1363062403015</v>
       </c>
       <c r="E12">
-        <v>7.223190879124573</v>
+        <v>10.0823274801826</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>31.31014801521433</v>
+        <v>24.7530110279672</v>
       </c>
       <c r="H12">
-        <v>9.317763862690164</v>
+        <v>4.213828085185034</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.6264964270632</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>9.430081847978704</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>14.10255656688678</v>
       </c>
       <c r="L12">
-        <v>8.412567211446431</v>
+        <v>5.405139328802246</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>13.2593130238156</v>
       </c>
       <c r="N12">
-        <v>10.93781696618058</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>17.08440781977745</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>12.63954332234892</v>
+      </c>
+      <c r="P12">
+        <v>12.43385190020063</v>
+      </c>
+      <c r="Q12">
+        <v>15.68943904605597</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.8978349928229</v>
+        <v>14.75754904857911</v>
       </c>
       <c r="C13">
-        <v>13.32247126339157</v>
+        <v>8.725095903760113</v>
       </c>
       <c r="D13">
-        <v>9.377380613499799</v>
+        <v>10.3484512437201</v>
       </c>
       <c r="E13">
-        <v>7.221777551590614</v>
+        <v>8.971616495170068</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>31.23566641104393</v>
+        <v>23.67094977805291</v>
       </c>
       <c r="H13">
-        <v>9.310018853232119</v>
+        <v>5.632904330431153</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.597125521288925</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>9.255459674759887</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>13.82008819296668</v>
       </c>
       <c r="L13">
-        <v>8.396253452308859</v>
+        <v>5.290042013860926</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>13.12218242380006</v>
       </c>
       <c r="N13">
-        <v>10.9461476090284</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>17.05725151751041</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>11.8067640903268</v>
+      </c>
+      <c r="P13">
+        <v>12.46073195230391</v>
+      </c>
+      <c r="Q13">
+        <v>15.24363051135406</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.64934073302926</v>
+        <v>14.58479498793795</v>
       </c>
       <c r="C14">
-        <v>13.24759158981813</v>
+        <v>8.533015940835114</v>
       </c>
       <c r="D14">
-        <v>9.290793110761792</v>
+        <v>9.76088838621572</v>
       </c>
       <c r="E14">
-        <v>7.217355664430164</v>
+        <v>8.277667794376338</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>30.9927025009886</v>
+        <v>22.87669969651364</v>
       </c>
       <c r="H14">
-        <v>9.2849907161425</v>
+        <v>6.640262722956177</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.561113692239986</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>9.139538628094925</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>13.63978514657878</v>
       </c>
       <c r="L14">
-        <v>8.342956645875701</v>
+        <v>5.284493072330902</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>12.94580741945976</v>
       </c>
       <c r="N14">
-        <v>10.97341970449139</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>16.96898508414727</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>11.16869763161887</v>
+      </c>
+      <c r="P14">
+        <v>12.50410285286303</v>
+      </c>
+      <c r="Q14">
+        <v>14.9325844377493</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.49615448471667</v>
+        <v>14.49152890008901</v>
       </c>
       <c r="C15">
-        <v>13.20152684713339</v>
+        <v>8.470018794961995</v>
       </c>
       <c r="D15">
-        <v>9.237448767689669</v>
+        <v>9.60271149733577</v>
       </c>
       <c r="E15">
-        <v>7.2147900862785</v>
+        <v>8.121501509953251</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>30.84383394579821</v>
+        <v>22.66207404264538</v>
       </c>
       <c r="H15">
-        <v>9.269836330424489</v>
+        <v>6.875381725744288</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.545980977675739</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>9.113341424053573</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>13.60069918620995</v>
       </c>
       <c r="L15">
-        <v>8.31023921809175</v>
+        <v>5.290994635932844</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>12.86483032579334</v>
       </c>
       <c r="N15">
-        <v>10.99020420098853</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>16.91514748418405</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>10.99029074087512</v>
+      </c>
+      <c r="P15">
+        <v>12.52448998999068</v>
+      </c>
+      <c r="Q15">
+        <v>14.85511146037196</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.603268890265</v>
+        <v>14.04203315110214</v>
       </c>
       <c r="C16">
-        <v>12.93453534572169</v>
+        <v>8.247560983239424</v>
       </c>
       <c r="D16">
-        <v>8.927016343950941</v>
+        <v>9.484791323986713</v>
       </c>
       <c r="E16">
-        <v>7.202239477388902</v>
+        <v>8.121944280718022</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>29.99013137093772</v>
+        <v>22.58593319650708</v>
       </c>
       <c r="H16">
-        <v>9.185662816550016</v>
+        <v>6.682474798839349</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.548103679376334</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>9.151328866589949</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>13.6870370102433</v>
       </c>
       <c r="L16">
-        <v>8.121682467170279</v>
+        <v>5.264045609891391</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>12.50264446809302</v>
       </c>
       <c r="N16">
-        <v>11.08759243620739</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>16.61014677504965</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>10.80305898997281</v>
+      </c>
+      <c r="P16">
+        <v>12.60816895156322</v>
+      </c>
+      <c r="Q16">
+        <v>14.88670430859148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.04201680404876</v>
+        <v>13.78510121374491</v>
       </c>
       <c r="C17">
-        <v>12.76809524290039</v>
+        <v>8.181789625354559</v>
       </c>
       <c r="D17">
-        <v>8.732314331336449</v>
+        <v>9.714474826308345</v>
       </c>
       <c r="E17">
-        <v>7.196417174937417</v>
+        <v>8.474039417287674</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>29.46601435758362</v>
+        <v>22.95495473229534</v>
       </c>
       <c r="H17">
-        <v>9.136376066365752</v>
+        <v>5.970200853737166</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.594382798405246</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>9.241927403261922</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>13.847740550013</v>
       </c>
       <c r="L17">
-        <v>8.0050937282251</v>
+        <v>5.234097663041621</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>12.31716814828185</v>
       </c>
       <c r="N17">
-        <v>11.14839384871423</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>16.42620793427991</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>11.00917063679775</v>
+      </c>
+      <c r="P17">
+        <v>12.65023981123161</v>
+      </c>
+      <c r="Q17">
+        <v>15.07642306212424</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.71420940455701</v>
+        <v>13.68319266886065</v>
       </c>
       <c r="C18">
-        <v>12.67140624169604</v>
+        <v>8.228148260884986</v>
       </c>
       <c r="D18">
-        <v>8.618747293769976</v>
+        <v>10.27327731351281</v>
       </c>
       <c r="E18">
-        <v>7.19374115481045</v>
+        <v>9.266458896979739</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>29.16446934902255</v>
+        <v>23.76897171827726</v>
       </c>
       <c r="H18">
-        <v>9.108878781390116</v>
+        <v>4.761218694755772</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.599055344170856</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>9.391579968342336</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>14.10242941968563</v>
       </c>
       <c r="L18">
-        <v>7.937714100799079</v>
+        <v>5.269743571620162</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>12.26845566263703</v>
       </c>
       <c r="N18">
-        <v>11.18374741244177</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>16.32158721189959</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>11.58005035910883</v>
+      </c>
+      <c r="P18">
+        <v>12.66618032184206</v>
+      </c>
+      <c r="Q18">
+        <v>15.43260131652093</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.60235955880997</v>
+        <v>13.69179950314797</v>
       </c>
       <c r="C19">
-        <v>12.63850631136426</v>
+        <v>8.404261778571462</v>
       </c>
       <c r="D19">
-        <v>8.580022899068691</v>
+        <v>11.05486058191738</v>
       </c>
       <c r="E19">
-        <v>7.192949043627841</v>
+        <v>10.45662723650216</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>29.06236271221273</v>
+        <v>24.82778474801817</v>
       </c>
       <c r="H19">
-        <v>9.099713614490925</v>
+        <v>3.353943597169027</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.58957162112074</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>9.570210295214308</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>14.39676592127747</v>
       </c>
       <c r="L19">
-        <v>7.914846981211617</v>
+        <v>5.456290948008846</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>12.33475585713754</v>
       </c>
       <c r="N19">
-        <v>11.19578261159271</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>16.28636752506324</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>12.39737694238653</v>
+      </c>
+      <c r="P19">
+        <v>12.66772797286392</v>
+      </c>
+      <c r="Q19">
+        <v>15.87705021666006</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.10227881788063</v>
+        <v>14.05085965934292</v>
       </c>
       <c r="C20">
-        <v>12.78591252025054</v>
+        <v>8.850594002625133</v>
       </c>
       <c r="D20">
-        <v>8.75320387578892</v>
+        <v>12.4010474437161</v>
       </c>
       <c r="E20">
-        <v>7.196966951730572</v>
+        <v>12.5680336256236</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>29.5218179315181</v>
+        <v>26.61270956886973</v>
       </c>
       <c r="H20">
-        <v>9.141534340266528</v>
+        <v>1.938036860162614</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.512639697042339</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>9.839502090721682</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>14.83167343459627</v>
       </c>
       <c r="L20">
-        <v>8.01753837472517</v>
+        <v>6.003490711728651</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>12.71622343212418</v>
       </c>
       <c r="N20">
-        <v>11.14188174473502</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>16.44566708469446</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>13.83897859815179</v>
+      </c>
+      <c r="P20">
+        <v>12.62076794277362</v>
+      </c>
+      <c r="Q20">
+        <v>16.59048017156183</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.72253281380016</v>
+        <v>14.88884706654997</v>
       </c>
       <c r="C21">
-        <v>13.26962706804193</v>
+        <v>9.35070031405019</v>
       </c>
       <c r="D21">
-        <v>9.31628985952308</v>
+        <v>13.00063034960546</v>
       </c>
       <c r="E21">
-        <v>7.218624593730348</v>
+        <v>13.19406920011071</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>31.06407675168656</v>
+        <v>27.33176239695582</v>
       </c>
       <c r="H21">
-        <v>9.2923053261009</v>
+        <v>1.665689353962065</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.671777851457916</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>9.876729301019676</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>14.84970603057224</v>
       </c>
       <c r="L21">
-        <v>8.358626200829692</v>
+        <v>6.169855521921304</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>13.42160644368077</v>
       </c>
       <c r="N21">
-        <v>10.96539261051552</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>16.99486358673819</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>14.56612920822925</v>
+      </c>
+      <c r="P21">
+        <v>12.45115589932286</v>
+      </c>
+      <c r="Q21">
+        <v>16.79365319575344</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.73768141858773</v>
+        <v>15.42053493409186</v>
       </c>
       <c r="C22">
-        <v>13.57690835692296</v>
+        <v>9.627937874761884</v>
       </c>
       <c r="D22">
-        <v>9.67052225391018</v>
+        <v>13.32736913098187</v>
       </c>
       <c r="E22">
-        <v>7.239131684283066</v>
+        <v>13.49698343998238</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>32.07011673981616</v>
+        <v>27.76375153099211</v>
       </c>
       <c r="H22">
-        <v>9.398689456583774</v>
+        <v>1.613304641520641</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.766987978498422</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>9.897082738079723</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>14.86060508610086</v>
       </c>
       <c r="L22">
-        <v>8.578382207593775</v>
+        <v>6.246675494839776</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>13.85599211005555</v>
       </c>
       <c r="N22">
-        <v>10.85359000083839</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>17.36403654111404</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>14.96847841696166</v>
+      </c>
+      <c r="P22">
+        <v>12.34140840496641</v>
+      </c>
+      <c r="Q22">
+        <v>16.91418907571218</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.19985106036737</v>
+        <v>15.1529445971757</v>
       </c>
       <c r="C23">
-        <v>13.41373103671388</v>
+        <v>9.456098813408911</v>
       </c>
       <c r="D23">
-        <v>9.482707957135441</v>
+        <v>13.15398397307854</v>
       </c>
       <c r="E23">
-        <v>7.22758793277899</v>
+        <v>13.33657445741576</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>31.53339477525627</v>
+        <v>27.56659856730631</v>
       </c>
       <c r="H23">
-        <v>9.341179753163946</v>
+        <v>1.590508311689</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.711261543207493</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>9.891948077300029</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>14.8705105227366</v>
       </c>
       <c r="L23">
-        <v>8.461396946548669</v>
+        <v>6.20616685103704</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>13.62595701696187</v>
       </c>
       <c r="N23">
-        <v>10.91292949919735</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>17.16607512508759</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>14.75497289695702</v>
+      </c>
+      <c r="P23">
+        <v>12.40064355306725</v>
+      </c>
+      <c r="Q23">
+        <v>16.86405681614303</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.07505036639644</v>
+        <v>14.06721561849383</v>
       </c>
       <c r="C24">
-        <v>12.77786044117336</v>
+        <v>8.824065734548048</v>
       </c>
       <c r="D24">
-        <v>8.7437647937859</v>
+        <v>12.48043647583023</v>
       </c>
       <c r="E24">
-        <v>7.196716310705768</v>
+        <v>12.7116730390895</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>29.4965898167873</v>
+        <v>26.77604974598192</v>
       </c>
       <c r="H24">
-        <v>9.139199676462873</v>
+        <v>1.916950817808575</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.504354785435487</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>9.868515763718015</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>14.8904734318056</v>
       </c>
       <c r="L24">
-        <v>8.011913240327321</v>
+        <v>6.048890149528478</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>12.71709803877442</v>
       </c>
       <c r="N24">
-        <v>11.14482462865629</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>16.43686608610813</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>13.919511420392</v>
+      </c>
+      <c r="P24">
+        <v>12.62595204014555</v>
+      </c>
+      <c r="Q24">
+        <v>16.66124368037557</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.59196681618164</v>
+        <v>12.78818009152745</v>
       </c>
       <c r="C25">
-        <v>12.05566579449083</v>
+        <v>8.097883467287373</v>
       </c>
       <c r="D25">
-        <v>7.88614721320435</v>
+        <v>11.72129317701228</v>
       </c>
       <c r="E25">
-        <v>7.188924524860053</v>
+        <v>12.00409880301395</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>27.29741177518212</v>
+        <v>25.94900448837861</v>
       </c>
       <c r="H25">
-        <v>8.953687949731538</v>
+        <v>2.285342001786642</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.717842884921833</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>9.855118656840135</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>14.92995856973678</v>
       </c>
       <c r="L25">
-        <v>7.515075617808032</v>
+        <v>5.872280544191431</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>11.65689691015102</v>
       </c>
       <c r="N25">
-        <v>11.40952051873644</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>15.69541296287522</v>
+        <v>12.96346132137127</v>
+      </c>
+      <c r="P25">
+        <v>12.87391462742827</v>
+      </c>
+      <c r="Q25">
+        <v>16.46539488305618</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_53/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_53/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.79418975699683</v>
+        <v>11.62306002676307</v>
       </c>
       <c r="C2">
-        <v>7.452468164842879</v>
+        <v>7.694881895579181</v>
       </c>
       <c r="D2">
-        <v>11.13817711735388</v>
+        <v>11.15404158402701</v>
       </c>
       <c r="E2">
-        <v>11.45809897394414</v>
+        <v>11.49226758248743</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>25.45324285067501</v>
+        <v>24.23720759512678</v>
       </c>
       <c r="H2">
-        <v>2.569451912073784</v>
+        <v>2.524778191913231</v>
       </c>
       <c r="I2">
-        <v>2.87598192996318</v>
+        <v>2.770831926016696</v>
       </c>
       <c r="J2">
-        <v>9.869795058916973</v>
+        <v>9.995784484554369</v>
       </c>
       <c r="K2">
-        <v>15.0130792547537</v>
+        <v>14.50776866062707</v>
       </c>
       <c r="L2">
-        <v>5.737363610158086</v>
+        <v>12.19181970131617</v>
       </c>
       <c r="M2">
-        <v>10.80829180688285</v>
+        <v>9.266098754700522</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>5.759956661486462</v>
       </c>
       <c r="O2">
-        <v>12.21533757528139</v>
+        <v>10.82340049619152</v>
       </c>
       <c r="P2">
-        <v>13.0640404564681</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>16.37732756482267</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>12.22722042813292</v>
+      </c>
+      <c r="R2">
+        <v>12.9477919917344</v>
+      </c>
+      <c r="S2">
+        <v>16.01343531127429</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.03959064468919</v>
+        <v>10.91919946087242</v>
       </c>
       <c r="C3">
-        <v>7.030778927131744</v>
+        <v>7.179616303861767</v>
       </c>
       <c r="D3">
-        <v>10.72909205438128</v>
+        <v>10.7487756981286</v>
       </c>
       <c r="E3">
-        <v>11.07212923934313</v>
+        <v>11.11442675911912</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>25.08271634745564</v>
+        <v>23.96852221458651</v>
       </c>
       <c r="H3">
-        <v>2.772426443142479</v>
+        <v>2.719653084259581</v>
       </c>
       <c r="I3">
-        <v>3.006078859480801</v>
+        <v>2.886522867572163</v>
       </c>
       <c r="J3">
-        <v>9.876895593438826</v>
+        <v>9.980652386453722</v>
       </c>
       <c r="K3">
-        <v>15.05495528029155</v>
+        <v>14.57228454098165</v>
       </c>
       <c r="L3">
-        <v>5.64180773487448</v>
+        <v>12.32652119492079</v>
       </c>
       <c r="M3">
-        <v>10.1909484426782</v>
+        <v>9.255049141745348</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>5.66919374811536</v>
       </c>
       <c r="O3">
-        <v>11.68290637010492</v>
+        <v>10.20973263178823</v>
       </c>
       <c r="P3">
-        <v>13.19455506622264</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>16.30771745476445</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>11.69475600389788</v>
+      </c>
+      <c r="R3">
+        <v>13.07050803346566</v>
+      </c>
+      <c r="S3">
+        <v>15.96910452415168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.54639340005538</v>
+        <v>10.45932924358912</v>
       </c>
       <c r="C4">
-        <v>6.761825976385801</v>
+        <v>6.849517678998073</v>
       </c>
       <c r="D4">
-        <v>10.47203244259832</v>
+        <v>10.49427100381121</v>
       </c>
       <c r="E4">
-        <v>10.82822496639367</v>
+        <v>10.87591942779134</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>24.86158646547043</v>
+        <v>23.81174805670514</v>
       </c>
       <c r="H4">
-        <v>2.901850820498893</v>
+        <v>2.843954962087202</v>
       </c>
       <c r="I4">
-        <v>3.089835542157167</v>
+        <v>2.961339336313051</v>
       </c>
       <c r="J4">
-        <v>9.883699001580707</v>
+        <v>9.972173204384006</v>
       </c>
       <c r="K4">
-        <v>15.08391109629157</v>
+        <v>14.61409313255275</v>
       </c>
       <c r="L4">
-        <v>5.58137964578258</v>
+        <v>12.41103004283365</v>
       </c>
       <c r="M4">
-        <v>9.791406491926749</v>
+        <v>9.265504466974832</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>5.611839422556914</v>
       </c>
       <c r="O4">
-        <v>11.34432179536064</v>
+        <v>9.812623924131572</v>
       </c>
       <c r="P4">
-        <v>13.27622406007109</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>16.26971290188387</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>11.35605470546302</v>
+      </c>
+      <c r="R4">
+        <v>13.14751384903376</v>
+      </c>
+      <c r="S4">
+        <v>15.94572948503125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.33294985492988</v>
+        <v>10.26008223588325</v>
       </c>
       <c r="C5">
-        <v>6.658240760902253</v>
+        <v>6.72067855053608</v>
       </c>
       <c r="D5">
-        <v>10.365846726179</v>
+        <v>10.38918297860728</v>
       </c>
       <c r="E5">
-        <v>10.72700077929582</v>
+        <v>10.77700307981486</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>24.76348639424274</v>
+        <v>23.74026936284403</v>
       </c>
       <c r="H5">
-        <v>2.956019866432753</v>
+        <v>2.895990902211091</v>
       </c>
       <c r="I5">
-        <v>3.127759679384169</v>
+        <v>2.996090121929031</v>
       </c>
       <c r="J5">
-        <v>9.885495772941889</v>
+        <v>9.967305571380987</v>
       </c>
       <c r="K5">
-        <v>15.09232665426173</v>
+        <v>14.62757617581512</v>
       </c>
       <c r="L5">
-        <v>5.556201513844218</v>
+        <v>12.44197120961462</v>
       </c>
       <c r="M5">
-        <v>9.623460521138064</v>
+        <v>9.271913398475817</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>5.587950876843051</v>
       </c>
       <c r="O5">
-        <v>11.20357858119117</v>
+        <v>9.645723584681853</v>
       </c>
       <c r="P5">
-        <v>13.30951188818015</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>16.25143908736284</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>11.21524021046731</v>
+      </c>
+      <c r="R5">
+        <v>13.17899282404691</v>
+      </c>
+      <c r="S5">
+        <v>15.93320908829033</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.29101042800263</v>
+        <v>10.22060242260975</v>
       </c>
       <c r="C6">
-        <v>6.651297943519179</v>
+        <v>6.710207949899027</v>
       </c>
       <c r="D6">
-        <v>10.34802845493678</v>
+        <v>10.37155383159254</v>
       </c>
       <c r="E6">
-        <v>10.70986532787827</v>
+        <v>10.760264519473</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>24.73550870616675</v>
+        <v>23.71673738631583</v>
       </c>
       <c r="H6">
-        <v>2.965341629786991</v>
+        <v>2.904947476578169</v>
       </c>
       <c r="I6">
-        <v>3.137733498598013</v>
+        <v>3.006188004912786</v>
       </c>
       <c r="J6">
-        <v>9.8838995428099</v>
+        <v>9.964535065595717</v>
       </c>
       <c r="K6">
-        <v>15.08866056122333</v>
+        <v>14.62484666879467</v>
       </c>
       <c r="L6">
-        <v>5.551851782465414</v>
+        <v>12.44231393903208</v>
       </c>
       <c r="M6">
-        <v>9.595226013974276</v>
+        <v>9.270568679899013</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>5.58382233163864</v>
       </c>
       <c r="O6">
-        <v>11.18005933096329</v>
+        <v>9.617671738646953</v>
       </c>
       <c r="P6">
-        <v>13.3145944954432</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>16.24363299742704</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>11.19170726126005</v>
+      </c>
+      <c r="R6">
+        <v>13.18385407906234</v>
+      </c>
+      <c r="S6">
+        <v>15.92636866054846</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.52742303283613</v>
+        <v>10.43806321640606</v>
       </c>
       <c r="C7">
-        <v>6.788285112642223</v>
+        <v>6.870460272834116</v>
       </c>
       <c r="D7">
-        <v>10.47031516340464</v>
+        <v>10.49271640516854</v>
       </c>
       <c r="E7">
-        <v>10.82625204659641</v>
+        <v>10.87414617289479</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>24.82823218282543</v>
+        <v>23.85283659139312</v>
       </c>
       <c r="H7">
-        <v>2.903255147267072</v>
+        <v>2.845817334313793</v>
       </c>
       <c r="I7">
-        <v>3.099906273701855</v>
+        <v>2.9735473434952</v>
       </c>
       <c r="J7">
-        <v>9.878460787356424</v>
+        <v>9.933140564112948</v>
       </c>
       <c r="K7">
-        <v>15.07007718644719</v>
+        <v>14.59568843315934</v>
       </c>
       <c r="L7">
-        <v>5.580659830061141</v>
+        <v>12.39392436696012</v>
       </c>
       <c r="M7">
-        <v>9.789052308810701</v>
+        <v>9.255115021969802</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>5.611052452224623</v>
       </c>
       <c r="O7">
-        <v>11.34247006976303</v>
+        <v>9.806363962637505</v>
       </c>
       <c r="P7">
-        <v>13.2754382344826</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>16.25627710144663</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>11.35208093844849</v>
+      </c>
+      <c r="R7">
+        <v>13.14653626522183</v>
+      </c>
+      <c r="S7">
+        <v>15.9241827890715</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.520465537475</v>
+        <v>11.35839342585301</v>
       </c>
       <c r="C8">
-        <v>7.343594129102986</v>
+        <v>7.534873205638627</v>
       </c>
       <c r="D8">
-        <v>10.99807335447419</v>
+        <v>11.01571018818512</v>
       </c>
       <c r="E8">
-        <v>11.3257674883915</v>
+        <v>11.36325873446374</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>25.28268835591114</v>
+        <v>24.34531269952512</v>
       </c>
       <c r="H8">
-        <v>2.639296496460764</v>
+        <v>2.593400085642037</v>
       </c>
       <c r="I8">
-        <v>2.932252343293741</v>
+        <v>2.825785054524895</v>
       </c>
       <c r="J8">
-        <v>9.864827521970168</v>
+        <v>9.873876223926223</v>
       </c>
       <c r="K8">
-        <v>15.00847097789137</v>
+        <v>14.49547089646863</v>
       </c>
       <c r="L8">
-        <v>5.704312049984885</v>
+        <v>12.20828947064403</v>
       </c>
       <c r="M8">
-        <v>10.59958248045639</v>
+        <v>9.236296610102025</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>5.728288830115198</v>
       </c>
       <c r="O8">
-        <v>12.03429969078612</v>
+        <v>10.60374214345655</v>
       </c>
       <c r="P8">
-        <v>13.10730387630205</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>16.33508139660833</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>12.03950188200149</v>
+      </c>
+      <c r="R8">
+        <v>12.98770507709315</v>
+      </c>
+      <c r="S8">
+        <v>15.953076904652</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.25718497654128</v>
+        <v>12.97878663067558</v>
       </c>
       <c r="C9">
-        <v>8.306591091874257</v>
+        <v>8.705986598067966</v>
       </c>
       <c r="D9">
-        <v>11.98152010989409</v>
+        <v>11.99088173934621</v>
       </c>
       <c r="E9">
-        <v>12.24760436906094</v>
+        <v>12.26725593568608</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>26.27800012262159</v>
+        <v>25.1575497753811</v>
       </c>
       <c r="H9">
-        <v>2.15797056572886</v>
+        <v>2.131769971573454</v>
       </c>
       <c r="I9">
-        <v>2.618277370624082</v>
+        <v>2.545660694481511</v>
       </c>
       <c r="J9">
-        <v>9.867326842040978</v>
+        <v>9.89336258617864</v>
       </c>
       <c r="K9">
-        <v>14.93904623744613</v>
+        <v>14.35899269227875</v>
       </c>
       <c r="L9">
-        <v>5.933264950233712</v>
+        <v>11.89571030610065</v>
       </c>
       <c r="M9">
-        <v>12.02483217629517</v>
+        <v>9.362353895331553</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>5.946018631403611</v>
       </c>
       <c r="O9">
-        <v>13.2925731389659</v>
+        <v>12.01885202003357</v>
       </c>
       <c r="P9">
-        <v>12.7912001015454</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>16.55126514770941</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>13.29616089485011</v>
+      </c>
+      <c r="R9">
+        <v>12.69190765234665</v>
+      </c>
+      <c r="S9">
+        <v>16.09442982089852</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.37407206157546</v>
+        <v>14.01176233001538</v>
       </c>
       <c r="C10">
-        <v>8.947709602404315</v>
+        <v>9.44395918305537</v>
       </c>
       <c r="D10">
-        <v>12.55519263891695</v>
+        <v>12.56038521449375</v>
       </c>
       <c r="E10">
-        <v>12.69322712828727</v>
+        <v>12.70314200715262</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>26.86809155561906</v>
+        <v>26.04433020300448</v>
       </c>
       <c r="H10">
-        <v>1.859992350178851</v>
+        <v>1.849674522220932</v>
       </c>
       <c r="I10">
-        <v>2.552928804836825</v>
+        <v>2.60770596267681</v>
       </c>
       <c r="J10">
-        <v>9.853847915845122</v>
+        <v>9.704362919742634</v>
       </c>
       <c r="K10">
-        <v>14.85531470256035</v>
+        <v>14.19928687365019</v>
       </c>
       <c r="L10">
-        <v>6.032889477565647</v>
+        <v>11.62416679430617</v>
       </c>
       <c r="M10">
-        <v>12.95452980989254</v>
+        <v>9.475499710415731</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>6.037971618717006</v>
       </c>
       <c r="O10">
-        <v>14.03525035074734</v>
+        <v>12.92378604047425</v>
       </c>
       <c r="P10">
-        <v>12.56386436319033</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>16.66378243702861</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>14.02698180884232</v>
+      </c>
+      <c r="R10">
+        <v>12.48216889009659</v>
+      </c>
+      <c r="S10">
+        <v>16.1070441138691</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.74981908984362</v>
+        <v>14.36371334610328</v>
       </c>
       <c r="C11">
-        <v>9.029406128294626</v>
+        <v>9.45029605373132</v>
       </c>
       <c r="D11">
-        <v>11.85402661204732</v>
+        <v>11.85999581957448</v>
       </c>
       <c r="E11">
-        <v>11.28860568361049</v>
+        <v>11.29802914221882</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>25.77334097024681</v>
+        <v>25.8561833730117</v>
       </c>
       <c r="H11">
-        <v>2.844068256467242</v>
+        <v>2.842496374525415</v>
       </c>
       <c r="I11">
-        <v>2.618327893240175</v>
+        <v>2.665491166148439</v>
       </c>
       <c r="J11">
-        <v>9.619622185658432</v>
+        <v>9.15684529927128</v>
       </c>
       <c r="K11">
-        <v>14.42608991737785</v>
+        <v>13.74713376437288</v>
       </c>
       <c r="L11">
-        <v>5.639297281883048</v>
+        <v>11.24662139581683</v>
       </c>
       <c r="M11">
-        <v>13.2223782617478</v>
+        <v>9.208163765216678</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>5.641170975998762</v>
       </c>
       <c r="O11">
-        <v>13.36671662783302</v>
+        <v>13.15114430394847</v>
       </c>
       <c r="P11">
-        <v>12.46045247158388</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>16.14122811396344</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>13.33644609172052</v>
+      </c>
+      <c r="R11">
+        <v>12.40814775376269</v>
+      </c>
+      <c r="S11">
+        <v>15.50806342673622</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.85992127839119</v>
+        <v>14.47804280570479</v>
       </c>
       <c r="C12">
-        <v>8.93315090770168</v>
+        <v>9.288001691056401</v>
       </c>
       <c r="D12">
-        <v>11.1363062403015</v>
+        <v>11.14306135857222</v>
       </c>
       <c r="E12">
-        <v>10.0823274801826</v>
+        <v>10.09141457894841</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>24.7530110279672</v>
+        <v>25.27618499620568</v>
       </c>
       <c r="H12">
-        <v>4.213828085185034</v>
+        <v>4.213755913395093</v>
       </c>
       <c r="I12">
-        <v>2.6264964270632</v>
+        <v>2.671142742810791</v>
       </c>
       <c r="J12">
-        <v>9.430081847978704</v>
+        <v>8.877456470463041</v>
       </c>
       <c r="K12">
-        <v>14.10255656688678</v>
+        <v>13.4401228910733</v>
       </c>
       <c r="L12">
-        <v>5.405139328802246</v>
+        <v>11.02171784229484</v>
       </c>
       <c r="M12">
-        <v>13.2593130238156</v>
+        <v>8.981127916925573</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>5.405137785572854</v>
       </c>
       <c r="O12">
-        <v>12.63954332234892</v>
+        <v>13.16975454145952</v>
       </c>
       <c r="P12">
-        <v>12.43385190020063</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>15.68943904605597</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>12.5997074066643</v>
+      </c>
+      <c r="R12">
+        <v>12.40344532386734</v>
+      </c>
+      <c r="S12">
+        <v>15.04489325789898</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.75754904857911</v>
+        <v>14.40711865569093</v>
       </c>
       <c r="C13">
-        <v>8.725095903760113</v>
+        <v>9.029781680613132</v>
       </c>
       <c r="D13">
-        <v>10.3484512437201</v>
+        <v>10.35564766988983</v>
       </c>
       <c r="E13">
-        <v>8.971616495170068</v>
+        <v>8.980947667646051</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>23.67094977805291</v>
+        <v>24.1203648682544</v>
       </c>
       <c r="H13">
-        <v>5.632904330431153</v>
+        <v>5.631876500058348</v>
       </c>
       <c r="I13">
-        <v>2.597125521288925</v>
+        <v>2.64534287461773</v>
       </c>
       <c r="J13">
-        <v>9.255459674759887</v>
+        <v>8.794623526017601</v>
       </c>
       <c r="K13">
-        <v>13.82008819296668</v>
+        <v>13.21425407471683</v>
       </c>
       <c r="L13">
-        <v>5.290042013860926</v>
+        <v>10.88005442221526</v>
       </c>
       <c r="M13">
-        <v>13.12218242380006</v>
+        <v>8.767595162113412</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.290203588621582</v>
       </c>
       <c r="O13">
-        <v>11.8067640903268</v>
+        <v>13.03754880046979</v>
       </c>
       <c r="P13">
-        <v>12.46073195230391</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>15.24363051135406</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>11.77025322259222</v>
+      </c>
+      <c r="R13">
+        <v>12.44324347806465</v>
+      </c>
+      <c r="S13">
+        <v>14.65404946539685</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.58479498793795</v>
+        <v>14.26897183834818</v>
       </c>
       <c r="C14">
-        <v>8.533015940835114</v>
+        <v>8.808474843482159</v>
       </c>
       <c r="D14">
-        <v>9.76088838621572</v>
+        <v>9.768340046508785</v>
       </c>
       <c r="E14">
-        <v>8.277667794376338</v>
+        <v>8.288255539302771</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>22.87669969651364</v>
+        <v>23.05732903134086</v>
       </c>
       <c r="H14">
-        <v>6.640262722956177</v>
+        <v>6.638091091018425</v>
       </c>
       <c r="I14">
-        <v>2.561113692239986</v>
+        <v>2.614896423739021</v>
       </c>
       <c r="J14">
-        <v>9.139538628094925</v>
+        <v>8.808710195611035</v>
       </c>
       <c r="K14">
-        <v>13.63978514657878</v>
+        <v>13.08870985144992</v>
       </c>
       <c r="L14">
-        <v>5.284493072330902</v>
+        <v>10.81189664672503</v>
       </c>
       <c r="M14">
-        <v>12.94580741945976</v>
+        <v>8.624267123649476</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.286124889708224</v>
       </c>
       <c r="O14">
-        <v>11.16869763161887</v>
+        <v>12.8748794469304</v>
       </c>
       <c r="P14">
-        <v>12.50410285286303</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>14.9325844377493</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>11.13996070312737</v>
+      </c>
+      <c r="R14">
+        <v>12.48988798263383</v>
+      </c>
+      <c r="S14">
+        <v>14.40825794819918</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.49152890008901</v>
+        <v>14.18974409521745</v>
       </c>
       <c r="C15">
-        <v>8.470018794961995</v>
+        <v>8.740916736015153</v>
       </c>
       <c r="D15">
-        <v>9.60271149733577</v>
+        <v>9.610256635658027</v>
       </c>
       <c r="E15">
-        <v>8.121501509953251</v>
+        <v>8.133111191405638</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>22.66207404264538</v>
+        <v>22.68768501784221</v>
       </c>
       <c r="H15">
-        <v>6.875381725744288</v>
+        <v>6.872640818117317</v>
       </c>
       <c r="I15">
-        <v>2.545980977675739</v>
+        <v>2.602942792119026</v>
       </c>
       <c r="J15">
-        <v>9.113341424053573</v>
+        <v>8.842673975233772</v>
       </c>
       <c r="K15">
-        <v>13.60069918620995</v>
+        <v>13.06949278790462</v>
       </c>
       <c r="L15">
-        <v>5.290994635932844</v>
+        <v>10.80661762974185</v>
       </c>
       <c r="M15">
-        <v>12.86483032579334</v>
+        <v>8.589707161132079</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.293653987499073</v>
       </c>
       <c r="O15">
-        <v>10.99029074087512</v>
+        <v>12.80169559608126</v>
       </c>
       <c r="P15">
-        <v>12.52448998999068</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>14.85511146037196</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>10.96573629076269</v>
+      </c>
+      <c r="R15">
+        <v>12.50875842192757</v>
+      </c>
+      <c r="S15">
+        <v>14.35790619453359</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.04203315110214</v>
+        <v>13.78903772091267</v>
       </c>
       <c r="C16">
-        <v>8.247560983239424</v>
+        <v>8.533130210910112</v>
       </c>
       <c r="D16">
-        <v>9.484791323986713</v>
+        <v>9.492906273432231</v>
       </c>
       <c r="E16">
-        <v>8.121944280718022</v>
+        <v>8.139782545465335</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>22.58593319650708</v>
+        <v>21.89227556998499</v>
       </c>
       <c r="H16">
-        <v>6.682474798839349</v>
+        <v>6.676383937696433</v>
       </c>
       <c r="I16">
-        <v>2.548103679376334</v>
+        <v>2.536543548614343</v>
       </c>
       <c r="J16">
-        <v>9.151328866589949</v>
+        <v>9.133568103391996</v>
       </c>
       <c r="K16">
-        <v>13.6870370102433</v>
+        <v>13.20893015858723</v>
       </c>
       <c r="L16">
-        <v>5.264045609891391</v>
+        <v>10.93872731875092</v>
       </c>
       <c r="M16">
-        <v>12.50264446809302</v>
+        <v>8.62162179382028</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.272472862362817</v>
       </c>
       <c r="O16">
-        <v>10.80305898997281</v>
+        <v>12.47678688129633</v>
       </c>
       <c r="P16">
-        <v>12.60816895156322</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>14.88670430859148</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>10.79751534630931</v>
+      </c>
+      <c r="R16">
+        <v>12.57298786830909</v>
+      </c>
+      <c r="S16">
+        <v>14.48270654568744</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.78510121374491</v>
+        <v>13.54765959510812</v>
       </c>
       <c r="C17">
-        <v>8.181789625354559</v>
+        <v>8.487094971565975</v>
       </c>
       <c r="D17">
-        <v>9.714474826308345</v>
+        <v>9.723032550794581</v>
       </c>
       <c r="E17">
-        <v>8.474039417287674</v>
+        <v>8.494729697870246</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>22.95495473229534</v>
+        <v>21.9533856242866</v>
       </c>
       <c r="H17">
-        <v>5.970200853737166</v>
+        <v>5.961465513441534</v>
       </c>
       <c r="I17">
-        <v>2.594382798405246</v>
+        <v>2.536074401603177</v>
       </c>
       <c r="J17">
-        <v>9.241927403261922</v>
+        <v>9.331821343508828</v>
       </c>
       <c r="K17">
-        <v>13.847740550013</v>
+        <v>13.37796034099376</v>
       </c>
       <c r="L17">
-        <v>5.234097663041621</v>
+        <v>11.08046321818889</v>
       </c>
       <c r="M17">
-        <v>12.31716814828185</v>
+        <v>8.714490239307649</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.245453768214976</v>
       </c>
       <c r="O17">
-        <v>11.00917063679775</v>
+        <v>12.3078654265896</v>
       </c>
       <c r="P17">
-        <v>12.65023981123161</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>15.07642306212424</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>11.01178535662265</v>
+      </c>
+      <c r="R17">
+        <v>12.60186131769991</v>
+      </c>
+      <c r="S17">
+        <v>14.70066112268332</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.68319266886065</v>
+        <v>13.43816503418464</v>
       </c>
       <c r="C18">
-        <v>8.228148260884986</v>
+        <v>8.570658903180703</v>
       </c>
       <c r="D18">
-        <v>10.27327731351281</v>
+        <v>10.28171545875933</v>
       </c>
       <c r="E18">
-        <v>9.266458896979739</v>
+        <v>9.286812337073995</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>23.76897171827726</v>
+        <v>22.60909629863699</v>
       </c>
       <c r="H18">
-        <v>4.761218694755772</v>
+        <v>4.749589121583004</v>
       </c>
       <c r="I18">
-        <v>2.599055344170856</v>
+        <v>2.536946574911759</v>
       </c>
       <c r="J18">
-        <v>9.391579968342336</v>
+        <v>9.519264505676629</v>
       </c>
       <c r="K18">
-        <v>14.10242941968563</v>
+        <v>13.61275872241948</v>
       </c>
       <c r="L18">
-        <v>5.269743571620162</v>
+        <v>11.26350198586352</v>
       </c>
       <c r="M18">
-        <v>12.26845566263703</v>
+        <v>8.881283758594121</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.282021034193463</v>
       </c>
       <c r="O18">
-        <v>11.58005035910883</v>
+        <v>12.26609753799418</v>
       </c>
       <c r="P18">
-        <v>12.66618032184206</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>15.43260131652093</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>11.58616429135527</v>
+      </c>
+      <c r="R18">
+        <v>12.60599034202312</v>
+      </c>
+      <c r="S18">
+        <v>15.04960939631413</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.69179950314797</v>
+        <v>13.4233330797289</v>
       </c>
       <c r="C19">
-        <v>8.404261778571462</v>
+        <v>8.801639679262822</v>
       </c>
       <c r="D19">
-        <v>11.05486058191738</v>
+        <v>11.06261794524468</v>
       </c>
       <c r="E19">
-        <v>10.45662723650216</v>
+        <v>10.47446685362423</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>24.82778474801817</v>
+        <v>23.5772486822902</v>
       </c>
       <c r="H19">
-        <v>3.353943597169027</v>
+        <v>3.338583427706171</v>
       </c>
       <c r="I19">
-        <v>2.58957162112074</v>
+        <v>2.529937258330798</v>
       </c>
       <c r="J19">
-        <v>9.570210295214308</v>
+        <v>9.697639802096905</v>
       </c>
       <c r="K19">
-        <v>14.39676592127747</v>
+        <v>13.8700566198005</v>
       </c>
       <c r="L19">
-        <v>5.456290948008846</v>
+        <v>11.45659145240406</v>
       </c>
       <c r="M19">
-        <v>12.33475585713754</v>
+        <v>9.082639819486424</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>5.467790063941996</v>
       </c>
       <c r="O19">
-        <v>12.39737694238653</v>
+        <v>12.33388065154266</v>
       </c>
       <c r="P19">
-        <v>12.66772797286392</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>15.87705021666006</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>12.40446561176101</v>
+      </c>
+      <c r="R19">
+        <v>12.59639973008146</v>
+      </c>
+      <c r="S19">
+        <v>15.46553041189383</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.05085965934292</v>
+        <v>13.71775558280549</v>
       </c>
       <c r="C20">
-        <v>8.850594002625133</v>
+        <v>9.345054864838138</v>
       </c>
       <c r="D20">
-        <v>12.4010474437161</v>
+        <v>12.40676551262703</v>
       </c>
       <c r="E20">
-        <v>12.5680336256236</v>
+        <v>12.57973308746481</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>26.61270956886973</v>
+        <v>25.45637341953282</v>
       </c>
       <c r="H20">
-        <v>1.938036860162614</v>
+        <v>1.922091252208638</v>
       </c>
       <c r="I20">
-        <v>2.512639697042339</v>
+        <v>2.578296300394408</v>
       </c>
       <c r="J20">
-        <v>9.839502090721682</v>
+        <v>9.849416950392548</v>
       </c>
       <c r="K20">
-        <v>14.83167343459627</v>
+        <v>14.21562851681928</v>
       </c>
       <c r="L20">
-        <v>6.003490711728651</v>
+        <v>11.67649532290486</v>
       </c>
       <c r="M20">
-        <v>12.71622343212418</v>
+        <v>9.42076425410986</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>6.01076210041617</v>
       </c>
       <c r="O20">
-        <v>13.83897859815179</v>
+        <v>12.70308522248946</v>
       </c>
       <c r="P20">
-        <v>12.62076794277362</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>16.59048017156183</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>13.84014896043469</v>
+      </c>
+      <c r="R20">
+        <v>12.53590872084091</v>
+      </c>
+      <c r="S20">
+        <v>16.08970472891137</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.88884706654997</v>
+        <v>14.45098491417797</v>
       </c>
       <c r="C21">
-        <v>9.35070031405019</v>
+        <v>9.825443375391394</v>
       </c>
       <c r="D21">
-        <v>13.00063034960546</v>
+        <v>13.00628295509889</v>
       </c>
       <c r="E21">
-        <v>13.19406920011071</v>
+        <v>13.20287542883678</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>27.33176239695582</v>
+        <v>27.74403091002592</v>
       </c>
       <c r="H21">
-        <v>1.665689353962065</v>
+        <v>1.669047917074077</v>
       </c>
       <c r="I21">
-        <v>2.671777851457916</v>
+        <v>2.712694908170051</v>
       </c>
       <c r="J21">
-        <v>9.876729301019676</v>
+        <v>9.201332175658878</v>
       </c>
       <c r="K21">
-        <v>14.84970603057224</v>
+        <v>14.07281774746231</v>
       </c>
       <c r="L21">
-        <v>6.169855521921304</v>
+        <v>11.46030729790664</v>
       </c>
       <c r="M21">
-        <v>13.42160644368077</v>
+        <v>9.505713440859267</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>6.170805039881804</v>
       </c>
       <c r="O21">
-        <v>14.56612920822925</v>
+        <v>13.33289678386542</v>
       </c>
       <c r="P21">
-        <v>12.45115589932286</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>16.79365319575344</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>14.52546800752263</v>
+      </c>
+      <c r="R21">
+        <v>12.37662353236491</v>
+      </c>
+      <c r="S21">
+        <v>16.05633071823836</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.42053493409186</v>
+        <v>14.91651073025585</v>
       </c>
       <c r="C22">
-        <v>9.627937874761884</v>
+        <v>10.07900429468337</v>
       </c>
       <c r="D22">
-        <v>13.32736913098187</v>
+        <v>13.33360661011771</v>
       </c>
       <c r="E22">
-        <v>13.49698343998238</v>
+        <v>13.50526745640389</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>27.76375153099211</v>
+        <v>29.32760634061435</v>
       </c>
       <c r="H22">
-        <v>1.613304641520641</v>
+        <v>1.598090935147758</v>
       </c>
       <c r="I22">
-        <v>2.766987978498422</v>
+        <v>2.790875061998167</v>
       </c>
       <c r="J22">
-        <v>9.897082738079723</v>
+        <v>8.795999130005416</v>
       </c>
       <c r="K22">
-        <v>14.86060508610086</v>
+        <v>13.97098249294142</v>
       </c>
       <c r="L22">
-        <v>6.246675494839776</v>
+        <v>11.31656685813942</v>
       </c>
       <c r="M22">
-        <v>13.85599211005555</v>
+        <v>9.562513393463068</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>6.244134769153828</v>
       </c>
       <c r="O22">
-        <v>14.96847841696166</v>
+        <v>13.71613411154246</v>
       </c>
       <c r="P22">
-        <v>12.34140840496641</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>16.91418907571218</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>14.89878902301755</v>
+      </c>
+      <c r="R22">
+        <v>12.27537768385487</v>
+      </c>
+      <c r="S22">
+        <v>16.01069523809125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.1529445971757</v>
+        <v>14.6890199775723</v>
       </c>
       <c r="C23">
-        <v>9.456098813408911</v>
+        <v>9.932327112679843</v>
       </c>
       <c r="D23">
-        <v>13.15398397307854</v>
+        <v>13.15940899942012</v>
       </c>
       <c r="E23">
-        <v>13.33657445741576</v>
+        <v>13.34433856050693</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>27.56659856730631</v>
+        <v>28.32345067498089</v>
       </c>
       <c r="H23">
-        <v>1.590508311689</v>
+        <v>1.598790393617612</v>
       </c>
       <c r="I23">
-        <v>2.711261543207493</v>
+        <v>2.743491920341575</v>
       </c>
       <c r="J23">
-        <v>9.891948077300029</v>
+        <v>9.075291821208374</v>
       </c>
       <c r="K23">
-        <v>14.8705105227366</v>
+        <v>14.05284527953772</v>
       </c>
       <c r="L23">
-        <v>6.20616685103704</v>
+        <v>11.41092887246199</v>
       </c>
       <c r="M23">
-        <v>13.62595701696187</v>
+        <v>9.555708225598263</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>6.205417986410155</v>
       </c>
       <c r="O23">
-        <v>14.75497289695702</v>
+        <v>13.5209881151333</v>
       </c>
       <c r="P23">
-        <v>12.40064355306725</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>16.86405681614303</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>14.70524742983331</v>
+      </c>
+      <c r="R23">
+        <v>12.32924672860146</v>
+      </c>
+      <c r="S23">
+        <v>16.07014378907725</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.06721561849383</v>
+        <v>13.73230480152679</v>
       </c>
       <c r="C24">
-        <v>8.824065734548048</v>
+        <v>9.321995170244525</v>
       </c>
       <c r="D24">
-        <v>12.48043647583023</v>
+        <v>12.48607421216867</v>
       </c>
       <c r="E24">
-        <v>12.7116730390895</v>
+        <v>12.72317860024968</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>26.77604974598192</v>
+        <v>25.60114088497324</v>
       </c>
       <c r="H24">
-        <v>1.916950817808575</v>
+        <v>1.900991172850849</v>
       </c>
       <c r="I24">
-        <v>2.504354785435487</v>
+        <v>2.567698084961632</v>
       </c>
       <c r="J24">
-        <v>9.868515763718015</v>
+        <v>9.882150742145274</v>
       </c>
       <c r="K24">
-        <v>14.8904734318056</v>
+        <v>14.26992217505272</v>
       </c>
       <c r="L24">
-        <v>6.048890149528478</v>
+        <v>11.71748613209062</v>
       </c>
       <c r="M24">
-        <v>12.71709803877442</v>
+        <v>9.46256455298086</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>6.056079151680861</v>
       </c>
       <c r="O24">
-        <v>13.919511420392</v>
+        <v>12.70455062589587</v>
       </c>
       <c r="P24">
-        <v>12.62595204014555</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>16.66124368037557</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>13.92102815419931</v>
+      </c>
+      <c r="R24">
+        <v>12.5387075322259</v>
+      </c>
+      <c r="S24">
+        <v>16.15838794028797</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.78818009152745</v>
+        <v>12.54291330804593</v>
       </c>
       <c r="C25">
-        <v>8.097883467287373</v>
+        <v>8.454939010498343</v>
       </c>
       <c r="D25">
-        <v>11.72129317701228</v>
+        <v>11.73253289259087</v>
       </c>
       <c r="E25">
-        <v>12.00409880301395</v>
+        <v>12.02800597904933</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>25.94900448837861</v>
+        <v>24.77314829345539</v>
       </c>
       <c r="H25">
-        <v>2.285342001786642</v>
+        <v>2.253261161163287</v>
       </c>
       <c r="I25">
-        <v>2.717842884921833</v>
+        <v>2.6388401038582</v>
       </c>
       <c r="J25">
-        <v>9.855118656840135</v>
+        <v>9.924501465804662</v>
       </c>
       <c r="K25">
-        <v>14.92995856973678</v>
+        <v>14.377027796298</v>
       </c>
       <c r="L25">
-        <v>5.872280544191431</v>
+        <v>11.96569962358452</v>
       </c>
       <c r="M25">
-        <v>11.65689691015102</v>
+        <v>9.300903742613373</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>5.888069396349947</v>
       </c>
       <c r="O25">
-        <v>12.96346132137127</v>
+        <v>11.65838817236462</v>
       </c>
       <c r="P25">
-        <v>12.87391462742827</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>16.46539488305618</v>
+        <v>12.97025704928375</v>
+      </c>
+      <c r="R25">
+        <v>12.76989618055991</v>
+      </c>
+      <c r="S25">
+        <v>16.04138759991704</v>
       </c>
     </row>
   </sheetData>
